--- a/data/UCGSES.xlsx
+++ b/data/UCGSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanolan\OneDrive\IR_Folder\UCSD_Gaps_Quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC61F1F8-0625-4616-9419-13DEC5719130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD1A055-C202-498F-B9B2-AAEDBBBC1E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61FCD85B-1D55-4F53-8AAE-887E8D8E82D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8080" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8440" uniqueCount="70">
   <si>
     <t>q</t>
   </si>
@@ -641,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E9CEE1-CF8E-498D-873A-AA06707249A5}">
-  <dimension ref="A1:P1346"/>
+  <dimension ref="A1:P1406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1320" workbookViewId="0">
-      <selection activeCell="F1353" sqref="F1353"/>
+    <sheetView tabSelected="1" topLeftCell="A1406" workbookViewId="0">
+      <selection activeCell="F1416" sqref="F1416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -24459,7 +24459,7 @@
       <c r="B747" t="s">
         <v>62</v>
       </c>
-      <c r="C747" s="8" t="s">
+      <c r="C747" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D747" t="s">
@@ -24491,7 +24491,7 @@
       <c r="B748" t="s">
         <v>62</v>
       </c>
-      <c r="C748" s="8" t="s">
+      <c r="C748" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D748" t="s">
@@ -24523,7 +24523,7 @@
       <c r="B749" t="s">
         <v>62</v>
       </c>
-      <c r="C749" s="8" t="s">
+      <c r="C749" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D749" t="s">
@@ -24555,7 +24555,7 @@
       <c r="B750" t="s">
         <v>62</v>
       </c>
-      <c r="C750" s="8" t="s">
+      <c r="C750" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D750" t="s">
@@ -24587,7 +24587,7 @@
       <c r="B751" t="s">
         <v>62</v>
       </c>
-      <c r="C751" s="8" t="s">
+      <c r="C751" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D751" t="s">
@@ -24619,7 +24619,7 @@
       <c r="B752" t="s">
         <v>62</v>
       </c>
-      <c r="C752" s="8" t="s">
+      <c r="C752" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D752" t="s">
@@ -24651,7 +24651,7 @@
       <c r="B753" t="s">
         <v>62</v>
       </c>
-      <c r="C753" s="8" t="s">
+      <c r="C753" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D753" t="s">
@@ -24683,7 +24683,7 @@
       <c r="B754" t="s">
         <v>62</v>
       </c>
-      <c r="C754" s="8" t="s">
+      <c r="C754" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D754" t="s">
@@ -24715,7 +24715,7 @@
       <c r="B755" t="s">
         <v>62</v>
       </c>
-      <c r="C755" s="8" t="s">
+      <c r="C755" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D755" t="s">
@@ -24747,7 +24747,7 @@
       <c r="B756" t="s">
         <v>62</v>
       </c>
-      <c r="C756" s="8" t="s">
+      <c r="C756" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D756" t="s">
@@ -24779,7 +24779,7 @@
       <c r="B757" t="s">
         <v>62</v>
       </c>
-      <c r="C757" s="8" t="s">
+      <c r="C757" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D757" t="s">
@@ -24811,7 +24811,7 @@
       <c r="B758" t="s">
         <v>62</v>
       </c>
-      <c r="C758" s="8" t="s">
+      <c r="C758" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D758" t="s">
@@ -24843,7 +24843,7 @@
       <c r="B759" t="s">
         <v>62</v>
       </c>
-      <c r="C759" s="8" t="s">
+      <c r="C759" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D759" t="s">
@@ -24875,7 +24875,7 @@
       <c r="B760" t="s">
         <v>62</v>
       </c>
-      <c r="C760" s="8" t="s">
+      <c r="C760" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D760" t="s">
@@ -24907,7 +24907,7 @@
       <c r="B761" t="s">
         <v>62</v>
       </c>
-      <c r="C761" s="8" t="s">
+      <c r="C761" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D761" t="s">
@@ -24939,7 +24939,7 @@
       <c r="B762" t="s">
         <v>62</v>
       </c>
-      <c r="C762" s="8" t="s">
+      <c r="C762" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D762" t="s">
@@ -24971,7 +24971,7 @@
       <c r="B763" t="s">
         <v>62</v>
       </c>
-      <c r="C763" s="8" t="s">
+      <c r="C763" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D763" t="s">
@@ -25003,7 +25003,7 @@
       <c r="B764" t="s">
         <v>62</v>
       </c>
-      <c r="C764" s="8" t="s">
+      <c r="C764" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D764" t="s">
@@ -25035,7 +25035,7 @@
       <c r="B765" t="s">
         <v>62</v>
       </c>
-      <c r="C765" s="8" t="s">
+      <c r="C765" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D765" t="s">
@@ -25067,7 +25067,7 @@
       <c r="B766" t="s">
         <v>62</v>
       </c>
-      <c r="C766" s="8" t="s">
+      <c r="C766" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D766" t="s">
@@ -25099,7 +25099,7 @@
       <c r="B767" t="s">
         <v>62</v>
       </c>
-      <c r="C767" s="8" t="s">
+      <c r="C767" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D767" t="s">
@@ -25131,7 +25131,7 @@
       <c r="B768" t="s">
         <v>62</v>
       </c>
-      <c r="C768" s="8" t="s">
+      <c r="C768" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D768" t="s">
@@ -25163,7 +25163,7 @@
       <c r="B769" t="s">
         <v>62</v>
       </c>
-      <c r="C769" s="8" t="s">
+      <c r="C769" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D769" t="s">
@@ -25195,7 +25195,7 @@
       <c r="B770" t="s">
         <v>62</v>
       </c>
-      <c r="C770" s="8" t="s">
+      <c r="C770" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D770" t="s">
@@ -25227,7 +25227,7 @@
       <c r="B771" t="s">
         <v>62</v>
       </c>
-      <c r="C771" s="8" t="s">
+      <c r="C771" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D771" t="s">
@@ -25259,7 +25259,7 @@
       <c r="B772" t="s">
         <v>62</v>
       </c>
-      <c r="C772" s="8" t="s">
+      <c r="C772" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D772" t="s">
@@ -25291,7 +25291,7 @@
       <c r="B773" t="s">
         <v>62</v>
       </c>
-      <c r="C773" s="8" t="s">
+      <c r="C773" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D773" t="s">
@@ -25323,7 +25323,7 @@
       <c r="B774" t="s">
         <v>62</v>
       </c>
-      <c r="C774" s="8" t="s">
+      <c r="C774" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D774" t="s">
@@ -25355,7 +25355,7 @@
       <c r="B775" t="s">
         <v>62</v>
       </c>
-      <c r="C775" s="8" t="s">
+      <c r="C775" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D775" t="s">
@@ -25387,7 +25387,7 @@
       <c r="B776" t="s">
         <v>62</v>
       </c>
-      <c r="C776" s="8" t="s">
+      <c r="C776" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D776" t="s">
@@ -25419,7 +25419,7 @@
       <c r="B777" t="s">
         <v>62</v>
       </c>
-      <c r="C777" s="8" t="s">
+      <c r="C777" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D777" t="s">
@@ -25451,7 +25451,7 @@
       <c r="B778" t="s">
         <v>62</v>
       </c>
-      <c r="C778" s="8" t="s">
+      <c r="C778" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D778" t="s">
@@ -25483,7 +25483,7 @@
       <c r="B779" t="s">
         <v>62</v>
       </c>
-      <c r="C779" s="8" t="s">
+      <c r="C779" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D779" t="s">
@@ -25515,7 +25515,7 @@
       <c r="B780" t="s">
         <v>62</v>
       </c>
-      <c r="C780" s="8" t="s">
+      <c r="C780" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D780" t="s">
@@ -25547,7 +25547,7 @@
       <c r="B781" t="s">
         <v>62</v>
       </c>
-      <c r="C781" s="8" t="s">
+      <c r="C781" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D781" t="s">
@@ -25579,7 +25579,7 @@
       <c r="B782" t="s">
         <v>62</v>
       </c>
-      <c r="C782" s="8" t="s">
+      <c r="C782" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D782" t="s">
@@ -25611,7 +25611,7 @@
       <c r="B783" t="s">
         <v>62</v>
       </c>
-      <c r="C783" s="8" t="s">
+      <c r="C783" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D783" t="s">
@@ -25643,7 +25643,7 @@
       <c r="B784" t="s">
         <v>62</v>
       </c>
-      <c r="C784" s="8" t="s">
+      <c r="C784" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D784" t="s">
@@ -25675,7 +25675,7 @@
       <c r="B785" t="s">
         <v>62</v>
       </c>
-      <c r="C785" s="8" t="s">
+      <c r="C785" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D785" t="s">
@@ -25707,7 +25707,7 @@
       <c r="B786" t="s">
         <v>62</v>
       </c>
-      <c r="C786" s="8" t="s">
+      <c r="C786" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D786" t="s">
@@ -25739,7 +25739,7 @@
       <c r="B787" t="s">
         <v>62</v>
       </c>
-      <c r="C787" s="8" t="s">
+      <c r="C787" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D787" t="s">
@@ -25771,7 +25771,7 @@
       <c r="B788" t="s">
         <v>62</v>
       </c>
-      <c r="C788" s="8" t="s">
+      <c r="C788" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D788" t="s">
@@ -25803,7 +25803,7 @@
       <c r="B789" t="s">
         <v>62</v>
       </c>
-      <c r="C789" s="8" t="s">
+      <c r="C789" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D789" t="s">
@@ -25835,7 +25835,7 @@
       <c r="B790" t="s">
         <v>62</v>
       </c>
-      <c r="C790" s="8" t="s">
+      <c r="C790" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D790" t="s">
@@ -25867,7 +25867,7 @@
       <c r="B791" t="s">
         <v>62</v>
       </c>
-      <c r="C791" s="8" t="s">
+      <c r="C791" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D791" t="s">
@@ -25899,7 +25899,7 @@
       <c r="B792" t="s">
         <v>62</v>
       </c>
-      <c r="C792" s="8" t="s">
+      <c r="C792" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D792" t="s">
@@ -25931,7 +25931,7 @@
       <c r="B793" t="s">
         <v>62</v>
       </c>
-      <c r="C793" s="8" t="s">
+      <c r="C793" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D793" t="s">
@@ -25963,7 +25963,7 @@
       <c r="B794" t="s">
         <v>62</v>
       </c>
-      <c r="C794" s="8" t="s">
+      <c r="C794" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D794" t="s">
@@ -25995,7 +25995,7 @@
       <c r="B795" t="s">
         <v>62</v>
       </c>
-      <c r="C795" s="8" t="s">
+      <c r="C795" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D795" t="s">
@@ -26027,7 +26027,7 @@
       <c r="B796" t="s">
         <v>62</v>
       </c>
-      <c r="C796" s="8" t="s">
+      <c r="C796" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D796" t="s">
@@ -26059,7 +26059,7 @@
       <c r="B797" t="s">
         <v>62</v>
       </c>
-      <c r="C797" s="8" t="s">
+      <c r="C797" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D797" t="s">
@@ -26091,7 +26091,7 @@
       <c r="B798" t="s">
         <v>62</v>
       </c>
-      <c r="C798" s="8" t="s">
+      <c r="C798" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D798" t="s">
@@ -26123,7 +26123,7 @@
       <c r="B799" t="s">
         <v>62</v>
       </c>
-      <c r="C799" s="8" t="s">
+      <c r="C799" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D799" t="s">
@@ -26155,7 +26155,7 @@
       <c r="B800" t="s">
         <v>62</v>
       </c>
-      <c r="C800" s="8" t="s">
+      <c r="C800" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D800" t="s">
@@ -26187,7 +26187,7 @@
       <c r="B801" t="s">
         <v>62</v>
       </c>
-      <c r="C801" s="8" t="s">
+      <c r="C801" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D801" t="s">
@@ -26219,7 +26219,7 @@
       <c r="B802" t="s">
         <v>62</v>
       </c>
-      <c r="C802" s="8" t="s">
+      <c r="C802" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D802" t="s">
@@ -26251,7 +26251,7 @@
       <c r="B803" t="s">
         <v>62</v>
       </c>
-      <c r="C803" s="8" t="s">
+      <c r="C803" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D803" t="s">
@@ -26283,7 +26283,7 @@
       <c r="B804" t="s">
         <v>62</v>
       </c>
-      <c r="C804" s="8" t="s">
+      <c r="C804" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D804" t="s">
@@ -26315,7 +26315,7 @@
       <c r="B805" t="s">
         <v>62</v>
       </c>
-      <c r="C805" s="8" t="s">
+      <c r="C805" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D805" t="s">
@@ -26347,7 +26347,7 @@
       <c r="B806" t="s">
         <v>62</v>
       </c>
-      <c r="C806" s="8" t="s">
+      <c r="C806" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D806" t="s">
@@ -26379,7 +26379,7 @@
       <c r="B807" t="s">
         <v>62</v>
       </c>
-      <c r="C807" s="8" t="s">
+      <c r="C807" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D807" t="s">
@@ -26411,7 +26411,7 @@
       <c r="B808" t="s">
         <v>62</v>
       </c>
-      <c r="C808" s="8" t="s">
+      <c r="C808" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D808" t="s">
@@ -26443,7 +26443,7 @@
       <c r="B809" t="s">
         <v>62</v>
       </c>
-      <c r="C809" s="8" t="s">
+      <c r="C809" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D809" t="s">
@@ -26475,7 +26475,7 @@
       <c r="B810" t="s">
         <v>62</v>
       </c>
-      <c r="C810" s="8" t="s">
+      <c r="C810" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D810" t="s">
@@ -26507,7 +26507,7 @@
       <c r="B811" t="s">
         <v>62</v>
       </c>
-      <c r="C811" s="8" t="s">
+      <c r="C811" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D811" t="s">
@@ -26539,7 +26539,7 @@
       <c r="B812" t="s">
         <v>62</v>
       </c>
-      <c r="C812" s="8" t="s">
+      <c r="C812" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D812" t="s">
@@ -26571,7 +26571,7 @@
       <c r="B813" t="s">
         <v>62</v>
       </c>
-      <c r="C813" s="8" t="s">
+      <c r="C813" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D813" t="s">
@@ -26603,7 +26603,7 @@
       <c r="B814" t="s">
         <v>62</v>
       </c>
-      <c r="C814" s="8" t="s">
+      <c r="C814" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D814" t="s">
@@ -26635,7 +26635,7 @@
       <c r="B815" t="s">
         <v>62</v>
       </c>
-      <c r="C815" s="8" t="s">
+      <c r="C815" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D815" t="s">
@@ -26667,7 +26667,7 @@
       <c r="B816" t="s">
         <v>62</v>
       </c>
-      <c r="C816" s="8" t="s">
+      <c r="C816" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D816" t="s">
@@ -26699,7 +26699,7 @@
       <c r="B817" t="s">
         <v>62</v>
       </c>
-      <c r="C817" s="8" t="s">
+      <c r="C817" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D817" t="s">
@@ -26731,7 +26731,7 @@
       <c r="B818" t="s">
         <v>62</v>
       </c>
-      <c r="C818" s="8" t="s">
+      <c r="C818" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D818" t="s">
@@ -26763,7 +26763,7 @@
       <c r="B819" t="s">
         <v>62</v>
       </c>
-      <c r="C819" s="8" t="s">
+      <c r="C819" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D819" t="s">
@@ -26795,7 +26795,7 @@
       <c r="B820" t="s">
         <v>62</v>
       </c>
-      <c r="C820" s="8" t="s">
+      <c r="C820" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D820" t="s">
@@ -26827,7 +26827,7 @@
       <c r="B821" t="s">
         <v>62</v>
       </c>
-      <c r="C821" s="8" t="s">
+      <c r="C821" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D821" t="s">
@@ -26859,7 +26859,7 @@
       <c r="B822" t="s">
         <v>62</v>
       </c>
-      <c r="C822" s="8" t="s">
+      <c r="C822" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D822" t="s">
@@ -26891,7 +26891,7 @@
       <c r="B823" t="s">
         <v>62</v>
       </c>
-      <c r="C823" s="8" t="s">
+      <c r="C823" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D823" t="s">
@@ -26923,7 +26923,7 @@
       <c r="B824" t="s">
         <v>62</v>
       </c>
-      <c r="C824" s="8" t="s">
+      <c r="C824" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D824" t="s">
@@ -26955,7 +26955,7 @@
       <c r="B825" t="s">
         <v>62</v>
       </c>
-      <c r="C825" s="8" t="s">
+      <c r="C825" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D825" t="s">
@@ -26987,7 +26987,7 @@
       <c r="B826" t="s">
         <v>62</v>
       </c>
-      <c r="C826" s="8" t="s">
+      <c r="C826" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D826" t="s">
@@ -27019,7 +27019,7 @@
       <c r="B827" t="s">
         <v>62</v>
       </c>
-      <c r="C827" s="8" t="s">
+      <c r="C827" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D827" t="s">
@@ -27051,7 +27051,7 @@
       <c r="B828" t="s">
         <v>62</v>
       </c>
-      <c r="C828" s="8" t="s">
+      <c r="C828" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D828" t="s">
@@ -27083,7 +27083,7 @@
       <c r="B829" t="s">
         <v>62</v>
       </c>
-      <c r="C829" s="8" t="s">
+      <c r="C829" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D829" t="s">
@@ -27115,7 +27115,7 @@
       <c r="B830" t="s">
         <v>62</v>
       </c>
-      <c r="C830" s="8" t="s">
+      <c r="C830" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D830" t="s">
@@ -27147,7 +27147,7 @@
       <c r="B831" t="s">
         <v>62</v>
       </c>
-      <c r="C831" s="8" t="s">
+      <c r="C831" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D831" t="s">
@@ -27179,7 +27179,7 @@
       <c r="B832" t="s">
         <v>62</v>
       </c>
-      <c r="C832" s="8" t="s">
+      <c r="C832" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D832" t="s">
@@ -27211,7 +27211,7 @@
       <c r="B833" t="s">
         <v>62</v>
       </c>
-      <c r="C833" s="8" t="s">
+      <c r="C833" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D833" t="s">
@@ -27243,7 +27243,7 @@
       <c r="B834" t="s">
         <v>62</v>
       </c>
-      <c r="C834" s="8" t="s">
+      <c r="C834" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D834" t="s">
@@ -27275,7 +27275,7 @@
       <c r="B835" t="s">
         <v>62</v>
       </c>
-      <c r="C835" s="8" t="s">
+      <c r="C835" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D835" t="s">
@@ -27307,7 +27307,7 @@
       <c r="B836" t="s">
         <v>62</v>
       </c>
-      <c r="C836" s="8" t="s">
+      <c r="C836" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D836" t="s">
@@ -27339,7 +27339,7 @@
       <c r="B837" t="s">
         <v>62</v>
       </c>
-      <c r="C837" s="8" t="s">
+      <c r="C837" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D837" t="s">
@@ -27371,7 +27371,7 @@
       <c r="B838" t="s">
         <v>62</v>
       </c>
-      <c r="C838" s="8" t="s">
+      <c r="C838" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D838" t="s">
@@ -27403,7 +27403,7 @@
       <c r="B839" t="s">
         <v>62</v>
       </c>
-      <c r="C839" s="8" t="s">
+      <c r="C839" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D839" t="s">
@@ -27435,7 +27435,7 @@
       <c r="B840" t="s">
         <v>62</v>
       </c>
-      <c r="C840" s="8" t="s">
+      <c r="C840" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D840" t="s">
@@ -27467,7 +27467,7 @@
       <c r="B841" t="s">
         <v>62</v>
       </c>
-      <c r="C841" s="8" t="s">
+      <c r="C841" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D841" t="s">
@@ -27499,7 +27499,7 @@
       <c r="B842" t="s">
         <v>62</v>
       </c>
-      <c r="C842" s="8" t="s">
+      <c r="C842" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D842" t="s">
@@ -27531,7 +27531,7 @@
       <c r="B843" t="s">
         <v>62</v>
       </c>
-      <c r="C843" s="8" t="s">
+      <c r="C843" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D843" t="s">
@@ -27563,7 +27563,7 @@
       <c r="B844" t="s">
         <v>62</v>
       </c>
-      <c r="C844" s="8" t="s">
+      <c r="C844" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D844" t="s">
@@ -27595,7 +27595,7 @@
       <c r="B845" t="s">
         <v>62</v>
       </c>
-      <c r="C845" s="8" t="s">
+      <c r="C845" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D845" t="s">
@@ -27627,7 +27627,7 @@
       <c r="B846" t="s">
         <v>62</v>
       </c>
-      <c r="C846" s="8" t="s">
+      <c r="C846" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D846" t="s">
@@ -27659,7 +27659,7 @@
       <c r="B847" t="s">
         <v>62</v>
       </c>
-      <c r="C847" s="8" t="s">
+      <c r="C847" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D847" t="s">
@@ -27691,7 +27691,7 @@
       <c r="B848" t="s">
         <v>62</v>
       </c>
-      <c r="C848" s="8" t="s">
+      <c r="C848" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D848" t="s">
@@ -27723,7 +27723,7 @@
       <c r="B849" t="s">
         <v>62</v>
       </c>
-      <c r="C849" s="8" t="s">
+      <c r="C849" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D849" t="s">
@@ -27755,7 +27755,7 @@
       <c r="B850" t="s">
         <v>62</v>
       </c>
-      <c r="C850" s="8" t="s">
+      <c r="C850" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D850" t="s">
@@ -27787,7 +27787,7 @@
       <c r="B851" t="s">
         <v>62</v>
       </c>
-      <c r="C851" s="8" t="s">
+      <c r="C851" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D851" t="s">
@@ -27819,7 +27819,7 @@
       <c r="B852" t="s">
         <v>62</v>
       </c>
-      <c r="C852" s="8" t="s">
+      <c r="C852" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D852" t="s">
@@ -27851,7 +27851,7 @@
       <c r="B853" t="s">
         <v>62</v>
       </c>
-      <c r="C853" s="8" t="s">
+      <c r="C853" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D853" t="s">
@@ -27883,7 +27883,7 @@
       <c r="B854" t="s">
         <v>62</v>
       </c>
-      <c r="C854" s="8" t="s">
+      <c r="C854" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D854" t="s">
@@ -27915,7 +27915,7 @@
       <c r="B855" t="s">
         <v>62</v>
       </c>
-      <c r="C855" s="8" t="s">
+      <c r="C855" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D855" t="s">
@@ -27947,7 +27947,7 @@
       <c r="B856" t="s">
         <v>62</v>
       </c>
-      <c r="C856" s="8" t="s">
+      <c r="C856" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D856" t="s">
@@ -27979,7 +27979,7 @@
       <c r="B857" t="s">
         <v>62</v>
       </c>
-      <c r="C857" s="8" t="s">
+      <c r="C857" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D857" t="s">
@@ -28011,7 +28011,7 @@
       <c r="B858" t="s">
         <v>62</v>
       </c>
-      <c r="C858" s="8" t="s">
+      <c r="C858" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D858" t="s">
@@ -28043,7 +28043,7 @@
       <c r="B859" t="s">
         <v>62</v>
       </c>
-      <c r="C859" s="8" t="s">
+      <c r="C859" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D859" t="s">
@@ -28075,7 +28075,7 @@
       <c r="B860" t="s">
         <v>62</v>
       </c>
-      <c r="C860" s="8" t="s">
+      <c r="C860" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D860" t="s">
@@ -28107,7 +28107,7 @@
       <c r="B861" t="s">
         <v>62</v>
       </c>
-      <c r="C861" s="8" t="s">
+      <c r="C861" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D861" t="s">
@@ -28139,7 +28139,7 @@
       <c r="B862" t="s">
         <v>62</v>
       </c>
-      <c r="C862" s="8" t="s">
+      <c r="C862" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D862" t="s">
@@ -28171,7 +28171,7 @@
       <c r="B863" t="s">
         <v>62</v>
       </c>
-      <c r="C863" s="8" t="s">
+      <c r="C863" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D863" t="s">
@@ -28203,7 +28203,7 @@
       <c r="B864" t="s">
         <v>62</v>
       </c>
-      <c r="C864" s="8" t="s">
+      <c r="C864" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D864" t="s">
@@ -28235,7 +28235,7 @@
       <c r="B865" t="s">
         <v>62</v>
       </c>
-      <c r="C865" s="8" t="s">
+      <c r="C865" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D865" t="s">
@@ -28267,7 +28267,7 @@
       <c r="B866" t="s">
         <v>62</v>
       </c>
-      <c r="C866" s="8" t="s">
+      <c r="C866" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D866" t="s">
@@ -28299,7 +28299,7 @@
       <c r="B867" t="s">
         <v>62</v>
       </c>
-      <c r="C867" s="8" t="s">
+      <c r="C867" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D867" t="s">
@@ -28331,7 +28331,7 @@
       <c r="B868" t="s">
         <v>62</v>
       </c>
-      <c r="C868" s="8" t="s">
+      <c r="C868" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D868" t="s">
@@ -28363,7 +28363,7 @@
       <c r="B869" t="s">
         <v>62</v>
       </c>
-      <c r="C869" s="8" t="s">
+      <c r="C869" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D869" t="s">
@@ -28395,7 +28395,7 @@
       <c r="B870" t="s">
         <v>62</v>
       </c>
-      <c r="C870" s="8" t="s">
+      <c r="C870" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D870" t="s">
@@ -28427,7 +28427,7 @@
       <c r="B871" t="s">
         <v>62</v>
       </c>
-      <c r="C871" s="8" t="s">
+      <c r="C871" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D871" t="s">
@@ -28459,7 +28459,7 @@
       <c r="B872" t="s">
         <v>62</v>
       </c>
-      <c r="C872" s="8" t="s">
+      <c r="C872" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D872" t="s">
@@ -28491,7 +28491,7 @@
       <c r="B873" t="s">
         <v>62</v>
       </c>
-      <c r="C873" s="8" t="s">
+      <c r="C873" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D873" t="s">
@@ -28523,7 +28523,7 @@
       <c r="B874" t="s">
         <v>62</v>
       </c>
-      <c r="C874" s="8" t="s">
+      <c r="C874" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D874" t="s">
@@ -28555,7 +28555,7 @@
       <c r="B875" t="s">
         <v>62</v>
       </c>
-      <c r="C875" s="8" t="s">
+      <c r="C875" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D875" t="s">
@@ -28587,7 +28587,7 @@
       <c r="B876" t="s">
         <v>62</v>
       </c>
-      <c r="C876" s="8" t="s">
+      <c r="C876" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D876" t="s">
@@ -28619,7 +28619,7 @@
       <c r="B877" t="s">
         <v>62</v>
       </c>
-      <c r="C877" s="8" t="s">
+      <c r="C877" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D877" t="s">
@@ -28651,7 +28651,7 @@
       <c r="B878" t="s">
         <v>62</v>
       </c>
-      <c r="C878" s="8" t="s">
+      <c r="C878" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D878" t="s">
@@ -28683,7 +28683,7 @@
       <c r="B879" t="s">
         <v>62</v>
       </c>
-      <c r="C879" s="8" t="s">
+      <c r="C879" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D879" t="s">
@@ -28715,7 +28715,7 @@
       <c r="B880" t="s">
         <v>62</v>
       </c>
-      <c r="C880" s="8" t="s">
+      <c r="C880" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D880" t="s">
@@ -28747,7 +28747,7 @@
       <c r="B881" t="s">
         <v>62</v>
       </c>
-      <c r="C881" s="8" t="s">
+      <c r="C881" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D881" t="s">
@@ -28779,7 +28779,7 @@
       <c r="B882" t="s">
         <v>62</v>
       </c>
-      <c r="C882" s="8" t="s">
+      <c r="C882" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D882" t="s">
@@ -28811,7 +28811,7 @@
       <c r="B883" t="s">
         <v>62</v>
       </c>
-      <c r="C883" s="8" t="s">
+      <c r="C883" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D883" t="s">
@@ -28843,7 +28843,7 @@
       <c r="B884" t="s">
         <v>62</v>
       </c>
-      <c r="C884" s="8" t="s">
+      <c r="C884" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D884" t="s">
@@ -28875,7 +28875,7 @@
       <c r="B885" t="s">
         <v>62</v>
       </c>
-      <c r="C885" s="8" t="s">
+      <c r="C885" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D885" t="s">
@@ -28907,7 +28907,7 @@
       <c r="B886" t="s">
         <v>62</v>
       </c>
-      <c r="C886" s="8" t="s">
+      <c r="C886" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D886" t="s">
@@ -28939,7 +28939,7 @@
       <c r="B887" t="s">
         <v>62</v>
       </c>
-      <c r="C887" s="8" t="s">
+      <c r="C887" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D887" t="s">
@@ -28971,7 +28971,7 @@
       <c r="B888" t="s">
         <v>62</v>
       </c>
-      <c r="C888" s="8" t="s">
+      <c r="C888" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D888" t="s">
@@ -29003,7 +29003,7 @@
       <c r="B889" t="s">
         <v>62</v>
       </c>
-      <c r="C889" s="8" t="s">
+      <c r="C889" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D889" t="s">
@@ -29035,7 +29035,7 @@
       <c r="B890" t="s">
         <v>62</v>
       </c>
-      <c r="C890" s="8" t="s">
+      <c r="C890" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D890" t="s">
@@ -29067,7 +29067,7 @@
       <c r="B891" t="s">
         <v>62</v>
       </c>
-      <c r="C891" s="8" t="s">
+      <c r="C891" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D891" t="s">
@@ -29099,7 +29099,7 @@
       <c r="B892" t="s">
         <v>62</v>
       </c>
-      <c r="C892" s="8" t="s">
+      <c r="C892" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D892" t="s">
@@ -29131,7 +29131,7 @@
       <c r="B893" t="s">
         <v>62</v>
       </c>
-      <c r="C893" s="8" t="s">
+      <c r="C893" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D893" t="s">
@@ -29163,7 +29163,7 @@
       <c r="B894" t="s">
         <v>62</v>
       </c>
-      <c r="C894" s="8" t="s">
+      <c r="C894" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D894" t="s">
@@ -29195,7 +29195,7 @@
       <c r="B895" t="s">
         <v>62</v>
       </c>
-      <c r="C895" s="8" t="s">
+      <c r="C895" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D895" t="s">
@@ -29227,7 +29227,7 @@
       <c r="B896" t="s">
         <v>62</v>
       </c>
-      <c r="C896" s="8" t="s">
+      <c r="C896" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D896" t="s">
@@ -29259,7 +29259,7 @@
       <c r="B897" t="s">
         <v>62</v>
       </c>
-      <c r="C897" s="8" t="s">
+      <c r="C897" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D897" t="s">
@@ -29291,7 +29291,7 @@
       <c r="B898" t="s">
         <v>62</v>
       </c>
-      <c r="C898" s="8" t="s">
+      <c r="C898" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D898" t="s">
@@ -29323,7 +29323,7 @@
       <c r="B899" t="s">
         <v>62</v>
       </c>
-      <c r="C899" s="8" t="s">
+      <c r="C899" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D899" t="s">
@@ -29355,7 +29355,7 @@
       <c r="B900" t="s">
         <v>62</v>
       </c>
-      <c r="C900" s="8" t="s">
+      <c r="C900" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D900" t="s">
@@ -29387,7 +29387,7 @@
       <c r="B901" t="s">
         <v>62</v>
       </c>
-      <c r="C901" s="8" t="s">
+      <c r="C901" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D901" t="s">
@@ -29419,7 +29419,7 @@
       <c r="B902" t="s">
         <v>62</v>
       </c>
-      <c r="C902" s="8" t="s">
+      <c r="C902" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D902" t="s">
@@ -29451,7 +29451,7 @@
       <c r="B903" t="s">
         <v>62</v>
       </c>
-      <c r="C903" s="8" t="s">
+      <c r="C903" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D903" t="s">
@@ -29483,7 +29483,7 @@
       <c r="B904" t="s">
         <v>62</v>
       </c>
-      <c r="C904" s="8" t="s">
+      <c r="C904" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D904" t="s">
@@ -29515,7 +29515,7 @@
       <c r="B905" t="s">
         <v>62</v>
       </c>
-      <c r="C905" s="8" t="s">
+      <c r="C905" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D905" t="s">
@@ -29547,7 +29547,7 @@
       <c r="B906" t="s">
         <v>62</v>
       </c>
-      <c r="C906" s="8" t="s">
+      <c r="C906" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D906" t="s">
@@ -29579,7 +29579,7 @@
       <c r="B907" t="s">
         <v>62</v>
       </c>
-      <c r="C907" s="8" t="s">
+      <c r="C907" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D907" t="s">
@@ -29611,7 +29611,7 @@
       <c r="B908" t="s">
         <v>62</v>
       </c>
-      <c r="C908" s="8" t="s">
+      <c r="C908" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D908" t="s">
@@ -29643,7 +29643,7 @@
       <c r="B909" t="s">
         <v>62</v>
       </c>
-      <c r="C909" s="8" t="s">
+      <c r="C909" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D909" t="s">
@@ -29675,7 +29675,7 @@
       <c r="B910" t="s">
         <v>62</v>
       </c>
-      <c r="C910" s="8" t="s">
+      <c r="C910" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D910" t="s">
@@ -29707,7 +29707,7 @@
       <c r="B911" t="s">
         <v>62</v>
       </c>
-      <c r="C911" s="8" t="s">
+      <c r="C911" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D911" t="s">
@@ -29739,7 +29739,7 @@
       <c r="B912" t="s">
         <v>62</v>
       </c>
-      <c r="C912" s="8" t="s">
+      <c r="C912" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D912" t="s">
@@ -29771,7 +29771,7 @@
       <c r="B913" t="s">
         <v>62</v>
       </c>
-      <c r="C913" s="8" t="s">
+      <c r="C913" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D913" t="s">
@@ -29803,7 +29803,7 @@
       <c r="B914" t="s">
         <v>62</v>
       </c>
-      <c r="C914" s="8" t="s">
+      <c r="C914" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D914" t="s">
@@ -29835,7 +29835,7 @@
       <c r="B915" t="s">
         <v>62</v>
       </c>
-      <c r="C915" s="8" t="s">
+      <c r="C915" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D915" t="s">
@@ -29867,7 +29867,7 @@
       <c r="B916" t="s">
         <v>62</v>
       </c>
-      <c r="C916" s="8" t="s">
+      <c r="C916" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D916" t="s">
@@ -29899,7 +29899,7 @@
       <c r="B917" t="s">
         <v>62</v>
       </c>
-      <c r="C917" s="8" t="s">
+      <c r="C917" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D917" t="s">
@@ -29931,7 +29931,7 @@
       <c r="B918" t="s">
         <v>62</v>
       </c>
-      <c r="C918" s="8" t="s">
+      <c r="C918" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D918" t="s">
@@ -29963,7 +29963,7 @@
       <c r="B919" t="s">
         <v>62</v>
       </c>
-      <c r="C919" s="8" t="s">
+      <c r="C919" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D919" t="s">
@@ -29995,7 +29995,7 @@
       <c r="B920" t="s">
         <v>62</v>
       </c>
-      <c r="C920" s="8" t="s">
+      <c r="C920" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D920" t="s">
@@ -30027,7 +30027,7 @@
       <c r="B921" t="s">
         <v>62</v>
       </c>
-      <c r="C921" s="8" t="s">
+      <c r="C921" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D921" t="s">
@@ -30059,7 +30059,7 @@
       <c r="B922" t="s">
         <v>62</v>
       </c>
-      <c r="C922" s="8" t="s">
+      <c r="C922" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D922" t="s">
@@ -30091,7 +30091,7 @@
       <c r="B923" t="s">
         <v>62</v>
       </c>
-      <c r="C923" s="8" t="s">
+      <c r="C923" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D923" t="s">
@@ -30123,7 +30123,7 @@
       <c r="B924" t="s">
         <v>62</v>
       </c>
-      <c r="C924" s="8" t="s">
+      <c r="C924" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D924" t="s">
@@ -30155,7 +30155,7 @@
       <c r="B925" t="s">
         <v>62</v>
       </c>
-      <c r="C925" s="8" t="s">
+      <c r="C925" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D925" t="s">
@@ -30187,7 +30187,7 @@
       <c r="B926" t="s">
         <v>62</v>
       </c>
-      <c r="C926" s="8" t="s">
+      <c r="C926" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D926" t="s">
@@ -30219,7 +30219,7 @@
       <c r="B927" t="s">
         <v>62</v>
       </c>
-      <c r="C927" s="8" t="s">
+      <c r="C927" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D927" t="s">
@@ -30251,7 +30251,7 @@
       <c r="B928" t="s">
         <v>62</v>
       </c>
-      <c r="C928" s="8" t="s">
+      <c r="C928" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D928" t="s">
@@ -30283,7 +30283,7 @@
       <c r="B929" t="s">
         <v>62</v>
       </c>
-      <c r="C929" s="8" t="s">
+      <c r="C929" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D929" t="s">
@@ -30315,7 +30315,7 @@
       <c r="B930" t="s">
         <v>62</v>
       </c>
-      <c r="C930" s="8" t="s">
+      <c r="C930" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D930" t="s">
@@ -30347,7 +30347,7 @@
       <c r="B931" t="s">
         <v>62</v>
       </c>
-      <c r="C931" s="8" t="s">
+      <c r="C931" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D931" t="s">
@@ -30379,7 +30379,7 @@
       <c r="B932" t="s">
         <v>62</v>
       </c>
-      <c r="C932" s="8" t="s">
+      <c r="C932" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D932" t="s">
@@ -30411,7 +30411,7 @@
       <c r="B933" t="s">
         <v>62</v>
       </c>
-      <c r="C933" s="8" t="s">
+      <c r="C933" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D933" t="s">
@@ -30443,7 +30443,7 @@
       <c r="B934" t="s">
         <v>62</v>
       </c>
-      <c r="C934" s="8" t="s">
+      <c r="C934" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D934" t="s">
@@ -30475,7 +30475,7 @@
       <c r="B935" t="s">
         <v>62</v>
       </c>
-      <c r="C935" s="8" t="s">
+      <c r="C935" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D935" t="s">
@@ -30507,7 +30507,7 @@
       <c r="B936" t="s">
         <v>62</v>
       </c>
-      <c r="C936" s="8" t="s">
+      <c r="C936" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D936" t="s">
@@ -30539,7 +30539,7 @@
       <c r="B937" t="s">
         <v>62</v>
       </c>
-      <c r="C937" s="8" t="s">
+      <c r="C937" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D937" t="s">
@@ -30571,7 +30571,7 @@
       <c r="B938" t="s">
         <v>62</v>
       </c>
-      <c r="C938" s="8" t="s">
+      <c r="C938" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D938" t="s">
@@ -30603,7 +30603,7 @@
       <c r="B939" t="s">
         <v>62</v>
       </c>
-      <c r="C939" s="8" t="s">
+      <c r="C939" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D939" t="s">
@@ -30635,7 +30635,7 @@
       <c r="B940" t="s">
         <v>62</v>
       </c>
-      <c r="C940" s="8" t="s">
+      <c r="C940" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D940" t="s">
@@ -30667,7 +30667,7 @@
       <c r="B941" t="s">
         <v>62</v>
       </c>
-      <c r="C941" s="8" t="s">
+      <c r="C941" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D941" t="s">
@@ -30699,7 +30699,7 @@
       <c r="B942" t="s">
         <v>62</v>
       </c>
-      <c r="C942" s="8" t="s">
+      <c r="C942" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D942" t="s">
@@ -30731,7 +30731,7 @@
       <c r="B943" t="s">
         <v>62</v>
       </c>
-      <c r="C943" s="8" t="s">
+      <c r="C943" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D943" t="s">
@@ -30763,7 +30763,7 @@
       <c r="B944" t="s">
         <v>62</v>
       </c>
-      <c r="C944" s="8" t="s">
+      <c r="C944" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D944" t="s">
@@ -30795,7 +30795,7 @@
       <c r="B945" t="s">
         <v>62</v>
       </c>
-      <c r="C945" s="8" t="s">
+      <c r="C945" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D945" t="s">
@@ -30827,7 +30827,7 @@
       <c r="B946" t="s">
         <v>62</v>
       </c>
-      <c r="C946" s="8" t="s">
+      <c r="C946" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D946" t="s">
@@ -30859,7 +30859,7 @@
       <c r="B947" t="s">
         <v>62</v>
       </c>
-      <c r="C947" s="8" t="s">
+      <c r="C947" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D947" t="s">
@@ -30891,7 +30891,7 @@
       <c r="B948" t="s">
         <v>62</v>
       </c>
-      <c r="C948" s="8" t="s">
+      <c r="C948" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D948" t="s">
@@ -30923,7 +30923,7 @@
       <c r="B949" t="s">
         <v>62</v>
       </c>
-      <c r="C949" s="8" t="s">
+      <c r="C949" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D949" t="s">
@@ -30955,7 +30955,7 @@
       <c r="B950" t="s">
         <v>62</v>
       </c>
-      <c r="C950" s="8" t="s">
+      <c r="C950" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D950" t="s">
@@ -30987,7 +30987,7 @@
       <c r="B951" t="s">
         <v>62</v>
       </c>
-      <c r="C951" s="8" t="s">
+      <c r="C951" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D951" t="s">
@@ -31019,7 +31019,7 @@
       <c r="B952" t="s">
         <v>62</v>
       </c>
-      <c r="C952" s="8" t="s">
+      <c r="C952" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D952" t="s">
@@ -31051,7 +31051,7 @@
       <c r="B953" t="s">
         <v>62</v>
       </c>
-      <c r="C953" s="8" t="s">
+      <c r="C953" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D953" t="s">
@@ -31083,7 +31083,7 @@
       <c r="B954" t="s">
         <v>62</v>
       </c>
-      <c r="C954" s="8" t="s">
+      <c r="C954" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D954" t="s">
@@ -31115,7 +31115,7 @@
       <c r="B955" t="s">
         <v>62</v>
       </c>
-      <c r="C955" s="8" t="s">
+      <c r="C955" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D955" t="s">
@@ -31147,7 +31147,7 @@
       <c r="B956" t="s">
         <v>62</v>
       </c>
-      <c r="C956" s="8" t="s">
+      <c r="C956" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D956" t="s">
@@ -31179,7 +31179,7 @@
       <c r="B957" t="s">
         <v>62</v>
       </c>
-      <c r="C957" s="8" t="s">
+      <c r="C957" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D957" t="s">
@@ -31211,7 +31211,7 @@
       <c r="B958" t="s">
         <v>62</v>
       </c>
-      <c r="C958" s="8" t="s">
+      <c r="C958" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D958" t="s">
@@ -31243,7 +31243,7 @@
       <c r="B959" t="s">
         <v>62</v>
       </c>
-      <c r="C959" s="8" t="s">
+      <c r="C959" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D959" t="s">
@@ -31275,7 +31275,7 @@
       <c r="B960" t="s">
         <v>62</v>
       </c>
-      <c r="C960" s="8" t="s">
+      <c r="C960" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D960" t="s">
@@ -31307,7 +31307,7 @@
       <c r="B961" t="s">
         <v>62</v>
       </c>
-      <c r="C961" s="8" t="s">
+      <c r="C961" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D961" t="s">
@@ -31339,7 +31339,7 @@
       <c r="B962" t="s">
         <v>62</v>
       </c>
-      <c r="C962" s="8" t="s">
+      <c r="C962" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D962" t="s">
@@ -31371,7 +31371,7 @@
       <c r="B963" t="s">
         <v>62</v>
       </c>
-      <c r="C963" s="8" t="s">
+      <c r="C963" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D963" t="s">
@@ -31403,7 +31403,7 @@
       <c r="B964" t="s">
         <v>62</v>
       </c>
-      <c r="C964" s="8" t="s">
+      <c r="C964" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D964" t="s">
@@ -31435,7 +31435,7 @@
       <c r="B965" t="s">
         <v>62</v>
       </c>
-      <c r="C965" s="8" t="s">
+      <c r="C965" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D965" t="s">
@@ -31467,7 +31467,7 @@
       <c r="B966" t="s">
         <v>62</v>
       </c>
-      <c r="C966" s="8" t="s">
+      <c r="C966" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D966" t="s">
@@ -31499,7 +31499,7 @@
       <c r="B967" t="s">
         <v>62</v>
       </c>
-      <c r="C967" s="8" t="s">
+      <c r="C967" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D967" t="s">
@@ -31531,7 +31531,7 @@
       <c r="B968" t="s">
         <v>62</v>
       </c>
-      <c r="C968" s="8" t="s">
+      <c r="C968" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D968" t="s">
@@ -31563,7 +31563,7 @@
       <c r="B969" t="s">
         <v>62</v>
       </c>
-      <c r="C969" s="8" t="s">
+      <c r="C969" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D969" t="s">
@@ -31595,7 +31595,7 @@
       <c r="B970" t="s">
         <v>62</v>
       </c>
-      <c r="C970" s="8" t="s">
+      <c r="C970" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D970" t="s">
@@ -31627,7 +31627,7 @@
       <c r="B971" t="s">
         <v>62</v>
       </c>
-      <c r="C971" s="8" t="s">
+      <c r="C971" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D971" t="s">
@@ -31659,7 +31659,7 @@
       <c r="B972" t="s">
         <v>62</v>
       </c>
-      <c r="C972" s="8" t="s">
+      <c r="C972" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D972" t="s">
@@ -31691,7 +31691,7 @@
       <c r="B973" t="s">
         <v>62</v>
       </c>
-      <c r="C973" s="8" t="s">
+      <c r="C973" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D973" t="s">
@@ -31723,7 +31723,7 @@
       <c r="B974" t="s">
         <v>62</v>
       </c>
-      <c r="C974" s="8" t="s">
+      <c r="C974" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D974" t="s">
@@ -31755,7 +31755,7 @@
       <c r="B975" t="s">
         <v>62</v>
       </c>
-      <c r="C975" s="8" t="s">
+      <c r="C975" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D975" t="s">
@@ -31787,7 +31787,7 @@
       <c r="B976" t="s">
         <v>62</v>
       </c>
-      <c r="C976" s="8" t="s">
+      <c r="C976" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D976" t="s">
@@ -31819,7 +31819,7 @@
       <c r="B977" t="s">
         <v>62</v>
       </c>
-      <c r="C977" s="8" t="s">
+      <c r="C977" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D977" t="s">
@@ -31851,7 +31851,7 @@
       <c r="B978" t="s">
         <v>62</v>
       </c>
-      <c r="C978" s="8" t="s">
+      <c r="C978" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D978" t="s">
@@ -31883,7 +31883,7 @@
       <c r="B979" t="s">
         <v>62</v>
       </c>
-      <c r="C979" s="8" t="s">
+      <c r="C979" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D979" t="s">
@@ -31915,7 +31915,7 @@
       <c r="B980" t="s">
         <v>62</v>
       </c>
-      <c r="C980" s="8" t="s">
+      <c r="C980" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D980" t="s">
@@ -31947,7 +31947,7 @@
       <c r="B981" t="s">
         <v>62</v>
       </c>
-      <c r="C981" s="8" t="s">
+      <c r="C981" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D981" t="s">
@@ -31979,7 +31979,7 @@
       <c r="B982" t="s">
         <v>62</v>
       </c>
-      <c r="C982" s="8" t="s">
+      <c r="C982" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D982" t="s">
@@ -32011,7 +32011,7 @@
       <c r="B983" t="s">
         <v>62</v>
       </c>
-      <c r="C983" s="8" t="s">
+      <c r="C983" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D983" t="s">
@@ -32043,7 +32043,7 @@
       <c r="B984" t="s">
         <v>62</v>
       </c>
-      <c r="C984" s="8" t="s">
+      <c r="C984" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D984" t="s">
@@ -32075,7 +32075,7 @@
       <c r="B985" t="s">
         <v>62</v>
       </c>
-      <c r="C985" s="8" t="s">
+      <c r="C985" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D985" t="s">
@@ -32107,7 +32107,7 @@
       <c r="B986" t="s">
         <v>62</v>
       </c>
-      <c r="C986" s="8" t="s">
+      <c r="C986" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D986" t="s">
@@ -32139,7 +32139,7 @@
       <c r="B987" t="s">
         <v>62</v>
       </c>
-      <c r="C987" s="8" t="s">
+      <c r="C987" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D987" t="s">
@@ -32171,7 +32171,7 @@
       <c r="B988" t="s">
         <v>62</v>
       </c>
-      <c r="C988" s="8" t="s">
+      <c r="C988" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D988" t="s">
@@ -32203,7 +32203,7 @@
       <c r="B989" t="s">
         <v>62</v>
       </c>
-      <c r="C989" s="8" t="s">
+      <c r="C989" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D989" t="s">
@@ -32235,7 +32235,7 @@
       <c r="B990" t="s">
         <v>62</v>
       </c>
-      <c r="C990" s="8" t="s">
+      <c r="C990" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D990" t="s">
@@ -32267,7 +32267,7 @@
       <c r="B991" t="s">
         <v>62</v>
       </c>
-      <c r="C991" s="8" t="s">
+      <c r="C991" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D991" t="s">
@@ -32299,7 +32299,7 @@
       <c r="B992" t="s">
         <v>62</v>
       </c>
-      <c r="C992" s="8" t="s">
+      <c r="C992" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D992" t="s">
@@ -32331,7 +32331,7 @@
       <c r="B993" t="s">
         <v>62</v>
       </c>
-      <c r="C993" s="8" t="s">
+      <c r="C993" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D993" t="s">
@@ -32363,7 +32363,7 @@
       <c r="B994" t="s">
         <v>62</v>
       </c>
-      <c r="C994" s="8" t="s">
+      <c r="C994" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D994" t="s">
@@ -32395,7 +32395,7 @@
       <c r="B995" t="s">
         <v>62</v>
       </c>
-      <c r="C995" s="8" t="s">
+      <c r="C995" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D995" t="s">
@@ -32427,7 +32427,7 @@
       <c r="B996" t="s">
         <v>62</v>
       </c>
-      <c r="C996" s="8" t="s">
+      <c r="C996" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D996" t="s">
@@ -32459,7 +32459,7 @@
       <c r="B997" t="s">
         <v>62</v>
       </c>
-      <c r="C997" s="8" t="s">
+      <c r="C997" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D997" t="s">
@@ -32491,7 +32491,7 @@
       <c r="B998" t="s">
         <v>62</v>
       </c>
-      <c r="C998" s="8" t="s">
+      <c r="C998" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D998" t="s">
@@ -32523,7 +32523,7 @@
       <c r="B999" t="s">
         <v>62</v>
       </c>
-      <c r="C999" s="8" t="s">
+      <c r="C999" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D999" t="s">
@@ -32555,7 +32555,7 @@
       <c r="B1000" t="s">
         <v>62</v>
       </c>
-      <c r="C1000" s="8" t="s">
+      <c r="C1000" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1000" t="s">
@@ -32587,7 +32587,7 @@
       <c r="B1001" t="s">
         <v>62</v>
       </c>
-      <c r="C1001" s="8" t="s">
+      <c r="C1001" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1001" t="s">
@@ -32619,7 +32619,7 @@
       <c r="B1002" t="s">
         <v>62</v>
       </c>
-      <c r="C1002" s="8" t="s">
+      <c r="C1002" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1002" t="s">
@@ -32651,7 +32651,7 @@
       <c r="B1003" t="s">
         <v>62</v>
       </c>
-      <c r="C1003" s="8" t="s">
+      <c r="C1003" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1003" t="s">
@@ -32683,7 +32683,7 @@
       <c r="B1004" t="s">
         <v>62</v>
       </c>
-      <c r="C1004" s="8" t="s">
+      <c r="C1004" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1004" t="s">
@@ -32715,7 +32715,7 @@
       <c r="B1005" t="s">
         <v>62</v>
       </c>
-      <c r="C1005" s="8" t="s">
+      <c r="C1005" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1005" t="s">
@@ -32747,7 +32747,7 @@
       <c r="B1006" t="s">
         <v>62</v>
       </c>
-      <c r="C1006" s="8" t="s">
+      <c r="C1006" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1006" t="s">
@@ -32779,7 +32779,7 @@
       <c r="B1007" t="s">
         <v>62</v>
       </c>
-      <c r="C1007" s="8" t="s">
+      <c r="C1007" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1007" t="s">
@@ -32811,7 +32811,7 @@
       <c r="B1008" t="s">
         <v>62</v>
       </c>
-      <c r="C1008" s="8" t="s">
+      <c r="C1008" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1008" t="s">
@@ -32843,7 +32843,7 @@
       <c r="B1009" t="s">
         <v>62</v>
       </c>
-      <c r="C1009" s="8" t="s">
+      <c r="C1009" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1009" t="s">
@@ -32875,7 +32875,7 @@
       <c r="B1010" t="s">
         <v>62</v>
       </c>
-      <c r="C1010" s="8" t="s">
+      <c r="C1010" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1010" t="s">
@@ -32907,7 +32907,7 @@
       <c r="B1011" t="s">
         <v>62</v>
       </c>
-      <c r="C1011" s="8" t="s">
+      <c r="C1011" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1011" t="s">
@@ -32939,7 +32939,7 @@
       <c r="B1012" t="s">
         <v>62</v>
       </c>
-      <c r="C1012" s="8" t="s">
+      <c r="C1012" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1012" t="s">
@@ -32971,7 +32971,7 @@
       <c r="B1013" t="s">
         <v>62</v>
       </c>
-      <c r="C1013" s="8" t="s">
+      <c r="C1013" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1013" t="s">
@@ -33003,7 +33003,7 @@
       <c r="B1014" t="s">
         <v>62</v>
       </c>
-      <c r="C1014" s="8" t="s">
+      <c r="C1014" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1014" t="s">
@@ -33035,7 +33035,7 @@
       <c r="B1015" t="s">
         <v>62</v>
       </c>
-      <c r="C1015" s="8" t="s">
+      <c r="C1015" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1015" t="s">
@@ -33067,7 +33067,7 @@
       <c r="B1016" t="s">
         <v>62</v>
       </c>
-      <c r="C1016" s="8" t="s">
+      <c r="C1016" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1016" t="s">
@@ -33099,7 +33099,7 @@
       <c r="B1017" t="s">
         <v>62</v>
       </c>
-      <c r="C1017" s="8" t="s">
+      <c r="C1017" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1017" t="s">
@@ -33131,7 +33131,7 @@
       <c r="B1018" t="s">
         <v>62</v>
       </c>
-      <c r="C1018" s="8" t="s">
+      <c r="C1018" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1018" t="s">
@@ -33163,7 +33163,7 @@
       <c r="B1019" t="s">
         <v>62</v>
       </c>
-      <c r="C1019" s="8" t="s">
+      <c r="C1019" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1019" t="s">
@@ -33195,7 +33195,7 @@
       <c r="B1020" t="s">
         <v>62</v>
       </c>
-      <c r="C1020" s="8" t="s">
+      <c r="C1020" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1020" t="s">
@@ -33227,7 +33227,7 @@
       <c r="B1021" t="s">
         <v>62</v>
       </c>
-      <c r="C1021" s="8" t="s">
+      <c r="C1021" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1021" t="s">
@@ -33259,7 +33259,7 @@
       <c r="B1022" t="s">
         <v>62</v>
       </c>
-      <c r="C1022" s="8" t="s">
+      <c r="C1022" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1022" t="s">
@@ -33291,7 +33291,7 @@
       <c r="B1023" t="s">
         <v>62</v>
       </c>
-      <c r="C1023" s="8" t="s">
+      <c r="C1023" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1023" t="s">
@@ -33323,7 +33323,7 @@
       <c r="B1024" t="s">
         <v>62</v>
       </c>
-      <c r="C1024" s="8" t="s">
+      <c r="C1024" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1024" t="s">
@@ -33355,7 +33355,7 @@
       <c r="B1025" t="s">
         <v>62</v>
       </c>
-      <c r="C1025" s="8" t="s">
+      <c r="C1025" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1025" t="s">
@@ -33387,7 +33387,7 @@
       <c r="B1026" t="s">
         <v>62</v>
       </c>
-      <c r="C1026" s="8" t="s">
+      <c r="C1026" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1026" t="s">
@@ -33419,7 +33419,7 @@
       <c r="B1027" t="s">
         <v>62</v>
       </c>
-      <c r="C1027" s="8" t="s">
+      <c r="C1027" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1027" t="s">
@@ -33451,7 +33451,7 @@
       <c r="B1028" t="s">
         <v>62</v>
       </c>
-      <c r="C1028" s="8" t="s">
+      <c r="C1028" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1028" t="s">
@@ -33483,7 +33483,7 @@
       <c r="B1029" t="s">
         <v>62</v>
       </c>
-      <c r="C1029" s="8" t="s">
+      <c r="C1029" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1029" t="s">
@@ -33515,7 +33515,7 @@
       <c r="B1030" t="s">
         <v>62</v>
       </c>
-      <c r="C1030" s="8" t="s">
+      <c r="C1030" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1030" t="s">
@@ -33547,7 +33547,7 @@
       <c r="B1031" t="s">
         <v>62</v>
       </c>
-      <c r="C1031" s="8" t="s">
+      <c r="C1031" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1031" t="s">
@@ -33579,7 +33579,7 @@
       <c r="B1032" t="s">
         <v>62</v>
       </c>
-      <c r="C1032" s="8" t="s">
+      <c r="C1032" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1032" t="s">
@@ -33611,7 +33611,7 @@
       <c r="B1033" t="s">
         <v>62</v>
       </c>
-      <c r="C1033" s="8" t="s">
+      <c r="C1033" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1033" t="s">
@@ -33643,7 +33643,7 @@
       <c r="B1034" t="s">
         <v>62</v>
       </c>
-      <c r="C1034" s="8" t="s">
+      <c r="C1034" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1034" t="s">
@@ -33675,7 +33675,7 @@
       <c r="B1035" t="s">
         <v>62</v>
       </c>
-      <c r="C1035" s="8" t="s">
+      <c r="C1035" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1035" t="s">
@@ -33707,7 +33707,7 @@
       <c r="B1036" t="s">
         <v>62</v>
       </c>
-      <c r="C1036" s="8" t="s">
+      <c r="C1036" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1036" t="s">
@@ -33739,7 +33739,7 @@
       <c r="B1037" t="s">
         <v>62</v>
       </c>
-      <c r="C1037" s="8" t="s">
+      <c r="C1037" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1037" t="s">
@@ -33771,7 +33771,7 @@
       <c r="B1038" t="s">
         <v>62</v>
       </c>
-      <c r="C1038" s="8" t="s">
+      <c r="C1038" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1038" t="s">
@@ -33803,7 +33803,7 @@
       <c r="B1039" t="s">
         <v>62</v>
       </c>
-      <c r="C1039" s="8" t="s">
+      <c r="C1039" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1039" t="s">
@@ -33835,7 +33835,7 @@
       <c r="B1040" t="s">
         <v>62</v>
       </c>
-      <c r="C1040" s="8" t="s">
+      <c r="C1040" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1040" t="s">
@@ -33867,7 +33867,7 @@
       <c r="B1041" t="s">
         <v>62</v>
       </c>
-      <c r="C1041" s="8" t="s">
+      <c r="C1041" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1041" t="s">
@@ -33899,7 +33899,7 @@
       <c r="B1042" t="s">
         <v>62</v>
       </c>
-      <c r="C1042" s="8" t="s">
+      <c r="C1042" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1042" t="s">
@@ -33931,7 +33931,7 @@
       <c r="B1043" t="s">
         <v>62</v>
       </c>
-      <c r="C1043" s="8" t="s">
+      <c r="C1043" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1043" t="s">
@@ -33963,7 +33963,7 @@
       <c r="B1044" t="s">
         <v>62</v>
       </c>
-      <c r="C1044" s="8" t="s">
+      <c r="C1044" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1044" t="s">
@@ -33995,7 +33995,7 @@
       <c r="B1045" t="s">
         <v>62</v>
       </c>
-      <c r="C1045" s="8" t="s">
+      <c r="C1045" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1045" t="s">
@@ -34027,7 +34027,7 @@
       <c r="B1046" t="s">
         <v>62</v>
       </c>
-      <c r="C1046" s="8" t="s">
+      <c r="C1046" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D1046" t="s">
@@ -34059,7 +34059,7 @@
       <c r="B1047" t="s">
         <v>62</v>
       </c>
-      <c r="C1047" s="8" t="s">
+      <c r="C1047" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1047" t="s">
@@ -34091,7 +34091,7 @@
       <c r="B1048" t="s">
         <v>62</v>
       </c>
-      <c r="C1048" s="8" t="s">
+      <c r="C1048" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1048" t="s">
@@ -34123,7 +34123,7 @@
       <c r="B1049" t="s">
         <v>62</v>
       </c>
-      <c r="C1049" s="8" t="s">
+      <c r="C1049" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1049" t="s">
@@ -34155,7 +34155,7 @@
       <c r="B1050" t="s">
         <v>62</v>
       </c>
-      <c r="C1050" s="8" t="s">
+      <c r="C1050" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1050" t="s">
@@ -34187,7 +34187,7 @@
       <c r="B1051" t="s">
         <v>62</v>
       </c>
-      <c r="C1051" s="8" t="s">
+      <c r="C1051" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1051" t="s">
@@ -34219,7 +34219,7 @@
       <c r="B1052" t="s">
         <v>62</v>
       </c>
-      <c r="C1052" s="8" t="s">
+      <c r="C1052" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1052" t="s">
@@ -34251,7 +34251,7 @@
       <c r="B1053" t="s">
         <v>62</v>
       </c>
-      <c r="C1053" s="8" t="s">
+      <c r="C1053" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1053" t="s">
@@ -34283,7 +34283,7 @@
       <c r="B1054" t="s">
         <v>62</v>
       </c>
-      <c r="C1054" s="8" t="s">
+      <c r="C1054" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1054" t="s">
@@ -34315,7 +34315,7 @@
       <c r="B1055" t="s">
         <v>62</v>
       </c>
-      <c r="C1055" s="8" t="s">
+      <c r="C1055" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1055" t="s">
@@ -34347,7 +34347,7 @@
       <c r="B1056" t="s">
         <v>62</v>
       </c>
-      <c r="C1056" s="8" t="s">
+      <c r="C1056" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1056" t="s">
@@ -34379,7 +34379,7 @@
       <c r="B1057" t="s">
         <v>62</v>
       </c>
-      <c r="C1057" s="8" t="s">
+      <c r="C1057" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1057" t="s">
@@ -34411,7 +34411,7 @@
       <c r="B1058" t="s">
         <v>62</v>
       </c>
-      <c r="C1058" s="8" t="s">
+      <c r="C1058" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1058" t="s">
@@ -34443,7 +34443,7 @@
       <c r="B1059" t="s">
         <v>62</v>
       </c>
-      <c r="C1059" s="8" t="s">
+      <c r="C1059" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1059" t="s">
@@ -34475,7 +34475,7 @@
       <c r="B1060" t="s">
         <v>62</v>
       </c>
-      <c r="C1060" s="8" t="s">
+      <c r="C1060" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1060" t="s">
@@ -34507,7 +34507,7 @@
       <c r="B1061" t="s">
         <v>62</v>
       </c>
-      <c r="C1061" s="8" t="s">
+      <c r="C1061" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1061" t="s">
@@ -34539,7 +34539,7 @@
       <c r="B1062" t="s">
         <v>62</v>
       </c>
-      <c r="C1062" s="8" t="s">
+      <c r="C1062" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1062" t="s">
@@ -34571,7 +34571,7 @@
       <c r="B1063" t="s">
         <v>62</v>
       </c>
-      <c r="C1063" s="8" t="s">
+      <c r="C1063" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1063" t="s">
@@ -34603,7 +34603,7 @@
       <c r="B1064" t="s">
         <v>62</v>
       </c>
-      <c r="C1064" s="8" t="s">
+      <c r="C1064" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1064" t="s">
@@ -34635,7 +34635,7 @@
       <c r="B1065" t="s">
         <v>62</v>
       </c>
-      <c r="C1065" s="8" t="s">
+      <c r="C1065" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1065" t="s">
@@ -34667,7 +34667,7 @@
       <c r="B1066" t="s">
         <v>62</v>
       </c>
-      <c r="C1066" s="8" t="s">
+      <c r="C1066" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1066" t="s">
@@ -34699,7 +34699,7 @@
       <c r="B1067" t="s">
         <v>62</v>
       </c>
-      <c r="C1067" s="8" t="s">
+      <c r="C1067" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1067" t="s">
@@ -34731,7 +34731,7 @@
       <c r="B1068" t="s">
         <v>62</v>
       </c>
-      <c r="C1068" s="8" t="s">
+      <c r="C1068" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1068" t="s">
@@ -34763,7 +34763,7 @@
       <c r="B1069" t="s">
         <v>62</v>
       </c>
-      <c r="C1069" s="8" t="s">
+      <c r="C1069" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1069" t="s">
@@ -34795,7 +34795,7 @@
       <c r="B1070" t="s">
         <v>62</v>
       </c>
-      <c r="C1070" s="8" t="s">
+      <c r="C1070" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1070" t="s">
@@ -34827,7 +34827,7 @@
       <c r="B1071" t="s">
         <v>62</v>
       </c>
-      <c r="C1071" s="8" t="s">
+      <c r="C1071" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1071" t="s">
@@ -34859,7 +34859,7 @@
       <c r="B1072" t="s">
         <v>62</v>
       </c>
-      <c r="C1072" s="8" t="s">
+      <c r="C1072" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1072" t="s">
@@ -34891,7 +34891,7 @@
       <c r="B1073" t="s">
         <v>62</v>
       </c>
-      <c r="C1073" s="8" t="s">
+      <c r="C1073" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1073" t="s">
@@ -34923,7 +34923,7 @@
       <c r="B1074" t="s">
         <v>62</v>
       </c>
-      <c r="C1074" s="8" t="s">
+      <c r="C1074" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1074" t="s">
@@ -34955,7 +34955,7 @@
       <c r="B1075" t="s">
         <v>62</v>
       </c>
-      <c r="C1075" s="8" t="s">
+      <c r="C1075" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1075" t="s">
@@ -34987,7 +34987,7 @@
       <c r="B1076" t="s">
         <v>62</v>
       </c>
-      <c r="C1076" s="8" t="s">
+      <c r="C1076" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1076" t="s">
@@ -35019,7 +35019,7 @@
       <c r="B1077" t="s">
         <v>62</v>
       </c>
-      <c r="C1077" s="8" t="s">
+      <c r="C1077" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1077" t="s">
@@ -35051,7 +35051,7 @@
       <c r="B1078" t="s">
         <v>62</v>
       </c>
-      <c r="C1078" s="8" t="s">
+      <c r="C1078" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1078" t="s">
@@ -35083,7 +35083,7 @@
       <c r="B1079" t="s">
         <v>62</v>
       </c>
-      <c r="C1079" s="8" t="s">
+      <c r="C1079" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1079" t="s">
@@ -35115,7 +35115,7 @@
       <c r="B1080" t="s">
         <v>62</v>
       </c>
-      <c r="C1080" s="8" t="s">
+      <c r="C1080" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1080" t="s">
@@ -35147,7 +35147,7 @@
       <c r="B1081" t="s">
         <v>62</v>
       </c>
-      <c r="C1081" s="8" t="s">
+      <c r="C1081" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1081" t="s">
@@ -35179,7 +35179,7 @@
       <c r="B1082" t="s">
         <v>62</v>
       </c>
-      <c r="C1082" s="8" t="s">
+      <c r="C1082" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1082" t="s">
@@ -35211,7 +35211,7 @@
       <c r="B1083" t="s">
         <v>62</v>
       </c>
-      <c r="C1083" s="8" t="s">
+      <c r="C1083" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1083" t="s">
@@ -35243,7 +35243,7 @@
       <c r="B1084" t="s">
         <v>62</v>
       </c>
-      <c r="C1084" s="8" t="s">
+      <c r="C1084" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1084" t="s">
@@ -35275,7 +35275,7 @@
       <c r="B1085" t="s">
         <v>62</v>
       </c>
-      <c r="C1085" s="8" t="s">
+      <c r="C1085" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1085" t="s">
@@ -35307,7 +35307,7 @@
       <c r="B1086" t="s">
         <v>62</v>
       </c>
-      <c r="C1086" s="8" t="s">
+      <c r="C1086" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1086" t="s">
@@ -35339,7 +35339,7 @@
       <c r="B1087" t="s">
         <v>62</v>
       </c>
-      <c r="C1087" s="8" t="s">
+      <c r="C1087" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1087" t="s">
@@ -35371,7 +35371,7 @@
       <c r="B1088" t="s">
         <v>62</v>
       </c>
-      <c r="C1088" s="8" t="s">
+      <c r="C1088" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1088" t="s">
@@ -35403,7 +35403,7 @@
       <c r="B1089" t="s">
         <v>62</v>
       </c>
-      <c r="C1089" s="8" t="s">
+      <c r="C1089" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1089" t="s">
@@ -35435,7 +35435,7 @@
       <c r="B1090" t="s">
         <v>62</v>
       </c>
-      <c r="C1090" s="8" t="s">
+      <c r="C1090" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1090" t="s">
@@ -35467,7 +35467,7 @@
       <c r="B1091" t="s">
         <v>62</v>
       </c>
-      <c r="C1091" s="8" t="s">
+      <c r="C1091" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1091" t="s">
@@ -35499,7 +35499,7 @@
       <c r="B1092" t="s">
         <v>62</v>
       </c>
-      <c r="C1092" s="8" t="s">
+      <c r="C1092" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1092" t="s">
@@ -35531,7 +35531,7 @@
       <c r="B1093" t="s">
         <v>62</v>
       </c>
-      <c r="C1093" s="8" t="s">
+      <c r="C1093" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1093" t="s">
@@ -35563,7 +35563,7 @@
       <c r="B1094" t="s">
         <v>62</v>
       </c>
-      <c r="C1094" s="8" t="s">
+      <c r="C1094" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1094" t="s">
@@ -35595,7 +35595,7 @@
       <c r="B1095" t="s">
         <v>62</v>
       </c>
-      <c r="C1095" s="8" t="s">
+      <c r="C1095" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1095" t="s">
@@ -35627,7 +35627,7 @@
       <c r="B1096" t="s">
         <v>62</v>
       </c>
-      <c r="C1096" s="8" t="s">
+      <c r="C1096" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1096" t="s">
@@ -35659,7 +35659,7 @@
       <c r="B1097" t="s">
         <v>62</v>
       </c>
-      <c r="C1097" s="8" t="s">
+      <c r="C1097" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1097" t="s">
@@ -35691,7 +35691,7 @@
       <c r="B1098" t="s">
         <v>62</v>
       </c>
-      <c r="C1098" s="8" t="s">
+      <c r="C1098" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1098" t="s">
@@ -35723,7 +35723,7 @@
       <c r="B1099" t="s">
         <v>62</v>
       </c>
-      <c r="C1099" s="8" t="s">
+      <c r="C1099" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1099" t="s">
@@ -35755,7 +35755,7 @@
       <c r="B1100" t="s">
         <v>62</v>
       </c>
-      <c r="C1100" s="8" t="s">
+      <c r="C1100" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1100" t="s">
@@ -35787,7 +35787,7 @@
       <c r="B1101" t="s">
         <v>62</v>
       </c>
-      <c r="C1101" s="8" t="s">
+      <c r="C1101" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1101" t="s">
@@ -35819,7 +35819,7 @@
       <c r="B1102" t="s">
         <v>62</v>
       </c>
-      <c r="C1102" s="8" t="s">
+      <c r="C1102" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1102" t="s">
@@ -35851,7 +35851,7 @@
       <c r="B1103" t="s">
         <v>62</v>
       </c>
-      <c r="C1103" s="8" t="s">
+      <c r="C1103" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1103" t="s">
@@ -35883,7 +35883,7 @@
       <c r="B1104" t="s">
         <v>62</v>
       </c>
-      <c r="C1104" s="8" t="s">
+      <c r="C1104" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1104" t="s">
@@ -35915,7 +35915,7 @@
       <c r="B1105" t="s">
         <v>62</v>
       </c>
-      <c r="C1105" s="8" t="s">
+      <c r="C1105" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1105" t="s">
@@ -35947,7 +35947,7 @@
       <c r="B1106" t="s">
         <v>62</v>
       </c>
-      <c r="C1106" s="8" t="s">
+      <c r="C1106" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D1106" t="s">
@@ -35979,7 +35979,7 @@
       <c r="B1107" t="s">
         <v>62</v>
       </c>
-      <c r="C1107" s="8" t="s">
+      <c r="C1107" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1107" t="s">
@@ -36011,7 +36011,7 @@
       <c r="B1108" t="s">
         <v>62</v>
       </c>
-      <c r="C1108" s="8" t="s">
+      <c r="C1108" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1108" t="s">
@@ -36043,7 +36043,7 @@
       <c r="B1109" t="s">
         <v>62</v>
       </c>
-      <c r="C1109" s="8" t="s">
+      <c r="C1109" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1109" t="s">
@@ -36075,7 +36075,7 @@
       <c r="B1110" t="s">
         <v>62</v>
       </c>
-      <c r="C1110" s="8" t="s">
+      <c r="C1110" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1110" t="s">
@@ -36107,7 +36107,7 @@
       <c r="B1111" t="s">
         <v>62</v>
       </c>
-      <c r="C1111" s="8" t="s">
+      <c r="C1111" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1111" t="s">
@@ -36139,7 +36139,7 @@
       <c r="B1112" t="s">
         <v>62</v>
       </c>
-      <c r="C1112" s="8" t="s">
+      <c r="C1112" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1112" t="s">
@@ -36171,7 +36171,7 @@
       <c r="B1113" t="s">
         <v>62</v>
       </c>
-      <c r="C1113" s="8" t="s">
+      <c r="C1113" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1113" t="s">
@@ -36203,7 +36203,7 @@
       <c r="B1114" t="s">
         <v>62</v>
       </c>
-      <c r="C1114" s="8" t="s">
+      <c r="C1114" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1114" t="s">
@@ -36235,7 +36235,7 @@
       <c r="B1115" t="s">
         <v>62</v>
       </c>
-      <c r="C1115" s="8" t="s">
+      <c r="C1115" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1115" t="s">
@@ -36267,7 +36267,7 @@
       <c r="B1116" t="s">
         <v>62</v>
       </c>
-      <c r="C1116" s="8" t="s">
+      <c r="C1116" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1116" t="s">
@@ -36299,7 +36299,7 @@
       <c r="B1117" t="s">
         <v>62</v>
       </c>
-      <c r="C1117" s="8" t="s">
+      <c r="C1117" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1117" t="s">
@@ -36331,7 +36331,7 @@
       <c r="B1118" t="s">
         <v>62</v>
       </c>
-      <c r="C1118" s="8" t="s">
+      <c r="C1118" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1118" t="s">
@@ -36363,7 +36363,7 @@
       <c r="B1119" t="s">
         <v>62</v>
       </c>
-      <c r="C1119" s="8" t="s">
+      <c r="C1119" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1119" t="s">
@@ -36395,7 +36395,7 @@
       <c r="B1120" t="s">
         <v>62</v>
       </c>
-      <c r="C1120" s="8" t="s">
+      <c r="C1120" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1120" t="s">
@@ -36427,7 +36427,7 @@
       <c r="B1121" t="s">
         <v>62</v>
       </c>
-      <c r="C1121" s="8" t="s">
+      <c r="C1121" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1121" t="s">
@@ -36459,7 +36459,7 @@
       <c r="B1122" t="s">
         <v>62</v>
       </c>
-      <c r="C1122" s="8" t="s">
+      <c r="C1122" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1122" t="s">
@@ -36491,7 +36491,7 @@
       <c r="B1123" t="s">
         <v>62</v>
       </c>
-      <c r="C1123" s="8" t="s">
+      <c r="C1123" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1123" t="s">
@@ -36523,7 +36523,7 @@
       <c r="B1124" t="s">
         <v>62</v>
       </c>
-      <c r="C1124" s="8" t="s">
+      <c r="C1124" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1124" t="s">
@@ -36555,7 +36555,7 @@
       <c r="B1125" t="s">
         <v>62</v>
       </c>
-      <c r="C1125" s="8" t="s">
+      <c r="C1125" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1125" t="s">
@@ -36587,7 +36587,7 @@
       <c r="B1126" t="s">
         <v>62</v>
       </c>
-      <c r="C1126" s="8" t="s">
+      <c r="C1126" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1126" t="s">
@@ -36619,7 +36619,7 @@
       <c r="B1127" t="s">
         <v>62</v>
       </c>
-      <c r="C1127" s="8" t="s">
+      <c r="C1127" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1127" t="s">
@@ -36651,7 +36651,7 @@
       <c r="B1128" t="s">
         <v>62</v>
       </c>
-      <c r="C1128" s="8" t="s">
+      <c r="C1128" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1128" t="s">
@@ -36683,7 +36683,7 @@
       <c r="B1129" t="s">
         <v>62</v>
       </c>
-      <c r="C1129" s="8" t="s">
+      <c r="C1129" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1129" t="s">
@@ -36715,7 +36715,7 @@
       <c r="B1130" t="s">
         <v>62</v>
       </c>
-      <c r="C1130" s="8" t="s">
+      <c r="C1130" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1130" t="s">
@@ -36747,7 +36747,7 @@
       <c r="B1131" t="s">
         <v>62</v>
       </c>
-      <c r="C1131" s="8" t="s">
+      <c r="C1131" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1131" t="s">
@@ -36779,7 +36779,7 @@
       <c r="B1132" t="s">
         <v>62</v>
       </c>
-      <c r="C1132" s="8" t="s">
+      <c r="C1132" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1132" t="s">
@@ -36811,7 +36811,7 @@
       <c r="B1133" t="s">
         <v>62</v>
       </c>
-      <c r="C1133" s="8" t="s">
+      <c r="C1133" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1133" t="s">
@@ -36843,7 +36843,7 @@
       <c r="B1134" t="s">
         <v>62</v>
       </c>
-      <c r="C1134" s="8" t="s">
+      <c r="C1134" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1134" t="s">
@@ -36875,7 +36875,7 @@
       <c r="B1135" t="s">
         <v>62</v>
       </c>
-      <c r="C1135" s="8" t="s">
+      <c r="C1135" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1135" t="s">
@@ -36907,7 +36907,7 @@
       <c r="B1136" t="s">
         <v>62</v>
       </c>
-      <c r="C1136" s="8" t="s">
+      <c r="C1136" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1136" t="s">
@@ -36939,7 +36939,7 @@
       <c r="B1137" t="s">
         <v>62</v>
       </c>
-      <c r="C1137" s="8" t="s">
+      <c r="C1137" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1137" t="s">
@@ -36971,7 +36971,7 @@
       <c r="B1138" t="s">
         <v>62</v>
       </c>
-      <c r="C1138" s="8" t="s">
+      <c r="C1138" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1138" t="s">
@@ -37003,7 +37003,7 @@
       <c r="B1139" t="s">
         <v>62</v>
       </c>
-      <c r="C1139" s="8" t="s">
+      <c r="C1139" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1139" t="s">
@@ -37035,7 +37035,7 @@
       <c r="B1140" t="s">
         <v>62</v>
       </c>
-      <c r="C1140" s="8" t="s">
+      <c r="C1140" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1140" t="s">
@@ -37067,7 +37067,7 @@
       <c r="B1141" t="s">
         <v>62</v>
       </c>
-      <c r="C1141" s="8" t="s">
+      <c r="C1141" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1141" t="s">
@@ -37099,7 +37099,7 @@
       <c r="B1142" t="s">
         <v>62</v>
       </c>
-      <c r="C1142" s="8" t="s">
+      <c r="C1142" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1142" t="s">
@@ -37131,7 +37131,7 @@
       <c r="B1143" t="s">
         <v>62</v>
       </c>
-      <c r="C1143" s="8" t="s">
+      <c r="C1143" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1143" t="s">
@@ -37163,7 +37163,7 @@
       <c r="B1144" t="s">
         <v>62</v>
       </c>
-      <c r="C1144" s="8" t="s">
+      <c r="C1144" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1144" t="s">
@@ -37195,7 +37195,7 @@
       <c r="B1145" t="s">
         <v>62</v>
       </c>
-      <c r="C1145" s="8" t="s">
+      <c r="C1145" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1145" t="s">
@@ -37227,7 +37227,7 @@
       <c r="B1146" t="s">
         <v>62</v>
       </c>
-      <c r="C1146" s="8" t="s">
+      <c r="C1146" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1146" t="s">
@@ -37259,7 +37259,7 @@
       <c r="B1147" t="s">
         <v>62</v>
       </c>
-      <c r="C1147" s="8" t="s">
+      <c r="C1147" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1147" t="s">
@@ -37291,7 +37291,7 @@
       <c r="B1148" t="s">
         <v>62</v>
       </c>
-      <c r="C1148" s="8" t="s">
+      <c r="C1148" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1148" t="s">
@@ -37323,7 +37323,7 @@
       <c r="B1149" t="s">
         <v>62</v>
       </c>
-      <c r="C1149" s="8" t="s">
+      <c r="C1149" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1149" t="s">
@@ -37355,7 +37355,7 @@
       <c r="B1150" t="s">
         <v>62</v>
       </c>
-      <c r="C1150" s="8" t="s">
+      <c r="C1150" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1150" t="s">
@@ -37387,7 +37387,7 @@
       <c r="B1151" t="s">
         <v>62</v>
       </c>
-      <c r="C1151" s="8" t="s">
+      <c r="C1151" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1151" t="s">
@@ -37419,7 +37419,7 @@
       <c r="B1152" t="s">
         <v>62</v>
       </c>
-      <c r="C1152" s="8" t="s">
+      <c r="C1152" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1152" t="s">
@@ -37451,7 +37451,7 @@
       <c r="B1153" t="s">
         <v>62</v>
       </c>
-      <c r="C1153" s="8" t="s">
+      <c r="C1153" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1153" t="s">
@@ -37483,7 +37483,7 @@
       <c r="B1154" t="s">
         <v>62</v>
       </c>
-      <c r="C1154" s="8" t="s">
+      <c r="C1154" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1154" t="s">
@@ -37515,7 +37515,7 @@
       <c r="B1155" t="s">
         <v>62</v>
       </c>
-      <c r="C1155" s="8" t="s">
+      <c r="C1155" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1155" t="s">
@@ -37547,7 +37547,7 @@
       <c r="B1156" t="s">
         <v>62</v>
       </c>
-      <c r="C1156" s="8" t="s">
+      <c r="C1156" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1156" t="s">
@@ -37579,7 +37579,7 @@
       <c r="B1157" t="s">
         <v>62</v>
       </c>
-      <c r="C1157" s="8" t="s">
+      <c r="C1157" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1157" t="s">
@@ -37611,7 +37611,7 @@
       <c r="B1158" t="s">
         <v>62</v>
       </c>
-      <c r="C1158" s="8" t="s">
+      <c r="C1158" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1158" t="s">
@@ -37643,7 +37643,7 @@
       <c r="B1159" t="s">
         <v>62</v>
       </c>
-      <c r="C1159" s="8" t="s">
+      <c r="C1159" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1159" t="s">
@@ -37675,7 +37675,7 @@
       <c r="B1160" t="s">
         <v>62</v>
       </c>
-      <c r="C1160" s="8" t="s">
+      <c r="C1160" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1160" t="s">
@@ -37707,7 +37707,7 @@
       <c r="B1161" t="s">
         <v>62</v>
       </c>
-      <c r="C1161" s="8" t="s">
+      <c r="C1161" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1161" t="s">
@@ -37739,7 +37739,7 @@
       <c r="B1162" t="s">
         <v>62</v>
       </c>
-      <c r="C1162" s="8" t="s">
+      <c r="C1162" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1162" t="s">
@@ -37771,7 +37771,7 @@
       <c r="B1163" t="s">
         <v>62</v>
       </c>
-      <c r="C1163" s="8" t="s">
+      <c r="C1163" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1163" t="s">
@@ -37803,7 +37803,7 @@
       <c r="B1164" t="s">
         <v>62</v>
       </c>
-      <c r="C1164" s="8" t="s">
+      <c r="C1164" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1164" t="s">
@@ -37835,7 +37835,7 @@
       <c r="B1165" t="s">
         <v>62</v>
       </c>
-      <c r="C1165" s="8" t="s">
+      <c r="C1165" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1165" t="s">
@@ -37867,7 +37867,7 @@
       <c r="B1166" t="s">
         <v>62</v>
       </c>
-      <c r="C1166" s="8" t="s">
+      <c r="C1166" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D1166" t="s">
@@ -43650,6 +43650,1878 @@
       </c>
       <c r="J1346">
         <v>2</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:10">
+      <c r="A1347" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1347" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1347">
+        <v>2021</v>
+      </c>
+      <c r="F1347" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1347" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1347">
+        <v>6</v>
+      </c>
+      <c r="I1347">
+        <v>0.21739130400000001</v>
+      </c>
+      <c r="J1347">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:10">
+      <c r="A1348" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1348" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1348">
+        <v>2021</v>
+      </c>
+      <c r="F1348" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1348" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1348">
+        <v>6</v>
+      </c>
+      <c r="I1348">
+        <v>0.30434782599999999</v>
+      </c>
+      <c r="J1348">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:10">
+      <c r="A1349" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1349" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1349">
+        <v>2021</v>
+      </c>
+      <c r="F1349" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1349" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1349">
+        <v>6</v>
+      </c>
+      <c r="I1349">
+        <v>0.20833333300000001</v>
+      </c>
+      <c r="J1349">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:10">
+      <c r="A1350" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1350" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1350">
+        <v>2021</v>
+      </c>
+      <c r="F1350" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1350" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1350">
+        <v>6</v>
+      </c>
+      <c r="I1350">
+        <v>0.28571428599999998</v>
+      </c>
+      <c r="J1350">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:10">
+      <c r="A1351" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1351" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1351">
+        <v>2021</v>
+      </c>
+      <c r="F1351" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1351" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1351">
+        <v>6</v>
+      </c>
+      <c r="I1351">
+        <v>0.29411764699999998</v>
+      </c>
+      <c r="J1351">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:10">
+      <c r="A1352" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1352" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1352">
+        <v>2021</v>
+      </c>
+      <c r="F1352" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1352" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1352">
+        <v>6</v>
+      </c>
+      <c r="I1352">
+        <v>0.21739130400000001</v>
+      </c>
+      <c r="J1352">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:10">
+      <c r="A1353" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1353" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1353">
+        <v>2021</v>
+      </c>
+      <c r="F1353" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1353" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1353">
+        <v>6</v>
+      </c>
+      <c r="I1353">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="J1353">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:10">
+      <c r="A1354" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1354" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1354">
+        <v>2021</v>
+      </c>
+      <c r="F1354" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1354">
+        <v>6</v>
+      </c>
+      <c r="I1354">
+        <v>0.16666666699999999</v>
+      </c>
+      <c r="J1354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:10">
+      <c r="A1355" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1355" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1355">
+        <v>2021</v>
+      </c>
+      <c r="F1355" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1355" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1355">
+        <v>6</v>
+      </c>
+      <c r="I1355">
+        <v>0.27272727299999999</v>
+      </c>
+      <c r="J1355">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:10">
+      <c r="A1356" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1356" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1356">
+        <v>2021</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1356" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1356">
+        <v>6</v>
+      </c>
+      <c r="I1356">
+        <v>0.25</v>
+      </c>
+      <c r="J1356">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:10">
+      <c r="A1357" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1357" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1357">
+        <v>2021</v>
+      </c>
+      <c r="F1357" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1357" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1357">
+        <v>5</v>
+      </c>
+      <c r="I1357">
+        <v>0.34782608700000001</v>
+      </c>
+      <c r="J1357">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:10">
+      <c r="A1358" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1358" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1358">
+        <v>2021</v>
+      </c>
+      <c r="F1358" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1358" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1358">
+        <v>5</v>
+      </c>
+      <c r="I1358">
+        <v>0.21739130400000001</v>
+      </c>
+      <c r="J1358">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:10">
+      <c r="A1359" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1359" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1359">
+        <v>2021</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1359">
+        <v>5</v>
+      </c>
+      <c r="I1359">
+        <v>0.41666666699999999</v>
+      </c>
+      <c r="J1359">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:10">
+      <c r="A1360" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1360" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1360">
+        <v>2021</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1360" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1360">
+        <v>5</v>
+      </c>
+      <c r="I1360">
+        <v>0.23809523799999999</v>
+      </c>
+      <c r="J1360">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:10">
+      <c r="A1361" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1361" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1361">
+        <v>2021</v>
+      </c>
+      <c r="F1361" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1361" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1361">
+        <v>5</v>
+      </c>
+      <c r="I1361">
+        <v>5.8823528999999999E-2</v>
+      </c>
+      <c r="J1361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:10">
+      <c r="A1362" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1362" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1362">
+        <v>2021</v>
+      </c>
+      <c r="F1362" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1362" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1362">
+        <v>5</v>
+      </c>
+      <c r="I1362">
+        <v>0.130434783</v>
+      </c>
+      <c r="J1362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:10">
+      <c r="A1363" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1363" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1363">
+        <v>2021</v>
+      </c>
+      <c r="F1363" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1363" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1363">
+        <v>5</v>
+      </c>
+      <c r="I1363">
+        <v>0.19047618999999999</v>
+      </c>
+      <c r="J1363">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:10">
+      <c r="A1364" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1364" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1364">
+        <v>2021</v>
+      </c>
+      <c r="F1364" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1364" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1364">
+        <v>5</v>
+      </c>
+      <c r="I1364">
+        <v>0.16666666699999999</v>
+      </c>
+      <c r="J1364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:10">
+      <c r="A1365" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1365" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1365">
+        <v>2021</v>
+      </c>
+      <c r="F1365" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1365" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1365">
+        <v>5</v>
+      </c>
+      <c r="I1365">
+        <v>0.27272727299999999</v>
+      </c>
+      <c r="J1365">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:10">
+      <c r="A1366" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1366" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1366">
+        <v>2021</v>
+      </c>
+      <c r="F1366" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1366" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1366">
+        <v>5</v>
+      </c>
+      <c r="I1366">
+        <v>0.15</v>
+      </c>
+      <c r="J1366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:10">
+      <c r="A1367" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1367" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1367">
+        <v>2021</v>
+      </c>
+      <c r="F1367" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1367" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1367">
+        <v>4</v>
+      </c>
+      <c r="I1367">
+        <v>0.26086956500000003</v>
+      </c>
+      <c r="J1367">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:10">
+      <c r="A1368" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1368" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1368">
+        <v>2021</v>
+      </c>
+      <c r="F1368" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1368" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1368">
+        <v>4</v>
+      </c>
+      <c r="I1368">
+        <v>0.30434782599999999</v>
+      </c>
+      <c r="J1368">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:10">
+      <c r="A1369" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1369" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1369">
+        <v>2021</v>
+      </c>
+      <c r="F1369" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1369" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1369">
+        <v>4</v>
+      </c>
+      <c r="I1369">
+        <v>0.20833333300000001</v>
+      </c>
+      <c r="J1369">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:10">
+      <c r="A1370" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1370" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1370">
+        <v>2021</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1370" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1370">
+        <v>4</v>
+      </c>
+      <c r="I1370">
+        <v>9.5238094999999995E-2</v>
+      </c>
+      <c r="J1370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:10">
+      <c r="A1371" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1371" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1371">
+        <v>2021</v>
+      </c>
+      <c r="F1371" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1371" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1371">
+        <v>4</v>
+      </c>
+      <c r="I1371">
+        <v>0.235294118</v>
+      </c>
+      <c r="J1371">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:10">
+      <c r="A1372" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1372" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1372">
+        <v>2021</v>
+      </c>
+      <c r="F1372" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1372" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1372">
+        <v>4</v>
+      </c>
+      <c r="I1372">
+        <v>0.39130434800000002</v>
+      </c>
+      <c r="J1372">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:10">
+      <c r="A1373" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1373" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1373">
+        <v>2021</v>
+      </c>
+      <c r="F1373" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1373" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1373">
+        <v>4</v>
+      </c>
+      <c r="I1373">
+        <v>0.23809523799999999</v>
+      </c>
+      <c r="J1373">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:10">
+      <c r="A1374" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1374" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1374">
+        <v>2021</v>
+      </c>
+      <c r="F1374" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1374" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1374">
+        <v>4</v>
+      </c>
+      <c r="I1374">
+        <v>0.27777777799999998</v>
+      </c>
+      <c r="J1374">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:10">
+      <c r="A1375" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1375" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1375">
+        <v>2021</v>
+      </c>
+      <c r="F1375" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1375" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1375">
+        <v>4</v>
+      </c>
+      <c r="I1375">
+        <v>0.27272727299999999</v>
+      </c>
+      <c r="J1375">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:10">
+      <c r="A1376" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1376" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1376">
+        <v>2021</v>
+      </c>
+      <c r="F1376" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1376" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1376">
+        <v>4</v>
+      </c>
+      <c r="I1376">
+        <v>0.25</v>
+      </c>
+      <c r="J1376">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:10">
+      <c r="A1377" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1377" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1377">
+        <v>2021</v>
+      </c>
+      <c r="F1377" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1377" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1377">
+        <v>3</v>
+      </c>
+      <c r="I1377">
+        <v>0.17391304299999999</v>
+      </c>
+      <c r="J1377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:10">
+      <c r="A1378" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1378" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1378">
+        <v>2021</v>
+      </c>
+      <c r="F1378" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1378" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1378">
+        <v>3</v>
+      </c>
+      <c r="I1378">
+        <v>0.17391304299999999</v>
+      </c>
+      <c r="J1378">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:10">
+      <c r="A1379" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1379" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1379">
+        <v>2021</v>
+      </c>
+      <c r="F1379" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1379" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1379">
+        <v>3</v>
+      </c>
+      <c r="I1379">
+        <v>0.125</v>
+      </c>
+      <c r="J1379">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:10">
+      <c r="A1380" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1380" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1380">
+        <v>2021</v>
+      </c>
+      <c r="F1380" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1380" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1380">
+        <v>3</v>
+      </c>
+      <c r="I1380">
+        <v>0.19047618999999999</v>
+      </c>
+      <c r="J1380">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:10">
+      <c r="A1381" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1381" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1381">
+        <v>2021</v>
+      </c>
+      <c r="F1381" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1381" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1381">
+        <v>3</v>
+      </c>
+      <c r="I1381">
+        <v>0.235294118</v>
+      </c>
+      <c r="J1381">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:10">
+      <c r="A1382" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1382" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1382">
+        <v>2021</v>
+      </c>
+      <c r="F1382" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1382" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1382">
+        <v>3</v>
+      </c>
+      <c r="I1382">
+        <v>0.130434783</v>
+      </c>
+      <c r="J1382">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:10">
+      <c r="A1383" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1383" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1383">
+        <v>2021</v>
+      </c>
+      <c r="F1383" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1383" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1383">
+        <v>3</v>
+      </c>
+      <c r="I1383">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="J1383">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:10">
+      <c r="A1384" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1384" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1384">
+        <v>2021</v>
+      </c>
+      <c r="F1384" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1384" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1384">
+        <v>3</v>
+      </c>
+      <c r="I1384">
+        <v>0.16666666699999999</v>
+      </c>
+      <c r="J1384">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:10">
+      <c r="A1385" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1385" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1385">
+        <v>2021</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1385" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1385">
+        <v>3</v>
+      </c>
+      <c r="I1385">
+        <v>4.5454544999999999E-2</v>
+      </c>
+      <c r="J1385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:10">
+      <c r="A1386" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1386" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1386">
+        <v>2021</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1386" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1386">
+        <v>3</v>
+      </c>
+      <c r="I1386">
+        <v>0.15</v>
+      </c>
+      <c r="J1386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:10">
+      <c r="A1387" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1387" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1387">
+        <v>2021</v>
+      </c>
+      <c r="F1387" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1387" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:10">
+      <c r="A1388" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1388" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1388">
+        <v>2021</v>
+      </c>
+      <c r="F1388" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1388" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:10">
+      <c r="A1389" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1389" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1389">
+        <v>2021</v>
+      </c>
+      <c r="F1389" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1389" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1389">
+        <v>2</v>
+      </c>
+      <c r="I1389">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="J1389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:10">
+      <c r="A1390" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1390" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1390">
+        <v>2021</v>
+      </c>
+      <c r="F1390" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1390" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1390">
+        <v>2</v>
+      </c>
+      <c r="I1390">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="J1390">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:10">
+      <c r="A1391" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1391" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1391">
+        <v>2021</v>
+      </c>
+      <c r="F1391" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1391" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1391">
+        <v>2</v>
+      </c>
+      <c r="I1391">
+        <v>0.17647058800000001</v>
+      </c>
+      <c r="J1391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:10">
+      <c r="A1392" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1392" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1392">
+        <v>2021</v>
+      </c>
+      <c r="F1392" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1392" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1392">
+        <v>2</v>
+      </c>
+      <c r="I1392">
+        <v>8.6956521999999994E-2</v>
+      </c>
+      <c r="J1392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:10">
+      <c r="A1393" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1393" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1393">
+        <v>2021</v>
+      </c>
+      <c r="F1393" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1393" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1393">
+        <v>2</v>
+      </c>
+      <c r="I1393">
+        <v>9.5238094999999995E-2</v>
+      </c>
+      <c r="J1393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:10">
+      <c r="A1394" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1394" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1394">
+        <v>2021</v>
+      </c>
+      <c r="F1394" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1394" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1394">
+        <v>2</v>
+      </c>
+      <c r="I1394">
+        <v>0.16666666699999999</v>
+      </c>
+      <c r="J1394">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:10">
+      <c r="A1395" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1395" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1395">
+        <v>2021</v>
+      </c>
+      <c r="F1395" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1395" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1395">
+        <v>2</v>
+      </c>
+      <c r="I1395">
+        <v>0.13636363600000001</v>
+      </c>
+      <c r="J1395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:10">
+      <c r="A1396" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1396" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1396">
+        <v>2021</v>
+      </c>
+      <c r="F1396" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1396" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1396">
+        <v>2</v>
+      </c>
+      <c r="I1396">
+        <v>0.15</v>
+      </c>
+      <c r="J1396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:10">
+      <c r="A1397" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1397" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1397">
+        <v>2021</v>
+      </c>
+      <c r="F1397" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1397" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:10">
+      <c r="A1398" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1398" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1398">
+        <v>2021</v>
+      </c>
+      <c r="F1398" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1398" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:10">
+      <c r="A1399" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1399" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1399">
+        <v>2021</v>
+      </c>
+      <c r="F1399" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1399" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:10">
+      <c r="A1400" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1400" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1400">
+        <v>2021</v>
+      </c>
+      <c r="F1400" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1400" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1400">
+        <v>1</v>
+      </c>
+      <c r="I1400">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="J1400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:10">
+      <c r="A1401" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1401" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1401">
+        <v>2021</v>
+      </c>
+      <c r="F1401" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1401" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:10">
+      <c r="A1402" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1402" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1402">
+        <v>2021</v>
+      </c>
+      <c r="F1402" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1402" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1402">
+        <v>1</v>
+      </c>
+      <c r="I1402">
+        <v>4.3478260999999997E-2</v>
+      </c>
+      <c r="J1402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:10">
+      <c r="A1403" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1403" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1403">
+        <v>2021</v>
+      </c>
+      <c r="F1403" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1403" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:10">
+      <c r="A1404" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1404" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1404">
+        <v>2021</v>
+      </c>
+      <c r="F1404" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1404" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1404">
+        <v>1</v>
+      </c>
+      <c r="I1404">
+        <v>5.5555555999999999E-2</v>
+      </c>
+      <c r="J1404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:10">
+      <c r="A1405" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1405" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1405">
+        <v>2021</v>
+      </c>
+      <c r="F1405" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1405" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:10">
+      <c r="A1406" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1406" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1406">
+        <v>2021</v>
+      </c>
+      <c r="F1406" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1406" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1406">
+        <v>1</v>
+      </c>
+      <c r="I1406">
+        <v>0.05</v>
+      </c>
+      <c r="J1406">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/UCGSES.xlsx
+++ b/data/UCGSES.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanolan\OneDrive\IR_Folder\UCSD_Gaps_Quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD1A055-C202-498F-B9B2-AAEDBBBC1E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A439661B-23F8-40D3-A10B-A9D93CABA0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61FCD85B-1D55-4F53-8AAE-887E8D8E82D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1640</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8440" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9844" uniqueCount="74">
   <si>
     <t>q</t>
   </si>
@@ -247,6 +250,18 @@
   <si>
     <t>Very Poor</t>
   </si>
+  <si>
+    <t>Mentoring Coaching and Advising</t>
+  </si>
+  <si>
+    <t>the support I received regarding my thesis/dissertation research</t>
+  </si>
+  <si>
+    <t>the mentorship and advising I receive in my program</t>
+  </si>
+  <si>
+    <t>the career support I receive in my program</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -321,9 +336,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -641,17 +653,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E9CEE1-CF8E-498D-873A-AA06707249A5}">
-  <dimension ref="A1:P1406"/>
+  <dimension ref="A1:P1640"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1406" workbookViewId="0">
-      <selection activeCell="F1416" sqref="F1416"/>
+    <sheetView tabSelected="1" topLeftCell="A1563" workbookViewId="0">
+      <selection activeCell="D1639" sqref="D1587:D1639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="66.1796875" customWidth="1"/>
+    <col min="1" max="1" width="46.26953125" customWidth="1"/>
     <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -43659,7 +43672,7 @@
       <c r="B1347" t="s">
         <v>62</v>
       </c>
-      <c r="C1347" s="8" t="s">
+      <c r="C1347" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1347" t="s">
@@ -43691,7 +43704,7 @@
       <c r="B1348" t="s">
         <v>62</v>
       </c>
-      <c r="C1348" s="8" t="s">
+      <c r="C1348" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1348" t="s">
@@ -43723,7 +43736,7 @@
       <c r="B1349" t="s">
         <v>62</v>
       </c>
-      <c r="C1349" s="8" t="s">
+      <c r="C1349" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1349" t="s">
@@ -43755,7 +43768,7 @@
       <c r="B1350" t="s">
         <v>62</v>
       </c>
-      <c r="C1350" s="8" t="s">
+      <c r="C1350" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1350" t="s">
@@ -43787,7 +43800,7 @@
       <c r="B1351" t="s">
         <v>62</v>
       </c>
-      <c r="C1351" s="8" t="s">
+      <c r="C1351" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1351" t="s">
@@ -43819,7 +43832,7 @@
       <c r="B1352" t="s">
         <v>62</v>
       </c>
-      <c r="C1352" s="8" t="s">
+      <c r="C1352" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1352" t="s">
@@ -43851,7 +43864,7 @@
       <c r="B1353" t="s">
         <v>62</v>
       </c>
-      <c r="C1353" s="8" t="s">
+      <c r="C1353" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1353" t="s">
@@ -43883,7 +43896,7 @@
       <c r="B1354" t="s">
         <v>62</v>
       </c>
-      <c r="C1354" s="8" t="s">
+      <c r="C1354" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1354" t="s">
@@ -43915,7 +43928,7 @@
       <c r="B1355" t="s">
         <v>62</v>
       </c>
-      <c r="C1355" s="8" t="s">
+      <c r="C1355" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1355" t="s">
@@ -43947,7 +43960,7 @@
       <c r="B1356" t="s">
         <v>62</v>
       </c>
-      <c r="C1356" s="8" t="s">
+      <c r="C1356" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1356" t="s">
@@ -43979,7 +43992,7 @@
       <c r="B1357" t="s">
         <v>62</v>
       </c>
-      <c r="C1357" s="8" t="s">
+      <c r="C1357" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1357" t="s">
@@ -44011,7 +44024,7 @@
       <c r="B1358" t="s">
         <v>62</v>
       </c>
-      <c r="C1358" s="8" t="s">
+      <c r="C1358" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1358" t="s">
@@ -44043,7 +44056,7 @@
       <c r="B1359" t="s">
         <v>62</v>
       </c>
-      <c r="C1359" s="8" t="s">
+      <c r="C1359" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1359" t="s">
@@ -44075,7 +44088,7 @@
       <c r="B1360" t="s">
         <v>62</v>
       </c>
-      <c r="C1360" s="8" t="s">
+      <c r="C1360" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1360" t="s">
@@ -44107,7 +44120,7 @@
       <c r="B1361" t="s">
         <v>62</v>
       </c>
-      <c r="C1361" s="8" t="s">
+      <c r="C1361" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1361" t="s">
@@ -44139,7 +44152,7 @@
       <c r="B1362" t="s">
         <v>62</v>
       </c>
-      <c r="C1362" s="8" t="s">
+      <c r="C1362" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1362" t="s">
@@ -44171,7 +44184,7 @@
       <c r="B1363" t="s">
         <v>62</v>
       </c>
-      <c r="C1363" s="8" t="s">
+      <c r="C1363" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1363" t="s">
@@ -44203,7 +44216,7 @@
       <c r="B1364" t="s">
         <v>62</v>
       </c>
-      <c r="C1364" s="8" t="s">
+      <c r="C1364" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1364" t="s">
@@ -44235,7 +44248,7 @@
       <c r="B1365" t="s">
         <v>62</v>
       </c>
-      <c r="C1365" s="8" t="s">
+      <c r="C1365" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1365" t="s">
@@ -44267,7 +44280,7 @@
       <c r="B1366" t="s">
         <v>62</v>
       </c>
-      <c r="C1366" s="8" t="s">
+      <c r="C1366" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1366" t="s">
@@ -44299,7 +44312,7 @@
       <c r="B1367" t="s">
         <v>62</v>
       </c>
-      <c r="C1367" s="8" t="s">
+      <c r="C1367" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1367" t="s">
@@ -44331,7 +44344,7 @@
       <c r="B1368" t="s">
         <v>62</v>
       </c>
-      <c r="C1368" s="8" t="s">
+      <c r="C1368" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1368" t="s">
@@ -44363,7 +44376,7 @@
       <c r="B1369" t="s">
         <v>62</v>
       </c>
-      <c r="C1369" s="8" t="s">
+      <c r="C1369" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1369" t="s">
@@ -44395,7 +44408,7 @@
       <c r="B1370" t="s">
         <v>62</v>
       </c>
-      <c r="C1370" s="8" t="s">
+      <c r="C1370" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1370" t="s">
@@ -44427,7 +44440,7 @@
       <c r="B1371" t="s">
         <v>62</v>
       </c>
-      <c r="C1371" s="8" t="s">
+      <c r="C1371" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1371" t="s">
@@ -44459,7 +44472,7 @@
       <c r="B1372" t="s">
         <v>62</v>
       </c>
-      <c r="C1372" s="8" t="s">
+      <c r="C1372" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1372" t="s">
@@ -44491,7 +44504,7 @@
       <c r="B1373" t="s">
         <v>62</v>
       </c>
-      <c r="C1373" s="8" t="s">
+      <c r="C1373" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1373" t="s">
@@ -44523,7 +44536,7 @@
       <c r="B1374" t="s">
         <v>62</v>
       </c>
-      <c r="C1374" s="8" t="s">
+      <c r="C1374" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1374" t="s">
@@ -44555,7 +44568,7 @@
       <c r="B1375" t="s">
         <v>62</v>
       </c>
-      <c r="C1375" s="8" t="s">
+      <c r="C1375" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1375" t="s">
@@ -44587,7 +44600,7 @@
       <c r="B1376" t="s">
         <v>62</v>
       </c>
-      <c r="C1376" s="8" t="s">
+      <c r="C1376" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1376" t="s">
@@ -44619,7 +44632,7 @@
       <c r="B1377" t="s">
         <v>62</v>
       </c>
-      <c r="C1377" s="8" t="s">
+      <c r="C1377" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1377" t="s">
@@ -44651,7 +44664,7 @@
       <c r="B1378" t="s">
         <v>62</v>
       </c>
-      <c r="C1378" s="8" t="s">
+      <c r="C1378" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1378" t="s">
@@ -44683,7 +44696,7 @@
       <c r="B1379" t="s">
         <v>62</v>
       </c>
-      <c r="C1379" s="8" t="s">
+      <c r="C1379" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1379" t="s">
@@ -44715,7 +44728,7 @@
       <c r="B1380" t="s">
         <v>62</v>
       </c>
-      <c r="C1380" s="8" t="s">
+      <c r="C1380" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1380" t="s">
@@ -44747,7 +44760,7 @@
       <c r="B1381" t="s">
         <v>62</v>
       </c>
-      <c r="C1381" s="8" t="s">
+      <c r="C1381" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1381" t="s">
@@ -44779,7 +44792,7 @@
       <c r="B1382" t="s">
         <v>62</v>
       </c>
-      <c r="C1382" s="8" t="s">
+      <c r="C1382" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1382" t="s">
@@ -44811,7 +44824,7 @@
       <c r="B1383" t="s">
         <v>62</v>
       </c>
-      <c r="C1383" s="8" t="s">
+      <c r="C1383" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1383" t="s">
@@ -44843,7 +44856,7 @@
       <c r="B1384" t="s">
         <v>62</v>
       </c>
-      <c r="C1384" s="8" t="s">
+      <c r="C1384" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1384" t="s">
@@ -44875,7 +44888,7 @@
       <c r="B1385" t="s">
         <v>62</v>
       </c>
-      <c r="C1385" s="8" t="s">
+      <c r="C1385" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1385" t="s">
@@ -44907,7 +44920,7 @@
       <c r="B1386" t="s">
         <v>62</v>
       </c>
-      <c r="C1386" s="8" t="s">
+      <c r="C1386" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1386" t="s">
@@ -44939,7 +44952,7 @@
       <c r="B1387" t="s">
         <v>62</v>
       </c>
-      <c r="C1387" s="8" t="s">
+      <c r="C1387" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1387" t="s">
@@ -44965,7 +44978,7 @@
       <c r="B1388" t="s">
         <v>62</v>
       </c>
-      <c r="C1388" s="8" t="s">
+      <c r="C1388" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1388" t="s">
@@ -44991,7 +45004,7 @@
       <c r="B1389" t="s">
         <v>62</v>
       </c>
-      <c r="C1389" s="8" t="s">
+      <c r="C1389" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1389" t="s">
@@ -45023,7 +45036,7 @@
       <c r="B1390" t="s">
         <v>62</v>
       </c>
-      <c r="C1390" s="8" t="s">
+      <c r="C1390" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1390" t="s">
@@ -45055,7 +45068,7 @@
       <c r="B1391" t="s">
         <v>62</v>
       </c>
-      <c r="C1391" s="8" t="s">
+      <c r="C1391" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1391" t="s">
@@ -45087,7 +45100,7 @@
       <c r="B1392" t="s">
         <v>62</v>
       </c>
-      <c r="C1392" s="8" t="s">
+      <c r="C1392" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1392" t="s">
@@ -45119,7 +45132,7 @@
       <c r="B1393" t="s">
         <v>62</v>
       </c>
-      <c r="C1393" s="8" t="s">
+      <c r="C1393" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1393" t="s">
@@ -45151,7 +45164,7 @@
       <c r="B1394" t="s">
         <v>62</v>
       </c>
-      <c r="C1394" s="8" t="s">
+      <c r="C1394" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1394" t="s">
@@ -45183,7 +45196,7 @@
       <c r="B1395" t="s">
         <v>62</v>
       </c>
-      <c r="C1395" s="8" t="s">
+      <c r="C1395" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1395" t="s">
@@ -45215,7 +45228,7 @@
       <c r="B1396" t="s">
         <v>62</v>
       </c>
-      <c r="C1396" s="8" t="s">
+      <c r="C1396" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1396" t="s">
@@ -45247,7 +45260,7 @@
       <c r="B1397" t="s">
         <v>62</v>
       </c>
-      <c r="C1397" s="8" t="s">
+      <c r="C1397" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1397" t="s">
@@ -45273,7 +45286,7 @@
       <c r="B1398" t="s">
         <v>62</v>
       </c>
-      <c r="C1398" s="8" t="s">
+      <c r="C1398" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1398" t="s">
@@ -45299,7 +45312,7 @@
       <c r="B1399" t="s">
         <v>62</v>
       </c>
-      <c r="C1399" s="8" t="s">
+      <c r="C1399" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1399" t="s">
@@ -45325,7 +45338,7 @@
       <c r="B1400" t="s">
         <v>62</v>
       </c>
-      <c r="C1400" s="8" t="s">
+      <c r="C1400" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1400" t="s">
@@ -45357,7 +45370,7 @@
       <c r="B1401" t="s">
         <v>62</v>
       </c>
-      <c r="C1401" s="8" t="s">
+      <c r="C1401" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1401" t="s">
@@ -45383,7 +45396,7 @@
       <c r="B1402" t="s">
         <v>62</v>
       </c>
-      <c r="C1402" s="8" t="s">
+      <c r="C1402" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1402" t="s">
@@ -45415,7 +45428,7 @@
       <c r="B1403" t="s">
         <v>62</v>
       </c>
-      <c r="C1403" s="8" t="s">
+      <c r="C1403" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1403" t="s">
@@ -45441,7 +45454,7 @@
       <c r="B1404" t="s">
         <v>62</v>
       </c>
-      <c r="C1404" s="8" t="s">
+      <c r="C1404" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1404" t="s">
@@ -45473,7 +45486,7 @@
       <c r="B1405" t="s">
         <v>62</v>
       </c>
-      <c r="C1405" s="8" t="s">
+      <c r="C1405" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1405" t="s">
@@ -45499,7 +45512,7 @@
       <c r="B1406" t="s">
         <v>62</v>
       </c>
-      <c r="C1406" s="8" t="s">
+      <c r="C1406" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D1406" t="s">
@@ -45524,7 +45537,7472 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1407" spans="1:10">
+      <c r="A1407" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1407" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1407">
+        <v>2021</v>
+      </c>
+      <c r="F1407" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1407" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1407">
+        <v>6</v>
+      </c>
+      <c r="I1407">
+        <v>0.34457478000000002</v>
+      </c>
+      <c r="J1407">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:10">
+      <c r="A1408" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1408" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1408">
+        <v>2021</v>
+      </c>
+      <c r="F1408" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1408" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1408">
+        <v>6</v>
+      </c>
+      <c r="I1408">
+        <v>0.34759358299999998</v>
+      </c>
+      <c r="J1408">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:10">
+      <c r="A1409" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1409" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1409">
+        <v>2021</v>
+      </c>
+      <c r="F1409" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1409" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1409">
+        <v>6</v>
+      </c>
+      <c r="I1409">
+        <v>0.24615384600000001</v>
+      </c>
+      <c r="J1409">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:10">
+      <c r="A1410" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1410" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1410">
+        <v>2021</v>
+      </c>
+      <c r="F1410" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1410" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1410">
+        <v>5</v>
+      </c>
+      <c r="I1410">
+        <v>0.32844574799999998</v>
+      </c>
+      <c r="J1410">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:10">
+      <c r="A1411" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1411" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1411">
+        <v>2021</v>
+      </c>
+      <c r="F1411" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1411" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1411">
+        <v>5</v>
+      </c>
+      <c r="I1411">
+        <v>0.305882353</v>
+      </c>
+      <c r="J1411">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:10">
+      <c r="A1412" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1412" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1412">
+        <v>2021</v>
+      </c>
+      <c r="F1412" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1412" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1412">
+        <v>5</v>
+      </c>
+      <c r="I1412">
+        <v>0.30879120900000001</v>
+      </c>
+      <c r="J1412">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:10">
+      <c r="A1413" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1413" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1413">
+        <v>2021</v>
+      </c>
+      <c r="F1413" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1413" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1413">
+        <v>4</v>
+      </c>
+      <c r="I1413">
+        <v>0.195014663</v>
+      </c>
+      <c r="J1413">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:10">
+      <c r="A1414" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1414" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1414">
+        <v>2021</v>
+      </c>
+      <c r="F1414" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1414" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1414">
+        <v>4</v>
+      </c>
+      <c r="I1414">
+        <v>0.180748663</v>
+      </c>
+      <c r="J1414">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:10">
+      <c r="A1415" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1415" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1415">
+        <v>2021</v>
+      </c>
+      <c r="F1415" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1415" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1415">
+        <v>4</v>
+      </c>
+      <c r="I1415">
+        <v>0.215384615</v>
+      </c>
+      <c r="J1415">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:10">
+      <c r="A1416" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1416" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1416">
+        <v>2021</v>
+      </c>
+      <c r="F1416" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1416" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1416">
+        <v>3</v>
+      </c>
+      <c r="I1416">
+        <v>5.5718475000000003E-2</v>
+      </c>
+      <c r="J1416">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:10">
+      <c r="A1417" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1417" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1417">
+        <v>2021</v>
+      </c>
+      <c r="F1417" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1417" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1417">
+        <v>3</v>
+      </c>
+      <c r="I1417">
+        <v>8.2352940999999999E-2</v>
+      </c>
+      <c r="J1417">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:10">
+      <c r="A1418" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1418" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1418">
+        <v>2021</v>
+      </c>
+      <c r="F1418" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1418" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1418">
+        <v>3</v>
+      </c>
+      <c r="I1418">
+        <v>0.113186813</v>
+      </c>
+      <c r="J1418">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:10">
+      <c r="A1419" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1419" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1419">
+        <v>2021</v>
+      </c>
+      <c r="F1419" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1419" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1419">
+        <v>2</v>
+      </c>
+      <c r="I1419">
+        <v>3.5190616000000001E-2</v>
+      </c>
+      <c r="J1419">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:10">
+      <c r="A1420" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1420" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1420">
+        <v>2021</v>
+      </c>
+      <c r="F1420" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1420" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1420">
+        <v>2</v>
+      </c>
+      <c r="I1420">
+        <v>4.2780749E-2</v>
+      </c>
+      <c r="J1420">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:10">
+      <c r="A1421" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1421" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1421">
+        <v>2021</v>
+      </c>
+      <c r="F1421" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1421" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1421">
+        <v>2</v>
+      </c>
+      <c r="I1421">
+        <v>7.1428570999999996E-2</v>
+      </c>
+      <c r="J1421">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:10">
+      <c r="A1422" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1422" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1422">
+        <v>2021</v>
+      </c>
+      <c r="F1422" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1422" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1422">
+        <v>1</v>
+      </c>
+      <c r="I1422">
+        <v>4.1055717999999998E-2</v>
+      </c>
+      <c r="J1422">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:10">
+      <c r="A1423" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1423" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1423">
+        <v>2021</v>
+      </c>
+      <c r="F1423" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1423" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1423">
+        <v>1</v>
+      </c>
+      <c r="I1423">
+        <v>4.0641710999999997E-2</v>
+      </c>
+      <c r="J1423">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:10">
+      <c r="A1424" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1424" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1424">
+        <v>2021</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1424" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1424">
+        <v>1</v>
+      </c>
+      <c r="I1424">
+        <v>4.5054944999999999E-2</v>
+      </c>
+      <c r="J1424">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:10">
+      <c r="A1425" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1425" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1425">
+        <v>2021</v>
+      </c>
+      <c r="F1425" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1425" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1425">
+        <v>6</v>
+      </c>
+      <c r="I1425">
+        <v>0.33207547199999998</v>
+      </c>
+      <c r="J1425">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:10">
+      <c r="A1426" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1426" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1426">
+        <v>2021</v>
+      </c>
+      <c r="F1426" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1426" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1426">
+        <v>6</v>
+      </c>
+      <c r="I1426">
+        <v>0.37057220699999999</v>
+      </c>
+      <c r="J1426">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:10">
+      <c r="A1427" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1427" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1427">
+        <v>2021</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1427" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1427">
+        <v>6</v>
+      </c>
+      <c r="I1427">
+        <v>0.26050420200000002</v>
+      </c>
+      <c r="J1427">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:10">
+      <c r="A1428" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1428" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1428">
+        <v>2021</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1428" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1428">
+        <v>5</v>
+      </c>
+      <c r="I1428">
+        <v>0.34716981099999999</v>
+      </c>
+      <c r="J1428">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:10">
+      <c r="A1429" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1429" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1429">
+        <v>2021</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1429" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1429">
+        <v>5</v>
+      </c>
+      <c r="I1429">
+        <v>0.310626703</v>
+      </c>
+      <c r="J1429">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:10">
+      <c r="A1430" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1430" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1430">
+        <v>2021</v>
+      </c>
+      <c r="F1430" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1430" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1430">
+        <v>5</v>
+      </c>
+      <c r="I1430">
+        <v>0.30252100799999998</v>
+      </c>
+      <c r="J1430">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:10">
+      <c r="A1431" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1431" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1431">
+        <v>2021</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1431" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1431">
+        <v>4</v>
+      </c>
+      <c r="I1431">
+        <v>0.211320755</v>
+      </c>
+      <c r="J1431">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:10">
+      <c r="A1432" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1432" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1432">
+        <v>2021</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1432" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1432">
+        <v>4</v>
+      </c>
+      <c r="I1432">
+        <v>0.179836512</v>
+      </c>
+      <c r="J1432">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:10">
+      <c r="A1433" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1433" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1433">
+        <v>2021</v>
+      </c>
+      <c r="F1433" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1433" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1433">
+        <v>4</v>
+      </c>
+      <c r="I1433">
+        <v>0.226890756</v>
+      </c>
+      <c r="J1433">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:10">
+      <c r="A1434" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1434" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1434">
+        <v>2021</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1434" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1434">
+        <v>3</v>
+      </c>
+      <c r="I1434">
+        <v>3.3962263999999999E-2</v>
+      </c>
+      <c r="J1434">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:10">
+      <c r="A1435" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1435" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1435">
+        <v>2021</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1435" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1435">
+        <v>3</v>
+      </c>
+      <c r="I1435">
+        <v>6.5395095E-2</v>
+      </c>
+      <c r="J1435">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:10">
+      <c r="A1436" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1436" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1436">
+        <v>2021</v>
+      </c>
+      <c r="F1436" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1436" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1436">
+        <v>3</v>
+      </c>
+      <c r="I1436">
+        <v>8.6834733999999997E-2</v>
+      </c>
+      <c r="J1436">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:10">
+      <c r="A1437" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1437" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1437">
+        <v>2021</v>
+      </c>
+      <c r="F1437" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1437" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1437">
+        <v>2</v>
+      </c>
+      <c r="I1437">
+        <v>3.0188679E-2</v>
+      </c>
+      <c r="J1437">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:10">
+      <c r="A1438" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1438" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1438">
+        <v>2021</v>
+      </c>
+      <c r="F1438" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1438" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1438">
+        <v>2</v>
+      </c>
+      <c r="I1438">
+        <v>3.2697548E-2</v>
+      </c>
+      <c r="J1438">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:10">
+      <c r="A1439" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1439" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1439">
+        <v>2021</v>
+      </c>
+      <c r="F1439" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1439" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1439">
+        <v>2</v>
+      </c>
+      <c r="I1439">
+        <v>7.0028011000000001E-2</v>
+      </c>
+      <c r="J1439">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:10">
+      <c r="A1440" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1440" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1440">
+        <v>2021</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1440" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1440">
+        <v>1</v>
+      </c>
+      <c r="I1440">
+        <v>4.5283019000000001E-2</v>
+      </c>
+      <c r="J1440">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:10">
+      <c r="A1441" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1441" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1441">
+        <v>2021</v>
+      </c>
+      <c r="F1441" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1441" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1441">
+        <v>1</v>
+      </c>
+      <c r="I1441">
+        <v>4.0871934999999998E-2</v>
+      </c>
+      <c r="J1441">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:10">
+      <c r="A1442" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1442" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1442">
+        <v>2021</v>
+      </c>
+      <c r="F1442" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1442" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1442">
+        <v>1</v>
+      </c>
+      <c r="I1442">
+        <v>5.3221288999999998E-2</v>
+      </c>
+      <c r="J1442">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:10">
+      <c r="A1443" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1443" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1443">
+        <v>2021</v>
+      </c>
+      <c r="F1443" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1443" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1443">
+        <v>6</v>
+      </c>
+      <c r="I1443">
+        <v>0.35015772899999997</v>
+      </c>
+      <c r="J1443">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:10">
+      <c r="A1444" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1444" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1444">
+        <v>2021</v>
+      </c>
+      <c r="F1444" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1444" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1444">
+        <v>6</v>
+      </c>
+      <c r="I1444">
+        <v>0.32946635699999999</v>
+      </c>
+      <c r="J1444">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:10">
+      <c r="A1445" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1445" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1445">
+        <v>2021</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1445" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1445">
+        <v>6</v>
+      </c>
+      <c r="I1445">
+        <v>0.23277909699999999</v>
+      </c>
+      <c r="J1445">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:10">
+      <c r="A1446" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1446" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1446">
+        <v>2021</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1446" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1446">
+        <v>5</v>
+      </c>
+      <c r="I1446">
+        <v>0.32176656199999998</v>
+      </c>
+      <c r="J1446">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:10">
+      <c r="A1447" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1447" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1447">
+        <v>2021</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1447" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1447">
+        <v>5</v>
+      </c>
+      <c r="I1447">
+        <v>0.310904872</v>
+      </c>
+      <c r="J1447">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:10">
+      <c r="A1448" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1448" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1448">
+        <v>2021</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1448" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1448">
+        <v>5</v>
+      </c>
+      <c r="I1448">
+        <v>0.29453681700000001</v>
+      </c>
+      <c r="J1448">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:10">
+      <c r="A1449" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1449" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1449">
+        <v>2021</v>
+      </c>
+      <c r="F1449" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1449" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1449">
+        <v>4</v>
+      </c>
+      <c r="I1449">
+        <v>0.1829653</v>
+      </c>
+      <c r="J1449">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:10">
+      <c r="A1450" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1450" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1450">
+        <v>2021</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1450" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1450">
+        <v>4</v>
+      </c>
+      <c r="I1450">
+        <v>0.183294664</v>
+      </c>
+      <c r="J1450">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:10">
+      <c r="A1451" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1451" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1451">
+        <v>2021</v>
+      </c>
+      <c r="F1451" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1451" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1451">
+        <v>4</v>
+      </c>
+      <c r="I1451">
+        <v>0.220902613</v>
+      </c>
+      <c r="J1451">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:10">
+      <c r="A1452" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1452" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1452">
+        <v>2021</v>
+      </c>
+      <c r="F1452" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1452" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1452">
+        <v>3</v>
+      </c>
+      <c r="I1452">
+        <v>5.9936908999999997E-2</v>
+      </c>
+      <c r="J1452">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:10">
+      <c r="A1453" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1453" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1453">
+        <v>2021</v>
+      </c>
+      <c r="F1453" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1453" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1453">
+        <v>3</v>
+      </c>
+      <c r="I1453">
+        <v>7.1925753999999995E-2</v>
+      </c>
+      <c r="J1453">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:10">
+      <c r="A1454" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1454" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1454">
+        <v>2021</v>
+      </c>
+      <c r="F1454" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1454" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1454">
+        <v>3</v>
+      </c>
+      <c r="I1454">
+        <v>0.133016627</v>
+      </c>
+      <c r="J1454">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:10">
+      <c r="A1455" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1455" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1455">
+        <v>2021</v>
+      </c>
+      <c r="F1455" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1455" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1455">
+        <v>2</v>
+      </c>
+      <c r="I1455">
+        <v>3.7854890000000002E-2</v>
+      </c>
+      <c r="J1455">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:10">
+      <c r="A1456" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1456" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1456">
+        <v>2021</v>
+      </c>
+      <c r="F1456" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1456" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1456">
+        <v>2</v>
+      </c>
+      <c r="I1456">
+        <v>5.5684455000000001E-2</v>
+      </c>
+      <c r="J1456">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:10">
+      <c r="A1457" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1457" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1457">
+        <v>2021</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1457" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1457">
+        <v>2</v>
+      </c>
+      <c r="I1457">
+        <v>7.1258906999999996E-2</v>
+      </c>
+      <c r="J1457">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:10">
+      <c r="A1458" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1458" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1458">
+        <v>2021</v>
+      </c>
+      <c r="F1458" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1458" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1458">
+        <v>1</v>
+      </c>
+      <c r="I1458">
+        <v>4.7318612000000003E-2</v>
+      </c>
+      <c r="J1458">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:10">
+      <c r="A1459" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1459" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1459">
+        <v>2021</v>
+      </c>
+      <c r="F1459" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1459" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1459">
+        <v>1</v>
+      </c>
+      <c r="I1459">
+        <v>4.8723898000000002E-2</v>
+      </c>
+      <c r="J1459">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:10">
+      <c r="A1460" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1460" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1460">
+        <v>2021</v>
+      </c>
+      <c r="F1460" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1460" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1460">
+        <v>1</v>
+      </c>
+      <c r="I1460">
+        <v>4.7505937999999998E-2</v>
+      </c>
+      <c r="J1460">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:10">
+      <c r="A1461" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1461" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1461">
+        <v>2021</v>
+      </c>
+      <c r="F1461" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1461" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1461">
+        <v>6</v>
+      </c>
+      <c r="I1461">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="J1461">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:10">
+      <c r="A1462" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1462" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1462">
+        <v>2021</v>
+      </c>
+      <c r="F1462" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1462" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1462">
+        <v>6</v>
+      </c>
+      <c r="I1462">
+        <v>0.25</v>
+      </c>
+      <c r="J1462">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:10">
+      <c r="A1463" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1463" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1463">
+        <v>2021</v>
+      </c>
+      <c r="F1463" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1463" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1463">
+        <v>6</v>
+      </c>
+      <c r="I1463">
+        <v>0.15</v>
+      </c>
+      <c r="J1463">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:10">
+      <c r="A1464" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1464" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1464">
+        <v>2021</v>
+      </c>
+      <c r="F1464" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1464" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1464">
+        <v>5</v>
+      </c>
+      <c r="I1464">
+        <v>0.26666666700000002</v>
+      </c>
+      <c r="J1464">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:10">
+      <c r="A1465" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1465" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1465">
+        <v>2021</v>
+      </c>
+      <c r="F1465" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1465" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1465">
+        <v>5</v>
+      </c>
+      <c r="I1465">
+        <v>0.3</v>
+      </c>
+      <c r="J1465">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:10">
+      <c r="A1466" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1466" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1466">
+        <v>2021</v>
+      </c>
+      <c r="F1466" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1466" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1466">
+        <v>5</v>
+      </c>
+      <c r="I1466">
+        <v>0.25</v>
+      </c>
+      <c r="J1466">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:10">
+      <c r="A1467" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1467" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1467">
+        <v>2021</v>
+      </c>
+      <c r="F1467" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1467" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1467">
+        <v>4</v>
+      </c>
+      <c r="I1467">
+        <v>0.2</v>
+      </c>
+      <c r="J1467">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:10">
+      <c r="A1468" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1468" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1468">
+        <v>2021</v>
+      </c>
+      <c r="F1468" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1468" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1468">
+        <v>4</v>
+      </c>
+      <c r="I1468">
+        <v>0.3</v>
+      </c>
+      <c r="J1468">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:10">
+      <c r="A1469" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1469" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1469">
+        <v>2021</v>
+      </c>
+      <c r="F1469" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1469" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1469">
+        <v>4</v>
+      </c>
+      <c r="I1469">
+        <v>0.3</v>
+      </c>
+      <c r="J1469">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:10">
+      <c r="A1470" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1470" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1470">
+        <v>2021</v>
+      </c>
+      <c r="F1470" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1470" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1470">
+        <v>3</v>
+      </c>
+      <c r="I1470">
+        <v>0.133333333</v>
+      </c>
+      <c r="J1470">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:10">
+      <c r="A1471" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1471" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1471">
+        <v>2021</v>
+      </c>
+      <c r="F1471" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1471" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1471">
+        <v>3</v>
+      </c>
+      <c r="I1471">
+        <v>0.1</v>
+      </c>
+      <c r="J1471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:10">
+      <c r="A1472" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1472" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1472">
+        <v>2021</v>
+      </c>
+      <c r="F1472" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1472" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1472">
+        <v>3</v>
+      </c>
+      <c r="I1472">
+        <v>0.2</v>
+      </c>
+      <c r="J1472">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:10">
+      <c r="A1473" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1473" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1473">
+        <v>2021</v>
+      </c>
+      <c r="F1473" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1473" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:10">
+      <c r="A1474" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1474" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1474">
+        <v>2021</v>
+      </c>
+      <c r="F1474" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1474" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:10">
+      <c r="A1475" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1475" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1475">
+        <v>2021</v>
+      </c>
+      <c r="F1475" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1475" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1475">
+        <v>2</v>
+      </c>
+      <c r="I1475">
+        <v>0.1</v>
+      </c>
+      <c r="J1475">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:10">
+      <c r="A1476" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1476" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1476">
+        <v>2021</v>
+      </c>
+      <c r="F1476" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1476" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1476">
+        <v>1</v>
+      </c>
+      <c r="I1476">
+        <v>6.6666666999999999E-2</v>
+      </c>
+      <c r="J1476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:10">
+      <c r="A1477" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1477" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1477">
+        <v>2021</v>
+      </c>
+      <c r="F1477" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1477" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1477">
+        <v>1</v>
+      </c>
+      <c r="I1477">
+        <v>0.05</v>
+      </c>
+      <c r="J1477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:10">
+      <c r="A1478" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1478" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1478">
+        <v>2021</v>
+      </c>
+      <c r="F1478" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1478" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:10">
+      <c r="A1479" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1479" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1479">
+        <v>2021</v>
+      </c>
+      <c r="F1479" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1479" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1479">
+        <v>6</v>
+      </c>
+      <c r="I1479">
+        <v>0.25806451600000002</v>
+      </c>
+      <c r="J1479">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:10">
+      <c r="A1480" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1480" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1480">
+        <v>2021</v>
+      </c>
+      <c r="F1480" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1480" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1480">
+        <v>6</v>
+      </c>
+      <c r="I1480">
+        <v>0.340909091</v>
+      </c>
+      <c r="J1480">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:10">
+      <c r="A1481" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1481" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1481">
+        <v>2021</v>
+      </c>
+      <c r="F1481" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1481">
+        <v>6</v>
+      </c>
+      <c r="I1481">
+        <v>0.235955056</v>
+      </c>
+      <c r="J1481">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:10">
+      <c r="A1482" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1482" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1482">
+        <v>2021</v>
+      </c>
+      <c r="F1482" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1482" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1482">
+        <v>5</v>
+      </c>
+      <c r="I1482">
+        <v>0.37096774199999999</v>
+      </c>
+      <c r="J1482">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:10">
+      <c r="A1483" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1483" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1483">
+        <v>2021</v>
+      </c>
+      <c r="F1483" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1483" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1483">
+        <v>5</v>
+      </c>
+      <c r="I1483">
+        <v>0.31818181800000001</v>
+      </c>
+      <c r="J1483">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:10">
+      <c r="A1484" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1484" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1484">
+        <v>2021</v>
+      </c>
+      <c r="F1484" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1484" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1484">
+        <v>5</v>
+      </c>
+      <c r="I1484">
+        <v>0.24719101099999999</v>
+      </c>
+      <c r="J1484">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:10">
+      <c r="A1485" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1485" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1485">
+        <v>2021</v>
+      </c>
+      <c r="F1485" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1485">
+        <v>4</v>
+      </c>
+      <c r="I1485">
+        <v>0.14516129</v>
+      </c>
+      <c r="J1485">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:10">
+      <c r="A1486" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1486" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1486">
+        <v>2021</v>
+      </c>
+      <c r="F1486" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1486" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1486">
+        <v>4</v>
+      </c>
+      <c r="I1486">
+        <v>0.18181818199999999</v>
+      </c>
+      <c r="J1486">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:10">
+      <c r="A1487" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1487" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1487">
+        <v>2021</v>
+      </c>
+      <c r="F1487" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1487" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1487">
+        <v>4</v>
+      </c>
+      <c r="I1487">
+        <v>0.21348314600000001</v>
+      </c>
+      <c r="J1487">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:10">
+      <c r="A1488" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1488" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1488">
+        <v>2021</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1488" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1488">
+        <v>3</v>
+      </c>
+      <c r="I1488">
+        <v>0.112903226</v>
+      </c>
+      <c r="J1488">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:10">
+      <c r="A1489" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1489" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1489">
+        <v>2021</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1489" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1489">
+        <v>3</v>
+      </c>
+      <c r="I1489">
+        <v>7.9545455000000001E-2</v>
+      </c>
+      <c r="J1489">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:10">
+      <c r="A1490" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1490" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1490">
+        <v>2021</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1490" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1490">
+        <v>3</v>
+      </c>
+      <c r="I1490">
+        <v>0.13483146100000001</v>
+      </c>
+      <c r="J1490">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:10">
+      <c r="A1491" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1491" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1491">
+        <v>2021</v>
+      </c>
+      <c r="F1491" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1491" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1491">
+        <v>2</v>
+      </c>
+      <c r="I1491">
+        <v>8.0645161000000007E-2</v>
+      </c>
+      <c r="J1491">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:10">
+      <c r="A1492" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1492" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1492">
+        <v>2021</v>
+      </c>
+      <c r="F1492" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1492" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1492">
+        <v>2</v>
+      </c>
+      <c r="I1492">
+        <v>6.8181818000000005E-2</v>
+      </c>
+      <c r="J1492">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:10">
+      <c r="A1493" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1493" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1493">
+        <v>2021</v>
+      </c>
+      <c r="F1493" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1493" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1493">
+        <v>2</v>
+      </c>
+      <c r="I1493">
+        <v>0.12359550599999999</v>
+      </c>
+      <c r="J1493">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:10">
+      <c r="A1494" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1494" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1494">
+        <v>2021</v>
+      </c>
+      <c r="F1494" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1494" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1494">
+        <v>1</v>
+      </c>
+      <c r="I1494">
+        <v>3.2258065000000002E-2</v>
+      </c>
+      <c r="J1494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:10">
+      <c r="A1495" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1495" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1495">
+        <v>2021</v>
+      </c>
+      <c r="F1495" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1495" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1495">
+        <v>1</v>
+      </c>
+      <c r="I1495">
+        <v>1.1363636E-2</v>
+      </c>
+      <c r="J1495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:10">
+      <c r="A1496" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1496" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1496">
+        <v>2021</v>
+      </c>
+      <c r="F1496" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1496" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1496">
+        <v>1</v>
+      </c>
+      <c r="I1496">
+        <v>4.4943820000000002E-2</v>
+      </c>
+      <c r="J1496">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:10">
+      <c r="A1497" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1497" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1497">
+        <v>2021</v>
+      </c>
+      <c r="F1497" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1497" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1497">
+        <v>6</v>
+      </c>
+      <c r="I1497">
+        <v>0.36036035999999999</v>
+      </c>
+      <c r="J1497">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:10">
+      <c r="A1498" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1498" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1498">
+        <v>2021</v>
+      </c>
+      <c r="F1498" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1498" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1498">
+        <v>6</v>
+      </c>
+      <c r="I1498">
+        <v>0.31481481500000003</v>
+      </c>
+      <c r="J1498">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:10">
+      <c r="A1499" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1499" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1499">
+        <v>2021</v>
+      </c>
+      <c r="F1499" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1499" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1499">
+        <v>6</v>
+      </c>
+      <c r="I1499">
+        <v>0.24528301899999999</v>
+      </c>
+      <c r="J1499">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:10">
+      <c r="A1500" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1500" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1500">
+        <v>2021</v>
+      </c>
+      <c r="F1500" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1500" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1500">
+        <v>5</v>
+      </c>
+      <c r="I1500">
+        <v>0.27927927899999999</v>
+      </c>
+      <c r="J1500">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:10">
+      <c r="A1501" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1501" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1501">
+        <v>2021</v>
+      </c>
+      <c r="F1501" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1501" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1501">
+        <v>5</v>
+      </c>
+      <c r="I1501">
+        <v>0.30864197500000001</v>
+      </c>
+      <c r="J1501">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:10">
+      <c r="A1502" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1502" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1502">
+        <v>2021</v>
+      </c>
+      <c r="F1502" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1502" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1502">
+        <v>5</v>
+      </c>
+      <c r="I1502">
+        <v>0.28301886799999998</v>
+      </c>
+      <c r="J1502">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:10">
+      <c r="A1503" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1503" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1503">
+        <v>2021</v>
+      </c>
+      <c r="F1503" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1503" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1503">
+        <v>4</v>
+      </c>
+      <c r="I1503">
+        <v>0.243243243</v>
+      </c>
+      <c r="J1503">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:10">
+      <c r="A1504" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1504" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1504">
+        <v>2021</v>
+      </c>
+      <c r="F1504" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1504" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1504">
+        <v>4</v>
+      </c>
+      <c r="I1504">
+        <v>0.20370370400000001</v>
+      </c>
+      <c r="J1504">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:10">
+      <c r="A1505" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1505" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1505">
+        <v>2021</v>
+      </c>
+      <c r="F1505" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1505" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1505">
+        <v>4</v>
+      </c>
+      <c r="I1505">
+        <v>0.24528301899999999</v>
+      </c>
+      <c r="J1505">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:10">
+      <c r="A1506" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1506" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1506">
+        <v>2021</v>
+      </c>
+      <c r="F1506" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1506" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1506">
+        <v>3</v>
+      </c>
+      <c r="I1506">
+        <v>3.6036036E-2</v>
+      </c>
+      <c r="J1506">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:10">
+      <c r="A1507" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1507" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1507">
+        <v>2021</v>
+      </c>
+      <c r="F1507" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1507" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1507">
+        <v>3</v>
+      </c>
+      <c r="I1507">
+        <v>9.8765432E-2</v>
+      </c>
+      <c r="J1507">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:10">
+      <c r="A1508" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1508" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1508">
+        <v>2021</v>
+      </c>
+      <c r="F1508" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1508" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1508">
+        <v>3</v>
+      </c>
+      <c r="I1508">
+        <v>0.100628931</v>
+      </c>
+      <c r="J1508">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:10">
+      <c r="A1509" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1509" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1509">
+        <v>2021</v>
+      </c>
+      <c r="F1509" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1509" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1509">
+        <v>2</v>
+      </c>
+      <c r="I1509">
+        <v>4.5045044999999999E-2</v>
+      </c>
+      <c r="J1509">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:10">
+      <c r="A1510" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1510" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1510">
+        <v>2021</v>
+      </c>
+      <c r="F1510" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1510" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1510">
+        <v>2</v>
+      </c>
+      <c r="I1510">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="J1510">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:10">
+      <c r="A1511" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1511" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1511">
+        <v>2021</v>
+      </c>
+      <c r="F1511" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1511" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1511">
+        <v>2</v>
+      </c>
+      <c r="I1511">
+        <v>8.1761005999999997E-2</v>
+      </c>
+      <c r="J1511">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:10">
+      <c r="A1512" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1512" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1512">
+        <v>2021</v>
+      </c>
+      <c r="F1512" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1512" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1512">
+        <v>1</v>
+      </c>
+      <c r="I1512">
+        <v>3.6036036E-2</v>
+      </c>
+      <c r="J1512">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:10">
+      <c r="A1513" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1513" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1513">
+        <v>2021</v>
+      </c>
+      <c r="F1513" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1513" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1513">
+        <v>1</v>
+      </c>
+      <c r="I1513">
+        <v>3.7037037000000002E-2</v>
+      </c>
+      <c r="J1513">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:10">
+      <c r="A1514" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1514" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1514">
+        <v>2021</v>
+      </c>
+      <c r="F1514" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1514" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1514">
+        <v>1</v>
+      </c>
+      <c r="I1514">
+        <v>4.4025157000000002E-2</v>
+      </c>
+      <c r="J1514">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:10">
+      <c r="A1515" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1515" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1515">
+        <v>2021</v>
+      </c>
+      <c r="F1515" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1515" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1515">
+        <v>6</v>
+      </c>
+      <c r="I1515">
+        <v>0.36714975799999999</v>
+      </c>
+      <c r="J1515">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:10">
+      <c r="A1516" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1516" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1516">
+        <v>2021</v>
+      </c>
+      <c r="F1516" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1516" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1516">
+        <v>6</v>
+      </c>
+      <c r="I1516">
+        <v>0.35314685299999998</v>
+      </c>
+      <c r="J1516">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:10">
+      <c r="A1517" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1517" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1517">
+        <v>2021</v>
+      </c>
+      <c r="F1517" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1517" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1517">
+        <v>6</v>
+      </c>
+      <c r="I1517">
+        <v>0.24460431699999999</v>
+      </c>
+      <c r="J1517">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:10">
+      <c r="A1518" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1518" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1518">
+        <v>2021</v>
+      </c>
+      <c r="F1518" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1518" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1518">
+        <v>5</v>
+      </c>
+      <c r="I1518">
+        <v>0.31884057999999998</v>
+      </c>
+      <c r="J1518">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:10">
+      <c r="A1519" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1519" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1519">
+        <v>2021</v>
+      </c>
+      <c r="F1519" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1519" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1519">
+        <v>5</v>
+      </c>
+      <c r="I1519">
+        <v>0.26923076899999998</v>
+      </c>
+      <c r="J1519">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:10">
+      <c r="A1520" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1520" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1520">
+        <v>2021</v>
+      </c>
+      <c r="F1520" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1520" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1520">
+        <v>5</v>
+      </c>
+      <c r="I1520">
+        <v>0.27697841699999998</v>
+      </c>
+      <c r="J1520">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:10">
+      <c r="A1521" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1521" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1521">
+        <v>2021</v>
+      </c>
+      <c r="F1521" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1521" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1521">
+        <v>4</v>
+      </c>
+      <c r="I1521">
+        <v>0.17391304299999999</v>
+      </c>
+      <c r="J1521">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:10">
+      <c r="A1522" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1522" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1522">
+        <v>2021</v>
+      </c>
+      <c r="F1522" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1522" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1522">
+        <v>4</v>
+      </c>
+      <c r="I1522">
+        <v>0.174825175</v>
+      </c>
+      <c r="J1522">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:10">
+      <c r="A1523" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1523" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1523">
+        <v>2021</v>
+      </c>
+      <c r="F1523" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1523" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1523">
+        <v>4</v>
+      </c>
+      <c r="I1523">
+        <v>0.197841727</v>
+      </c>
+      <c r="J1523">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:10">
+      <c r="A1524" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1524" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1524">
+        <v>2021</v>
+      </c>
+      <c r="F1524" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1524" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1524">
+        <v>3</v>
+      </c>
+      <c r="I1524">
+        <v>7.7294686000000001E-2</v>
+      </c>
+      <c r="J1524">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:10">
+      <c r="A1525" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1525" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1525">
+        <v>2021</v>
+      </c>
+      <c r="F1525" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1525" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1525">
+        <v>3</v>
+      </c>
+      <c r="I1525">
+        <v>9.4405593999999995E-2</v>
+      </c>
+      <c r="J1525">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:10">
+      <c r="A1526" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1526" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1526">
+        <v>2021</v>
+      </c>
+      <c r="F1526" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1526" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1526">
+        <v>3</v>
+      </c>
+      <c r="I1526">
+        <v>0.151079137</v>
+      </c>
+      <c r="J1526">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:10">
+      <c r="A1527" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1527" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1527">
+        <v>2021</v>
+      </c>
+      <c r="F1527" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1527" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1527">
+        <v>2</v>
+      </c>
+      <c r="I1527">
+        <v>2.8985507000000001E-2</v>
+      </c>
+      <c r="J1527">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:10">
+      <c r="A1528" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1528" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1528">
+        <v>2021</v>
+      </c>
+      <c r="F1528" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1528" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1528">
+        <v>2</v>
+      </c>
+      <c r="I1528">
+        <v>4.5454544999999999E-2</v>
+      </c>
+      <c r="J1528">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:10">
+      <c r="A1529" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1529" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1529">
+        <v>2021</v>
+      </c>
+      <c r="F1529" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1529" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1529">
+        <v>2</v>
+      </c>
+      <c r="I1529">
+        <v>7.5539568000000001E-2</v>
+      </c>
+      <c r="J1529">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:10">
+      <c r="A1530" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1530" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1530">
+        <v>2021</v>
+      </c>
+      <c r="F1530" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1530" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1530">
+        <v>1</v>
+      </c>
+      <c r="I1530">
+        <v>3.3816424999999997E-2</v>
+      </c>
+      <c r="J1530">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:10">
+      <c r="A1531" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1531" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1531">
+        <v>2021</v>
+      </c>
+      <c r="F1531" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1531" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1531">
+        <v>1</v>
+      </c>
+      <c r="I1531">
+        <v>6.2937063000000001E-2</v>
+      </c>
+      <c r="J1531">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:10">
+      <c r="A1532" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1532" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1532">
+        <v>2021</v>
+      </c>
+      <c r="F1532" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1532" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1532">
+        <v>1</v>
+      </c>
+      <c r="I1532">
+        <v>5.3956835000000002E-2</v>
+      </c>
+      <c r="J1532">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:10">
+      <c r="A1533" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1533" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1533">
+        <v>2021</v>
+      </c>
+      <c r="F1533" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1533" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1533">
+        <v>6</v>
+      </c>
+      <c r="I1533">
+        <v>0.35</v>
+      </c>
+      <c r="J1533">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:10">
+      <c r="A1534" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1534" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1534">
+        <v>2021</v>
+      </c>
+      <c r="F1534" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1534" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1534">
+        <v>6</v>
+      </c>
+      <c r="I1534">
+        <v>0.37681159400000003</v>
+      </c>
+      <c r="J1534">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:10">
+      <c r="A1535" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1535" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1535">
+        <v>2021</v>
+      </c>
+      <c r="F1535" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1535" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1535">
+        <v>6</v>
+      </c>
+      <c r="I1535">
+        <v>0.26139817599999998</v>
+      </c>
+      <c r="J1535">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:10">
+      <c r="A1536" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1536" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1536">
+        <v>2021</v>
+      </c>
+      <c r="F1536" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1536" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1536">
+        <v>5</v>
+      </c>
+      <c r="I1536">
+        <v>0.34615384599999999</v>
+      </c>
+      <c r="J1536">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:10">
+      <c r="A1537" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1537" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1537">
+        <v>2021</v>
+      </c>
+      <c r="F1537" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1537" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1537">
+        <v>5</v>
+      </c>
+      <c r="I1537">
+        <v>0.32173912999999998</v>
+      </c>
+      <c r="J1537">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:10">
+      <c r="A1538" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1538" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1538">
+        <v>2021</v>
+      </c>
+      <c r="F1538" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1538" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1538">
+        <v>5</v>
+      </c>
+      <c r="I1538">
+        <v>0.36474164100000001</v>
+      </c>
+      <c r="J1538">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:10">
+      <c r="A1539" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1539" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1539">
+        <v>2021</v>
+      </c>
+      <c r="F1539" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1539">
+        <v>4</v>
+      </c>
+      <c r="I1539">
+        <v>0.2</v>
+      </c>
+      <c r="J1539">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:10">
+      <c r="A1540" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1540" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1540">
+        <v>2021</v>
+      </c>
+      <c r="F1540" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1540" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1540">
+        <v>4</v>
+      </c>
+      <c r="I1540">
+        <v>0.17101449299999999</v>
+      </c>
+      <c r="J1540">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:10">
+      <c r="A1541" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1541" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1541">
+        <v>2021</v>
+      </c>
+      <c r="F1541" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1541" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1541">
+        <v>4</v>
+      </c>
+      <c r="I1541">
+        <v>0.200607903</v>
+      </c>
+      <c r="J1541">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:10">
+      <c r="A1542" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1542" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1542">
+        <v>2021</v>
+      </c>
+      <c r="F1542" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1542" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1542">
+        <v>3</v>
+      </c>
+      <c r="I1542">
+        <v>3.0769231000000001E-2</v>
+      </c>
+      <c r="J1542">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:10">
+      <c r="A1543" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1543" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1543">
+        <v>2021</v>
+      </c>
+      <c r="F1543" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1543" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1543">
+        <v>3</v>
+      </c>
+      <c r="I1543">
+        <v>6.0869565E-2</v>
+      </c>
+      <c r="J1543">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:10">
+      <c r="A1544" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1544" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1544">
+        <v>2021</v>
+      </c>
+      <c r="F1544" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1544" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1544">
+        <v>3</v>
+      </c>
+      <c r="I1544">
+        <v>8.5106382999999994E-2</v>
+      </c>
+      <c r="J1544">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:10">
+      <c r="A1545" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1545" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1545">
+        <v>2021</v>
+      </c>
+      <c r="F1545" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1545" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1545">
+        <v>2</v>
+      </c>
+      <c r="I1545">
+        <v>2.6923077E-2</v>
+      </c>
+      <c r="J1545">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:10">
+      <c r="A1546" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1546" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1546">
+        <v>2021</v>
+      </c>
+      <c r="F1546" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1546" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1546">
+        <v>2</v>
+      </c>
+      <c r="I1546">
+        <v>3.7681158999999999E-2</v>
+      </c>
+      <c r="J1546">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:10">
+      <c r="A1547" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1547" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1547">
+        <v>2021</v>
+      </c>
+      <c r="F1547" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1547" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1547">
+        <v>2</v>
+      </c>
+      <c r="I1547">
+        <v>4.8632218999999997E-2</v>
+      </c>
+      <c r="J1547">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:10">
+      <c r="A1548" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1548" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1548">
+        <v>2021</v>
+      </c>
+      <c r="F1548" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1548" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1548">
+        <v>1</v>
+      </c>
+      <c r="I1548">
+        <v>4.6153845999999998E-2</v>
+      </c>
+      <c r="J1548">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:10">
+      <c r="A1549" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1549" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1549">
+        <v>2021</v>
+      </c>
+      <c r="F1549" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1549" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1549">
+        <v>1</v>
+      </c>
+      <c r="I1549">
+        <v>3.1884058E-2</v>
+      </c>
+      <c r="J1549">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:10">
+      <c r="A1550" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1550" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1550">
+        <v>2021</v>
+      </c>
+      <c r="F1550" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1550" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1550">
+        <v>1</v>
+      </c>
+      <c r="I1550">
+        <v>3.9513678000000003E-2</v>
+      </c>
+      <c r="J1550">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:10">
+      <c r="A1551" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1551" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1551">
+        <v>2021</v>
+      </c>
+      <c r="F1551" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1551" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1551">
+        <v>6</v>
+      </c>
+      <c r="I1551">
+        <v>0.26785714300000002</v>
+      </c>
+      <c r="J1551">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:10">
+      <c r="A1552" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1552" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1552">
+        <v>2021</v>
+      </c>
+      <c r="F1552" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1552" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1552">
+        <v>6</v>
+      </c>
+      <c r="I1552">
+        <v>0.33098591500000002</v>
+      </c>
+      <c r="J1552">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:10">
+      <c r="A1553" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1553" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1553">
+        <v>2021</v>
+      </c>
+      <c r="F1553" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1553" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1553">
+        <v>6</v>
+      </c>
+      <c r="I1553">
+        <v>0.16666666699999999</v>
+      </c>
+      <c r="J1553">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:10">
+      <c r="A1554" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1554" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1554">
+        <v>2021</v>
+      </c>
+      <c r="F1554" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1554" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1554">
+        <v>5</v>
+      </c>
+      <c r="I1554">
+        <v>0.35714285699999998</v>
+      </c>
+      <c r="J1554">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:10">
+      <c r="A1555" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1555" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1555">
+        <v>2021</v>
+      </c>
+      <c r="F1555" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1555" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1555">
+        <v>5</v>
+      </c>
+      <c r="I1555">
+        <v>0.28169014100000001</v>
+      </c>
+      <c r="J1555">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:10">
+      <c r="A1556" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1556" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1556">
+        <v>2021</v>
+      </c>
+      <c r="F1556" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1556" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1556">
+        <v>5</v>
+      </c>
+      <c r="I1556">
+        <v>0.369565217</v>
+      </c>
+      <c r="J1556">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:10">
+      <c r="A1557" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1557" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1557">
+        <v>2021</v>
+      </c>
+      <c r="F1557" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1557" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1557">
+        <v>4</v>
+      </c>
+      <c r="I1557">
+        <v>0.20535714299999999</v>
+      </c>
+      <c r="J1557">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:10">
+      <c r="A1558" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1558" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1558">
+        <v>2021</v>
+      </c>
+      <c r="F1558" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1558" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1558">
+        <v>4</v>
+      </c>
+      <c r="I1558">
+        <v>0.14084506999999999</v>
+      </c>
+      <c r="J1558">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:10">
+      <c r="A1559" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1559" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1559">
+        <v>2021</v>
+      </c>
+      <c r="F1559" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1559" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1559">
+        <v>4</v>
+      </c>
+      <c r="I1559">
+        <v>0.18840579700000001</v>
+      </c>
+      <c r="J1559">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:10">
+      <c r="A1560" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1560" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1560">
+        <v>2021</v>
+      </c>
+      <c r="F1560" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1560" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1560">
+        <v>3</v>
+      </c>
+      <c r="I1560">
+        <v>5.3571428999999997E-2</v>
+      </c>
+      <c r="J1560">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:10">
+      <c r="A1561" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1561" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1561">
+        <v>2021</v>
+      </c>
+      <c r="F1561" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1561" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1561">
+        <v>3</v>
+      </c>
+      <c r="I1561">
+        <v>0.105633803</v>
+      </c>
+      <c r="J1561">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:10">
+      <c r="A1562" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1562" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1562">
+        <v>2021</v>
+      </c>
+      <c r="F1562" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1562" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1562">
+        <v>3</v>
+      </c>
+      <c r="I1562">
+        <v>0.115942029</v>
+      </c>
+      <c r="J1562">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:10">
+      <c r="A1563" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1563" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1563">
+        <v>2021</v>
+      </c>
+      <c r="F1563" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1563" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1563">
+        <v>2</v>
+      </c>
+      <c r="I1563">
+        <v>5.3571428999999997E-2</v>
+      </c>
+      <c r="J1563">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:10">
+      <c r="A1564" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1564" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1564">
+        <v>2021</v>
+      </c>
+      <c r="F1564" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1564" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1564">
+        <v>2</v>
+      </c>
+      <c r="I1564">
+        <v>8.4507042000000004E-2</v>
+      </c>
+      <c r="J1564">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:10">
+      <c r="A1565" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1565" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1565">
+        <v>2021</v>
+      </c>
+      <c r="F1565" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1565" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1565">
+        <v>2</v>
+      </c>
+      <c r="I1565">
+        <v>9.4202899000000007E-2</v>
+      </c>
+      <c r="J1565">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:10">
+      <c r="A1566" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1566" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1566">
+        <v>2021</v>
+      </c>
+      <c r="F1566" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1566" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1566">
+        <v>1</v>
+      </c>
+      <c r="I1566">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J1566">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:10">
+      <c r="A1567" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1567" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1567">
+        <v>2021</v>
+      </c>
+      <c r="F1567" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1567" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1567">
+        <v>1</v>
+      </c>
+      <c r="I1567">
+        <v>5.6338027999999998E-2</v>
+      </c>
+      <c r="J1567">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:10">
+      <c r="A1568" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1568" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1568">
+        <v>2021</v>
+      </c>
+      <c r="F1568" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1568" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1568">
+        <v>1</v>
+      </c>
+      <c r="I1568">
+        <v>6.5217391E-2</v>
+      </c>
+      <c r="J1568">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:10">
+      <c r="A1569" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1569" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1569">
+        <v>2021</v>
+      </c>
+      <c r="F1569" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1569" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1569">
+        <v>6</v>
+      </c>
+      <c r="I1569">
+        <v>0.35450819700000002</v>
+      </c>
+      <c r="J1569">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:10">
+      <c r="A1570" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1570" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1570">
+        <v>2021</v>
+      </c>
+      <c r="F1570" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1570" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1570">
+        <v>6</v>
+      </c>
+      <c r="I1570">
+        <v>0.35147058799999997</v>
+      </c>
+      <c r="J1570">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:10">
+      <c r="A1571" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1571" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1571">
+        <v>2021</v>
+      </c>
+      <c r="F1571" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1571" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1571">
+        <v>6</v>
+      </c>
+      <c r="I1571">
+        <v>0.25830815699999998</v>
+      </c>
+      <c r="J1571">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:10">
+      <c r="A1572" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1572" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1572">
+        <v>2021</v>
+      </c>
+      <c r="F1572" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1572" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1572">
+        <v>5</v>
+      </c>
+      <c r="I1572">
+        <v>0.32377049200000002</v>
+      </c>
+      <c r="J1572">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:10">
+      <c r="A1573" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1573" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1573">
+        <v>2021</v>
+      </c>
+      <c r="F1573" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1573" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1573">
+        <v>5</v>
+      </c>
+      <c r="I1573">
+        <v>0.31470588199999999</v>
+      </c>
+      <c r="J1573">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:10">
+      <c r="A1574" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1574" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1574">
+        <v>2021</v>
+      </c>
+      <c r="F1574" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1574" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1574">
+        <v>5</v>
+      </c>
+      <c r="I1574">
+        <v>0.29003021099999998</v>
+      </c>
+      <c r="J1574">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:10">
+      <c r="A1575" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1575" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1575">
+        <v>2021</v>
+      </c>
+      <c r="F1575" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1575" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1575">
+        <v>4</v>
+      </c>
+      <c r="I1575">
+        <v>0.19877049199999999</v>
+      </c>
+      <c r="J1575">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:10">
+      <c r="A1576" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1576" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1576">
+        <v>2021</v>
+      </c>
+      <c r="F1576" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1576" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1576">
+        <v>4</v>
+      </c>
+      <c r="I1576">
+        <v>0.19264705900000001</v>
+      </c>
+      <c r="J1576">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:10">
+      <c r="A1577" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1577" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1577">
+        <v>2021</v>
+      </c>
+      <c r="F1577" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1577" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1577">
+        <v>4</v>
+      </c>
+      <c r="I1577">
+        <v>0.228096677</v>
+      </c>
+      <c r="J1577">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:10">
+      <c r="A1578" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1578" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1578">
+        <v>2021</v>
+      </c>
+      <c r="F1578" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1578" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1578">
+        <v>3</v>
+      </c>
+      <c r="I1578">
+        <v>5.1229508E-2</v>
+      </c>
+      <c r="J1578">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:10">
+      <c r="A1579" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1579" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1579">
+        <v>2021</v>
+      </c>
+      <c r="F1579" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1579" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1579">
+        <v>3</v>
+      </c>
+      <c r="I1579">
+        <v>6.3235293999999997E-2</v>
+      </c>
+      <c r="J1579">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:10">
+      <c r="A1580" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1580" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1580">
+        <v>2021</v>
+      </c>
+      <c r="F1580" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1580" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1580">
+        <v>3</v>
+      </c>
+      <c r="I1580">
+        <v>0.11178247700000001</v>
+      </c>
+      <c r="J1580">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:10">
+      <c r="A1581" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1581" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1581">
+        <v>2021</v>
+      </c>
+      <c r="F1581" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1581" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1581">
+        <v>2</v>
+      </c>
+      <c r="I1581">
+        <v>3.0737705000000001E-2</v>
+      </c>
+      <c r="J1581">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:10">
+      <c r="A1582" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1582" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1582">
+        <v>2021</v>
+      </c>
+      <c r="F1582" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1582" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1582">
+        <v>2</v>
+      </c>
+      <c r="I1582">
+        <v>3.6764706000000001E-2</v>
+      </c>
+      <c r="J1582">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:10">
+      <c r="A1583" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1583" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1583">
+        <v>2021</v>
+      </c>
+      <c r="F1583" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1583" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1583">
+        <v>2</v>
+      </c>
+      <c r="I1583">
+        <v>6.6465257E-2</v>
+      </c>
+      <c r="J1583">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:10">
+      <c r="A1584" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1584" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1584">
+        <v>2021</v>
+      </c>
+      <c r="F1584" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1584" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1584">
+        <v>1</v>
+      </c>
+      <c r="I1584">
+        <v>4.0983606999999998E-2</v>
+      </c>
+      <c r="J1584">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:10">
+      <c r="A1585" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1585" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1585">
+        <v>2021</v>
+      </c>
+      <c r="F1585" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1585" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1585">
+        <v>1</v>
+      </c>
+      <c r="I1585">
+        <v>4.1176470999999999E-2</v>
+      </c>
+      <c r="J1585">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:10">
+      <c r="A1586" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1586" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1586">
+        <v>2021</v>
+      </c>
+      <c r="F1586" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1586" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1586">
+        <v>1</v>
+      </c>
+      <c r="I1586">
+        <v>4.5317220999999998E-2</v>
+      </c>
+      <c r="J1586">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:10">
+      <c r="A1587" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1587" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1587">
+        <v>2021</v>
+      </c>
+      <c r="F1587" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1587" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1587">
+        <v>6</v>
+      </c>
+      <c r="I1587">
+        <v>0.33870967699999999</v>
+      </c>
+      <c r="J1587">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:10">
+      <c r="A1588" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1588" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1588">
+        <v>2021</v>
+      </c>
+      <c r="F1588" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1588" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1588">
+        <v>6</v>
+      </c>
+      <c r="I1588">
+        <v>0.37264957300000001</v>
+      </c>
+      <c r="J1588">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:10">
+      <c r="A1589" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1589" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1589">
+        <v>2021</v>
+      </c>
+      <c r="F1589" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1589" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1589">
+        <v>6</v>
+      </c>
+      <c r="I1589">
+        <v>0.234347048</v>
+      </c>
+      <c r="J1589">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:10">
+      <c r="A1590" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1590" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1590">
+        <v>2021</v>
+      </c>
+      <c r="F1590" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1590" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1590">
+        <v>5</v>
+      </c>
+      <c r="I1590">
+        <v>0.33870967699999999</v>
+      </c>
+      <c r="J1590">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:10">
+      <c r="A1591" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1591" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1591">
+        <v>2021</v>
+      </c>
+      <c r="F1591" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1591" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1591">
+        <v>5</v>
+      </c>
+      <c r="I1591">
+        <v>0.30769230800000003</v>
+      </c>
+      <c r="J1591">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:10">
+      <c r="A1592" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1592" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1592">
+        <v>2021</v>
+      </c>
+      <c r="F1592" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1592" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1592">
+        <v>5</v>
+      </c>
+      <c r="I1592">
+        <v>0.28980321999999997</v>
+      </c>
+      <c r="J1592">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:10">
+      <c r="A1593" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1593" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1593">
+        <v>2021</v>
+      </c>
+      <c r="F1593" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1593" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1593">
+        <v>4</v>
+      </c>
+      <c r="I1593">
+        <v>0.19354838699999999</v>
+      </c>
+      <c r="J1593">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:10">
+      <c r="A1594" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1594" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1594">
+        <v>2021</v>
+      </c>
+      <c r="F1594" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1594" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1594">
+        <v>4</v>
+      </c>
+      <c r="I1594">
+        <v>0.16068376100000001</v>
+      </c>
+      <c r="J1594">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:10">
+      <c r="A1595" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1595" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1595">
+        <v>2021</v>
+      </c>
+      <c r="F1595" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1595" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1595">
+        <v>4</v>
+      </c>
+      <c r="I1595">
+        <v>0.216457961</v>
+      </c>
+      <c r="J1595">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:10">
+      <c r="A1596" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1596" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1596">
+        <v>2021</v>
+      </c>
+      <c r="F1596" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1596" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1596">
+        <v>3</v>
+      </c>
+      <c r="I1596">
+        <v>5.8467742000000003E-2</v>
+      </c>
+      <c r="J1596">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:10">
+      <c r="A1597" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1597" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1597">
+        <v>2021</v>
+      </c>
+      <c r="F1597" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1597" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1597">
+        <v>3</v>
+      </c>
+      <c r="I1597">
+        <v>7.6923077000000006E-2</v>
+      </c>
+      <c r="J1597">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:10">
+      <c r="A1598" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1598" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1598">
+        <v>2021</v>
+      </c>
+      <c r="F1598" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1598" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1598">
+        <v>3</v>
+      </c>
+      <c r="I1598">
+        <v>0.132379249</v>
+      </c>
+      <c r="J1598">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:10">
+      <c r="A1599" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1599" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1599">
+        <v>2021</v>
+      </c>
+      <c r="F1599" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1599" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1599">
+        <v>2</v>
+      </c>
+      <c r="I1599">
+        <v>3.8306451999999998E-2</v>
+      </c>
+      <c r="J1599">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:10">
+      <c r="A1600" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1600" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1600">
+        <v>2021</v>
+      </c>
+      <c r="F1600" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1600" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1600">
+        <v>2</v>
+      </c>
+      <c r="I1600">
+        <v>4.6153845999999998E-2</v>
+      </c>
+      <c r="J1600">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:10">
+      <c r="A1601" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1601" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1601">
+        <v>2021</v>
+      </c>
+      <c r="F1601" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1601" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1601">
+        <v>2</v>
+      </c>
+      <c r="I1601">
+        <v>7.6923077000000006E-2</v>
+      </c>
+      <c r="J1601">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:10">
+      <c r="A1602" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1602" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1602">
+        <v>2021</v>
+      </c>
+      <c r="F1602" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1602" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1602">
+        <v>1</v>
+      </c>
+      <c r="I1602">
+        <v>3.2258065000000002E-2</v>
+      </c>
+      <c r="J1602">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:10">
+      <c r="A1603" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1603" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1603">
+        <v>2021</v>
+      </c>
+      <c r="F1603" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1603" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1603">
+        <v>1</v>
+      </c>
+      <c r="I1603">
+        <v>3.5897435999999998E-2</v>
+      </c>
+      <c r="J1603">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:10">
+      <c r="A1604" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1604" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1604" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1604">
+        <v>2021</v>
+      </c>
+      <c r="F1604" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1604" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1604">
+        <v>1</v>
+      </c>
+      <c r="I1604">
+        <v>5.0089445000000003E-2</v>
+      </c>
+      <c r="J1604">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:10">
+      <c r="A1605" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1605" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1605" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1605">
+        <v>2021</v>
+      </c>
+      <c r="F1605" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1605" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1605">
+        <v>6</v>
+      </c>
+      <c r="I1605">
+        <v>0.33064516100000002</v>
+      </c>
+      <c r="J1605">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:10">
+      <c r="A1606" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1606" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1606" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1606">
+        <v>2021</v>
+      </c>
+      <c r="F1606" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1606" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1606">
+        <v>6</v>
+      </c>
+      <c r="I1606">
+        <v>0.29468599000000001</v>
+      </c>
+      <c r="J1606">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:10">
+      <c r="A1607" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1607" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1607" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1607">
+        <v>2021</v>
+      </c>
+      <c r="F1607" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1607" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1607">
+        <v>6</v>
+      </c>
+      <c r="I1607">
+        <v>0.214634146</v>
+      </c>
+      <c r="J1607">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:10">
+      <c r="A1608" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1608" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1608" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1608">
+        <v>2021</v>
+      </c>
+      <c r="F1608" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1608" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1608">
+        <v>5</v>
+      </c>
+      <c r="I1608">
+        <v>0.29032258100000002</v>
+      </c>
+      <c r="J1608">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:10">
+      <c r="A1609" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1609" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1609" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1609">
+        <v>2021</v>
+      </c>
+      <c r="F1609" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1609" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1609">
+        <v>5</v>
+      </c>
+      <c r="I1609">
+        <v>0.323671498</v>
+      </c>
+      <c r="J1609">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:10">
+      <c r="A1610" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1610" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1610" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1610">
+        <v>2021</v>
+      </c>
+      <c r="F1610" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1610" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1610">
+        <v>5</v>
+      </c>
+      <c r="I1610">
+        <v>0.38048780500000001</v>
+      </c>
+      <c r="J1610">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:10">
+      <c r="A1611" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1611" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1611" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1611">
+        <v>2021</v>
+      </c>
+      <c r="F1611" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1611" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1611">
+        <v>4</v>
+      </c>
+      <c r="I1611">
+        <v>0.209677419</v>
+      </c>
+      <c r="J1611">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:10">
+      <c r="A1612" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1612" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1612">
+        <v>2021</v>
+      </c>
+      <c r="F1612" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1612" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1612">
+        <v>4</v>
+      </c>
+      <c r="I1612">
+        <v>0.21256038599999999</v>
+      </c>
+      <c r="J1612">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:10">
+      <c r="A1613" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1613" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1613" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1613">
+        <v>2021</v>
+      </c>
+      <c r="F1613" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1613" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1613">
+        <v>4</v>
+      </c>
+      <c r="I1613">
+        <v>0.209756098</v>
+      </c>
+      <c r="J1613">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:10">
+      <c r="A1614" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1614" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1614" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1614">
+        <v>2021</v>
+      </c>
+      <c r="F1614" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1614" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1614">
+        <v>3</v>
+      </c>
+      <c r="I1614">
+        <v>7.2580644999999999E-2</v>
+      </c>
+      <c r="J1614">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:10">
+      <c r="A1615" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1615" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1615" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1615">
+        <v>2021</v>
+      </c>
+      <c r="F1615" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1615" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1615">
+        <v>3</v>
+      </c>
+      <c r="I1615">
+        <v>7.7294686000000001E-2</v>
+      </c>
+      <c r="J1615">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:10">
+      <c r="A1616" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1616" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1616" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1616">
+        <v>2021</v>
+      </c>
+      <c r="F1616" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1616" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1616">
+        <v>3</v>
+      </c>
+      <c r="I1616">
+        <v>8.2926828999999994E-2</v>
+      </c>
+      <c r="J1616">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:10">
+      <c r="A1617" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1617" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1617" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1617">
+        <v>2021</v>
+      </c>
+      <c r="F1617" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1617" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1617">
+        <v>2</v>
+      </c>
+      <c r="I1617">
+        <v>2.4193547999999999E-2</v>
+      </c>
+      <c r="J1617">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:10">
+      <c r="A1618" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1618" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1618" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1618">
+        <v>2021</v>
+      </c>
+      <c r="F1618" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1618" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1618">
+        <v>2</v>
+      </c>
+      <c r="I1618">
+        <v>4.3478260999999997E-2</v>
+      </c>
+      <c r="J1618">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:10">
+      <c r="A1619" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1619" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1619" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1619">
+        <v>2021</v>
+      </c>
+      <c r="F1619" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1619" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1619">
+        <v>2</v>
+      </c>
+      <c r="I1619">
+        <v>7.8048779999999998E-2</v>
+      </c>
+      <c r="J1619">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:10">
+      <c r="A1620" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1620" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1620" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1620">
+        <v>2021</v>
+      </c>
+      <c r="F1620" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1620" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1620">
+        <v>1</v>
+      </c>
+      <c r="I1620">
+        <v>7.2580644999999999E-2</v>
+      </c>
+      <c r="J1620">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:10">
+      <c r="A1621" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1621" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1621" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1621">
+        <v>2021</v>
+      </c>
+      <c r="F1621" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1621" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1621">
+        <v>1</v>
+      </c>
+      <c r="I1621">
+        <v>4.8309179000000001E-2</v>
+      </c>
+      <c r="J1621">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:10">
+      <c r="A1622" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1622" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1622" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1622">
+        <v>2021</v>
+      </c>
+      <c r="F1622" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1622" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1622">
+        <v>1</v>
+      </c>
+      <c r="I1622">
+        <v>3.4146340999999997E-2</v>
+      </c>
+      <c r="J1622">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:10">
+      <c r="A1623" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1623" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1623" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1623">
+        <v>2021</v>
+      </c>
+      <c r="F1623" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1623" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1623">
+        <v>6</v>
+      </c>
+      <c r="I1623">
+        <v>0.42</v>
+      </c>
+      <c r="J1623">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:10">
+      <c r="A1624" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1624" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1624" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1624">
+        <v>2021</v>
+      </c>
+      <c r="F1624" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1624" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1624">
+        <v>6</v>
+      </c>
+      <c r="I1624">
+        <v>0.30909090900000002</v>
+      </c>
+      <c r="J1624">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:10">
+      <c r="A1625" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1625" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1625" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1625">
+        <v>2021</v>
+      </c>
+      <c r="F1625" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1625" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1625">
+        <v>6</v>
+      </c>
+      <c r="I1625">
+        <v>0.32743362799999998</v>
+      </c>
+      <c r="J1625">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:10">
+      <c r="A1626" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1626" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1626" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1626">
+        <v>2021</v>
+      </c>
+      <c r="F1626" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1626" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1626">
+        <v>5</v>
+      </c>
+      <c r="I1626">
+        <v>0.32</v>
+      </c>
+      <c r="J1626">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:10">
+      <c r="A1627" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1627" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1627" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1627">
+        <v>2021</v>
+      </c>
+      <c r="F1627" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1627" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1627">
+        <v>5</v>
+      </c>
+      <c r="I1627">
+        <v>0.26363636400000001</v>
+      </c>
+      <c r="J1627">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:10">
+      <c r="A1628" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1628" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1628">
+        <v>2021</v>
+      </c>
+      <c r="F1628" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1628" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1628">
+        <v>5</v>
+      </c>
+      <c r="I1628">
+        <v>0.25663716800000003</v>
+      </c>
+      <c r="J1628">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:10">
+      <c r="A1629" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1629" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1629">
+        <v>2021</v>
+      </c>
+      <c r="F1629" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1629" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1629">
+        <v>4</v>
+      </c>
+      <c r="I1629">
+        <v>0.16</v>
+      </c>
+      <c r="J1629">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:10">
+      <c r="A1630" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1630" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1630">
+        <v>2021</v>
+      </c>
+      <c r="F1630" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1630" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1630">
+        <v>4</v>
+      </c>
+      <c r="I1630">
+        <v>0.22727272700000001</v>
+      </c>
+      <c r="J1630">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:10">
+      <c r="A1631" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1631" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1631">
+        <v>2021</v>
+      </c>
+      <c r="F1631" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1631" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1631">
+        <v>4</v>
+      </c>
+      <c r="I1631">
+        <v>0.230088496</v>
+      </c>
+      <c r="J1631">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:10">
+      <c r="A1632" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1632" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1632">
+        <v>2021</v>
+      </c>
+      <c r="F1632" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1632" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1632">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:10">
+      <c r="A1633" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1633" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1633">
+        <v>2021</v>
+      </c>
+      <c r="F1633" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1633" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1633">
+        <v>3</v>
+      </c>
+      <c r="I1633">
+        <v>0.109090909</v>
+      </c>
+      <c r="J1633">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:10">
+      <c r="A1634" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1634" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1634">
+        <v>2021</v>
+      </c>
+      <c r="F1634" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1634" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1634">
+        <v>3</v>
+      </c>
+      <c r="I1634">
+        <v>7.9646017999999999E-2</v>
+      </c>
+      <c r="J1634">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:10">
+      <c r="A1635" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1635" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1635">
+        <v>2021</v>
+      </c>
+      <c r="F1635" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1635" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1635">
+        <v>2</v>
+      </c>
+      <c r="I1635">
+        <v>0.04</v>
+      </c>
+      <c r="J1635">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:10">
+      <c r="A1636" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1636" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1636">
+        <v>2021</v>
+      </c>
+      <c r="F1636" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1636" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1636">
+        <v>2</v>
+      </c>
+      <c r="I1636">
+        <v>3.6363635999999998E-2</v>
+      </c>
+      <c r="J1636">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:10">
+      <c r="A1637" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1637" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1637">
+        <v>2021</v>
+      </c>
+      <c r="F1637" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1637" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1637">
+        <v>2</v>
+      </c>
+      <c r="I1637">
+        <v>5.3097344999999997E-2</v>
+      </c>
+      <c r="J1637">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:10">
+      <c r="A1638" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1638" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1638">
+        <v>2021</v>
+      </c>
+      <c r="F1638" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1638" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1638">
+        <v>1</v>
+      </c>
+      <c r="I1638">
+        <v>0.06</v>
+      </c>
+      <c r="J1638">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:10">
+      <c r="A1639" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1639" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1639">
+        <v>2021</v>
+      </c>
+      <c r="F1639" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1639" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1639">
+        <v>1</v>
+      </c>
+      <c r="I1639">
+        <v>5.4545455E-2</v>
+      </c>
+      <c r="J1639">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:10">
+      <c r="A1640" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1640" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1640">
+        <v>2021</v>
+      </c>
+      <c r="F1640" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1640" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1640">
+        <v>1</v>
+      </c>
+      <c r="I1640">
+        <v>5.3097344999999997E-2</v>
+      </c>
+      <c r="J1640">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:J1640" xr:uid="{D1E9CEE1-CF8E-498D-873A-AA06707249A5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J626">
     <sortCondition ref="A2:A626"/>
   </sortState>

--- a/data/UCGSES.xlsx
+++ b/data/UCGSES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanolan\OneDrive\IR_Folder\UCSD_Gaps_Quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A439661B-23F8-40D3-A10B-A9D93CABA0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFA0F63-897B-4CF6-BAE9-3BC0C8F2CB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61FCD85B-1D55-4F53-8AAE-887E8D8E82D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9844" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9934" uniqueCount="75">
   <si>
     <t>q</t>
   </si>
@@ -262,6 +262,9 @@
   <si>
     <t>the career support I receive in my program</t>
   </si>
+  <si>
+    <t>Graduate Professional</t>
+  </si>
 </sst>
 </file>
 
@@ -317,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -336,6 +339,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -645,7 +651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -653,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E9CEE1-CF8E-498D-873A-AA06707249A5}">
-  <dimension ref="A1:P1640"/>
+  <dimension ref="A1:P1655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1563" workbookViewId="0">
-      <selection activeCell="D1639" sqref="D1587:D1639"/>
+    <sheetView tabSelected="1" topLeftCell="A1637" workbookViewId="0">
+      <selection activeCell="I1656" sqref="I1656"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -53001,6 +53007,486 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1641" spans="1:10">
+      <c r="A1641" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1641" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1641">
+        <v>2021</v>
+      </c>
+      <c r="F1641" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1641" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1641">
+        <v>3</v>
+      </c>
+      <c r="I1641">
+        <v>0.72</v>
+      </c>
+      <c r="J1641">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:10">
+      <c r="A1642" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1642" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1642">
+        <v>2021</v>
+      </c>
+      <c r="F1642" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1642" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1642">
+        <v>2</v>
+      </c>
+      <c r="I1642">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J1642">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:10">
+      <c r="A1643" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1643" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1643">
+        <v>2021</v>
+      </c>
+      <c r="F1643" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1643" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1643">
+        <v>1</v>
+      </c>
+      <c r="I1643">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J1643">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:10">
+      <c r="A1644" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1644" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1644">
+        <v>2021</v>
+      </c>
+      <c r="F1644" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1644" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1644">
+        <v>3</v>
+      </c>
+      <c r="I1644">
+        <v>0.81</v>
+      </c>
+      <c r="J1644">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:10">
+      <c r="A1645" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1645" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1645">
+        <v>2021</v>
+      </c>
+      <c r="F1645" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1645" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1645">
+        <v>2</v>
+      </c>
+      <c r="I1645">
+        <v>0.11</v>
+      </c>
+      <c r="J1645">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:10">
+      <c r="A1646" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1646" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1646">
+        <v>2021</v>
+      </c>
+      <c r="F1646" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1646" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1646">
+        <v>1</v>
+      </c>
+      <c r="I1646">
+        <v>0.08</v>
+      </c>
+      <c r="J1646">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:10">
+      <c r="A1647" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1647" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1647">
+        <v>2021</v>
+      </c>
+      <c r="F1647" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1647" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1647">
+        <v>3</v>
+      </c>
+      <c r="I1647">
+        <v>0.77</v>
+      </c>
+      <c r="J1647">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:10">
+      <c r="A1648" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1648" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1648">
+        <v>2021</v>
+      </c>
+      <c r="F1648" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1648" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1648">
+        <v>2</v>
+      </c>
+      <c r="I1648">
+        <v>0.12</v>
+      </c>
+      <c r="J1648">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:10">
+      <c r="A1649" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1649" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1649">
+        <v>2021</v>
+      </c>
+      <c r="F1649" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1649" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1649">
+        <v>1</v>
+      </c>
+      <c r="I1649">
+        <v>0.1</v>
+      </c>
+      <c r="J1649">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:10">
+      <c r="A1650" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1650" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1650">
+        <v>2021</v>
+      </c>
+      <c r="F1650" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1650" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1650">
+        <v>3</v>
+      </c>
+      <c r="I1650">
+        <v>0.81</v>
+      </c>
+      <c r="J1650">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:10">
+      <c r="A1651" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1651" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1651">
+        <v>2021</v>
+      </c>
+      <c r="F1651" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1651" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1651">
+        <v>2</v>
+      </c>
+      <c r="I1651">
+        <v>0.11</v>
+      </c>
+      <c r="J1651">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:10">
+      <c r="A1652" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1652" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1652">
+        <v>2021</v>
+      </c>
+      <c r="F1652" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1652" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1652">
+        <v>1</v>
+      </c>
+      <c r="I1652">
+        <v>0.08</v>
+      </c>
+      <c r="J1652">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:10">
+      <c r="A1653" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1653" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1653">
+        <v>2021</v>
+      </c>
+      <c r="F1653" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1653" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1653">
+        <v>3</v>
+      </c>
+      <c r="I1653">
+        <v>0.81</v>
+      </c>
+      <c r="J1653">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:10">
+      <c r="A1654" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1654" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1654">
+        <v>2021</v>
+      </c>
+      <c r="F1654" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1654" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1654">
+        <v>2</v>
+      </c>
+      <c r="I1654">
+        <v>0.1</v>
+      </c>
+      <c r="J1654">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:10">
+      <c r="A1655" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1655" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1655">
+        <v>2021</v>
+      </c>
+      <c r="F1655" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1655" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1655">
+        <v>1</v>
+      </c>
+      <c r="I1655">
+        <v>0.09</v>
+      </c>
+      <c r="J1655">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1640" xr:uid="{D1E9CEE1-CF8E-498D-873A-AA06707249A5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J626">

--- a/data/UCGSES.xlsx
+++ b/data/UCGSES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanolan\OneDrive\IR_Folder\UCSD_Gaps_Quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFA0F63-897B-4CF6-BAE9-3BC0C8F2CB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC584369-D176-4FAA-979D-80D977EAB675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{61FCD85B-1D55-4F53-8AAE-887E8D8E82D6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9934" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10708" uniqueCount="76">
   <si>
     <t>q</t>
   </si>
@@ -265,6 +265,9 @@
   <si>
     <t>Graduate Professional</t>
   </si>
+  <si>
+    <t>Professional Practice</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -339,9 +342,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -659,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E9CEE1-CF8E-498D-873A-AA06707249A5}">
-  <dimension ref="A1:P1655"/>
+  <dimension ref="A1:P1784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1637" workbookViewId="0">
-      <selection activeCell="I1656" sqref="I1656"/>
+    <sheetView tabSelected="1" topLeftCell="A1766" workbookViewId="0">
+      <selection activeCell="D1785" sqref="D1785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -53206,7 +53206,7 @@
       <c r="B1647" t="s">
         <v>33</v>
       </c>
-      <c r="C1647" s="8" t="s">
+      <c r="C1647" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D1647" t="s">
@@ -53238,7 +53238,7 @@
       <c r="B1648" t="s">
         <v>33</v>
       </c>
-      <c r="C1648" s="8" t="s">
+      <c r="C1648" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D1648" t="s">
@@ -53263,14 +53263,14 @@
         <v>69</v>
       </c>
     </row>
-    <row r="1649" spans="1:10">
+    <row r="1649" spans="1:13">
       <c r="A1649" t="s">
         <v>34</v>
       </c>
       <c r="B1649" t="s">
         <v>33</v>
       </c>
-      <c r="C1649" s="8" t="s">
+      <c r="C1649" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D1649" t="s">
@@ -53295,14 +53295,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="1650" spans="1:10">
+    <row r="1650" spans="1:13">
       <c r="A1650" t="s">
         <v>34</v>
       </c>
       <c r="B1650" t="s">
         <v>33</v>
       </c>
-      <c r="C1650" s="8" t="s">
+      <c r="C1650" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D1650" t="s">
@@ -53327,14 +53327,14 @@
         <v>158</v>
       </c>
     </row>
-    <row r="1651" spans="1:10">
+    <row r="1651" spans="1:13">
       <c r="A1651" t="s">
         <v>34</v>
       </c>
       <c r="B1651" t="s">
         <v>33</v>
       </c>
-      <c r="C1651" s="8" t="s">
+      <c r="C1651" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D1651" t="s">
@@ -53359,14 +53359,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1652" spans="1:10">
+    <row r="1652" spans="1:13">
       <c r="A1652" t="s">
         <v>34</v>
       </c>
       <c r="B1652" t="s">
         <v>33</v>
       </c>
-      <c r="C1652" s="8" t="s">
+      <c r="C1652" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D1652" t="s">
@@ -53391,14 +53391,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1653" spans="1:10">
+    <row r="1653" spans="1:13">
       <c r="A1653" t="s">
         <v>34</v>
       </c>
       <c r="B1653" t="s">
         <v>33</v>
       </c>
-      <c r="C1653" s="8" t="s">
+      <c r="C1653" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D1653" t="s">
@@ -53423,14 +53423,14 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1654" spans="1:10">
+    <row r="1654" spans="1:13">
       <c r="A1654" t="s">
         <v>34</v>
       </c>
       <c r="B1654" t="s">
         <v>33</v>
       </c>
-      <c r="C1654" s="8" t="s">
+      <c r="C1654" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D1654" t="s">
@@ -53455,14 +53455,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1655" spans="1:10">
+    <row r="1655" spans="1:13">
       <c r="A1655" t="s">
         <v>34</v>
       </c>
       <c r="B1655" t="s">
         <v>33</v>
       </c>
-      <c r="C1655" s="8" t="s">
+      <c r="C1655" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D1655" t="s">
@@ -53485,6 +53485,3966 @@
       </c>
       <c r="J1655">
         <v>7</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:13">
+      <c r="A1656" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1656" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1656">
+        <v>2021</v>
+      </c>
+      <c r="F1656" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1656" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1656">
+        <v>6</v>
+      </c>
+      <c r="I1656">
+        <v>0.16129032300000001</v>
+      </c>
+      <c r="J1656">
+        <v>5</v>
+      </c>
+      <c r="M1656" s="7"/>
+    </row>
+    <row r="1657" spans="1:13">
+      <c r="A1657" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1657" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1657">
+        <v>2021</v>
+      </c>
+      <c r="F1657" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1657" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1657">
+        <v>6</v>
+      </c>
+      <c r="I1657">
+        <v>0.16129032300000001</v>
+      </c>
+      <c r="J1657">
+        <v>5</v>
+      </c>
+      <c r="M1657" s="7"/>
+    </row>
+    <row r="1658" spans="1:13">
+      <c r="A1658" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1658" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1658">
+        <v>2021</v>
+      </c>
+      <c r="F1658" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1658" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1658">
+        <v>6</v>
+      </c>
+      <c r="I1658">
+        <v>0.16129032300000001</v>
+      </c>
+      <c r="J1658">
+        <v>5</v>
+      </c>
+      <c r="M1658" s="7"/>
+    </row>
+    <row r="1659" spans="1:13">
+      <c r="A1659" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1659" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1659">
+        <v>2021</v>
+      </c>
+      <c r="F1659" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1659" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1659">
+        <v>6</v>
+      </c>
+      <c r="M1659" s="7"/>
+    </row>
+    <row r="1660" spans="1:13">
+      <c r="A1660" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1660" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1660">
+        <v>2021</v>
+      </c>
+      <c r="F1660" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1660" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1660">
+        <v>5</v>
+      </c>
+      <c r="I1660">
+        <v>0.19354838699999999</v>
+      </c>
+      <c r="J1660">
+        <v>6</v>
+      </c>
+      <c r="M1660" s="7"/>
+    </row>
+    <row r="1661" spans="1:13">
+      <c r="A1661" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1661" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1661">
+        <v>2021</v>
+      </c>
+      <c r="F1661" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1661" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1661">
+        <v>5</v>
+      </c>
+      <c r="I1661">
+        <v>0.22580645199999999</v>
+      </c>
+      <c r="J1661">
+        <v>7</v>
+      </c>
+      <c r="M1661" s="7"/>
+    </row>
+    <row r="1662" spans="1:13">
+      <c r="A1662" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1662" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1662">
+        <v>2021</v>
+      </c>
+      <c r="F1662" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1662" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1662">
+        <v>5</v>
+      </c>
+      <c r="I1662">
+        <v>0.16129032300000001</v>
+      </c>
+      <c r="J1662">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:13">
+      <c r="A1663" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1663" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1663">
+        <v>2021</v>
+      </c>
+      <c r="F1663" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1663" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1663">
+        <v>5</v>
+      </c>
+      <c r="I1663">
+        <v>0.19354838699999999</v>
+      </c>
+      <c r="J1663">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:13">
+      <c r="A1664" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1664" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1664">
+        <v>2021</v>
+      </c>
+      <c r="F1664" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1664" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1664">
+        <v>4</v>
+      </c>
+      <c r="I1664">
+        <v>0.29032258100000002</v>
+      </c>
+      <c r="J1664">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:10">
+      <c r="A1665" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1665" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1665">
+        <v>2021</v>
+      </c>
+      <c r="F1665" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1665" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1665">
+        <v>4</v>
+      </c>
+      <c r="I1665">
+        <v>0.29032258100000002</v>
+      </c>
+      <c r="J1665">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:10">
+      <c r="A1666" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1666" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1666">
+        <v>2021</v>
+      </c>
+      <c r="F1666" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1666" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1666">
+        <v>4</v>
+      </c>
+      <c r="I1666">
+        <v>0.35483871</v>
+      </c>
+      <c r="J1666">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:10">
+      <c r="A1667" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1667" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1667">
+        <v>2021</v>
+      </c>
+      <c r="F1667" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1667" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1667">
+        <v>4</v>
+      </c>
+      <c r="I1667">
+        <v>0.19354838699999999</v>
+      </c>
+      <c r="J1667">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:10">
+      <c r="A1668" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1668" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1668">
+        <v>2021</v>
+      </c>
+      <c r="F1668" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1668" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1668">
+        <v>3</v>
+      </c>
+      <c r="I1668">
+        <v>0.16129032300000001</v>
+      </c>
+      <c r="J1668">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:10">
+      <c r="A1669" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1669" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1669">
+        <v>2021</v>
+      </c>
+      <c r="F1669" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1669" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1669">
+        <v>3</v>
+      </c>
+      <c r="I1669">
+        <v>0.16129032300000001</v>
+      </c>
+      <c r="J1669">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:10">
+      <c r="A1670" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1670" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1670" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1670">
+        <v>2021</v>
+      </c>
+      <c r="F1670" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1670" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1670">
+        <v>3</v>
+      </c>
+      <c r="I1670">
+        <v>0.12903225800000001</v>
+      </c>
+      <c r="J1670">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:10">
+      <c r="A1671" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1671" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1671">
+        <v>2021</v>
+      </c>
+      <c r="F1671" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1671" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1671">
+        <v>3</v>
+      </c>
+      <c r="I1671">
+        <v>0.22580645199999999</v>
+      </c>
+      <c r="J1671">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:10">
+      <c r="A1672" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1672" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1672">
+        <v>2021</v>
+      </c>
+      <c r="F1672" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1672" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1672">
+        <v>2</v>
+      </c>
+      <c r="I1672">
+        <v>0.12903225800000001</v>
+      </c>
+      <c r="J1672">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:10">
+      <c r="A1673" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1673" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1673">
+        <v>2021</v>
+      </c>
+      <c r="F1673" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1673" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1673">
+        <v>2</v>
+      </c>
+      <c r="I1673">
+        <v>0.16129032300000001</v>
+      </c>
+      <c r="J1673">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:10">
+      <c r="A1674" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1674" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1674">
+        <v>2021</v>
+      </c>
+      <c r="F1674" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1674" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1674">
+        <v>2</v>
+      </c>
+      <c r="I1674">
+        <v>0.16129032300000001</v>
+      </c>
+      <c r="J1674">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:10">
+      <c r="A1675" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1675" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1675">
+        <v>2021</v>
+      </c>
+      <c r="F1675" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1675" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1675">
+        <v>2</v>
+      </c>
+      <c r="I1675">
+        <v>0.19354838699999999</v>
+      </c>
+      <c r="J1675">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:10">
+      <c r="A1676" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1676" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1676">
+        <v>2021</v>
+      </c>
+      <c r="F1676" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1676" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1676">
+        <v>1</v>
+      </c>
+      <c r="I1676">
+        <v>6.4516129000000005E-2</v>
+      </c>
+      <c r="J1676">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:10">
+      <c r="A1677" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1677" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1677">
+        <v>2021</v>
+      </c>
+      <c r="F1677" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1677" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:10">
+      <c r="A1678" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1678" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1678">
+        <v>2021</v>
+      </c>
+      <c r="F1678" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1678" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1678">
+        <v>1</v>
+      </c>
+      <c r="I1678">
+        <v>3.2258065000000002E-2</v>
+      </c>
+      <c r="J1678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:10">
+      <c r="A1679" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1679" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1679">
+        <v>2021</v>
+      </c>
+      <c r="F1679" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1679" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1679">
+        <v>1</v>
+      </c>
+      <c r="I1679">
+        <v>0.19354838699999999</v>
+      </c>
+      <c r="J1679">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:10">
+      <c r="A1680" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1680" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1680">
+        <v>2021</v>
+      </c>
+      <c r="F1680" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1680" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1680">
+        <v>6</v>
+      </c>
+      <c r="I1680">
+        <v>0.4</v>
+      </c>
+      <c r="J1680">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:10">
+      <c r="A1681" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1681" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1681">
+        <v>2021</v>
+      </c>
+      <c r="F1681" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1681" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1681">
+        <v>6</v>
+      </c>
+      <c r="I1681">
+        <v>0.46875</v>
+      </c>
+      <c r="J1681">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:10">
+      <c r="A1682" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1682" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1682">
+        <v>2021</v>
+      </c>
+      <c r="F1682" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1682" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1682">
+        <v>6</v>
+      </c>
+      <c r="I1682">
+        <v>0.52777777800000003</v>
+      </c>
+      <c r="J1682">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:10">
+      <c r="A1683" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1683" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1683">
+        <v>2021</v>
+      </c>
+      <c r="F1683" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1683" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1683">
+        <v>6</v>
+      </c>
+      <c r="I1683">
+        <v>0.484848485</v>
+      </c>
+      <c r="J1683">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:10">
+      <c r="A1684" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1684" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1684">
+        <v>2021</v>
+      </c>
+      <c r="F1684" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1684" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1684">
+        <v>6</v>
+      </c>
+      <c r="I1684">
+        <v>0.52941176499999998</v>
+      </c>
+      <c r="J1684">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:10">
+      <c r="A1685" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1685" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1685">
+        <v>2021</v>
+      </c>
+      <c r="F1685" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1685" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1685">
+        <v>6</v>
+      </c>
+      <c r="I1685">
+        <v>0.485714286</v>
+      </c>
+      <c r="J1685">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:10">
+      <c r="A1686" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1686" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1686">
+        <v>2021</v>
+      </c>
+      <c r="F1686" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1686" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1686">
+        <v>6</v>
+      </c>
+      <c r="I1686">
+        <v>0.45714285700000001</v>
+      </c>
+      <c r="J1686">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:10">
+      <c r="A1687" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1687" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1687">
+        <v>2021</v>
+      </c>
+      <c r="F1687" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1687" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1687">
+        <v>6</v>
+      </c>
+      <c r="I1687">
+        <v>0.321428571</v>
+      </c>
+      <c r="J1687">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:10">
+      <c r="A1688" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1688" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1688">
+        <v>2021</v>
+      </c>
+      <c r="F1688" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1688" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1688">
+        <v>6</v>
+      </c>
+      <c r="I1688">
+        <v>0.57575757599999999</v>
+      </c>
+      <c r="J1688">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:10">
+      <c r="A1689" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1689" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1689">
+        <v>2021</v>
+      </c>
+      <c r="F1689" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1689" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1689">
+        <v>6</v>
+      </c>
+      <c r="I1689">
+        <v>0.38888888900000002</v>
+      </c>
+      <c r="J1689">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:10">
+      <c r="A1690" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1690" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1690">
+        <v>2021</v>
+      </c>
+      <c r="F1690" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1690" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1690">
+        <v>5</v>
+      </c>
+      <c r="I1690">
+        <v>0.2</v>
+      </c>
+      <c r="J1690">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:10">
+      <c r="A1691" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1691" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1691">
+        <v>2021</v>
+      </c>
+      <c r="F1691" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1691" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1691">
+        <v>5</v>
+      </c>
+      <c r="I1691">
+        <v>0.1875</v>
+      </c>
+      <c r="J1691">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:10">
+      <c r="A1692" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1692" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1692">
+        <v>2021</v>
+      </c>
+      <c r="F1692" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1692" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1692">
+        <v>5</v>
+      </c>
+      <c r="I1692">
+        <v>0.222222222</v>
+      </c>
+      <c r="J1692">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:10">
+      <c r="A1693" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1693" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1693">
+        <v>2021</v>
+      </c>
+      <c r="F1693" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1693" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1693">
+        <v>5</v>
+      </c>
+      <c r="I1693">
+        <v>0.12121212100000001</v>
+      </c>
+      <c r="J1693">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:10">
+      <c r="A1694" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1694" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1694">
+        <v>2021</v>
+      </c>
+      <c r="F1694" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1694" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1694">
+        <v>5</v>
+      </c>
+      <c r="I1694">
+        <v>0.20588235299999999</v>
+      </c>
+      <c r="J1694">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:10">
+      <c r="A1695" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1695" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1695">
+        <v>2021</v>
+      </c>
+      <c r="F1695" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1695" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1695">
+        <v>5</v>
+      </c>
+      <c r="I1695">
+        <v>0.171428571</v>
+      </c>
+      <c r="J1695">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:10">
+      <c r="A1696" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1696" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1696">
+        <v>2021</v>
+      </c>
+      <c r="F1696" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1696" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1696">
+        <v>5</v>
+      </c>
+      <c r="I1696">
+        <v>8.5714286000000001E-2</v>
+      </c>
+      <c r="J1696">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:10">
+      <c r="A1697" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1697" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1697">
+        <v>2021</v>
+      </c>
+      <c r="F1697" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1697" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1697">
+        <v>5</v>
+      </c>
+      <c r="I1697">
+        <v>7.1428570999999996E-2</v>
+      </c>
+      <c r="J1697">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:10">
+      <c r="A1698" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1698" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1698">
+        <v>2021</v>
+      </c>
+      <c r="F1698" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1698" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1698">
+        <v>5</v>
+      </c>
+      <c r="I1698">
+        <v>0.212121212</v>
+      </c>
+      <c r="J1698">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:10">
+      <c r="A1699" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1699" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1699">
+        <v>2021</v>
+      </c>
+      <c r="F1699" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1699" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1699">
+        <v>5</v>
+      </c>
+      <c r="I1699">
+        <v>0.13888888899999999</v>
+      </c>
+      <c r="J1699">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:10">
+      <c r="A1700" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1700" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1700">
+        <v>2021</v>
+      </c>
+      <c r="F1700" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1700" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1700">
+        <v>4</v>
+      </c>
+      <c r="I1700">
+        <v>0.34285714299999998</v>
+      </c>
+      <c r="J1700">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:10">
+      <c r="A1701" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1701" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1701">
+        <v>2021</v>
+      </c>
+      <c r="F1701" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1701" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1701">
+        <v>4</v>
+      </c>
+      <c r="I1701">
+        <v>0.28125</v>
+      </c>
+      <c r="J1701">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:10">
+      <c r="A1702" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1702" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1702">
+        <v>2021</v>
+      </c>
+      <c r="F1702" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1702" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1702">
+        <v>4</v>
+      </c>
+      <c r="I1702">
+        <v>0.19444444399999999</v>
+      </c>
+      <c r="J1702">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:10">
+      <c r="A1703" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1703" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1703">
+        <v>2021</v>
+      </c>
+      <c r="F1703" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1703" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1703">
+        <v>4</v>
+      </c>
+      <c r="I1703">
+        <v>0.27272727299999999</v>
+      </c>
+      <c r="J1703">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:10">
+      <c r="A1704" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1704" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1704">
+        <v>2021</v>
+      </c>
+      <c r="F1704" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1704" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1704">
+        <v>4</v>
+      </c>
+      <c r="I1704">
+        <v>0.147058824</v>
+      </c>
+      <c r="J1704">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:10">
+      <c r="A1705" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1705" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1705">
+        <v>2021</v>
+      </c>
+      <c r="F1705" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1705" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1705">
+        <v>4</v>
+      </c>
+      <c r="I1705">
+        <v>0.2</v>
+      </c>
+      <c r="J1705">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:10">
+      <c r="A1706" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1706" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1706">
+        <v>2021</v>
+      </c>
+      <c r="F1706" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1706" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1706">
+        <v>4</v>
+      </c>
+      <c r="I1706">
+        <v>0.257142857</v>
+      </c>
+      <c r="J1706">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:10">
+      <c r="A1707" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1707" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1707">
+        <v>2021</v>
+      </c>
+      <c r="F1707" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1707" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1707">
+        <v>4</v>
+      </c>
+      <c r="I1707">
+        <v>0.428571429</v>
+      </c>
+      <c r="J1707">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:10">
+      <c r="A1708" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1708" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1708">
+        <v>2021</v>
+      </c>
+      <c r="F1708" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1708" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1708">
+        <v>4</v>
+      </c>
+      <c r="I1708">
+        <v>0.18181818199999999</v>
+      </c>
+      <c r="J1708">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:10">
+      <c r="A1709" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1709" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1709">
+        <v>2021</v>
+      </c>
+      <c r="F1709" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1709" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1709">
+        <v>4</v>
+      </c>
+      <c r="I1709">
+        <v>0.36111111099999998</v>
+      </c>
+      <c r="J1709">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:10">
+      <c r="A1710" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1710" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1710">
+        <v>2021</v>
+      </c>
+      <c r="F1710" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1710" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1710">
+        <v>3</v>
+      </c>
+      <c r="I1710">
+        <v>5.7142856999999998E-2</v>
+      </c>
+      <c r="J1710">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:10">
+      <c r="A1711" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1711" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1711">
+        <v>2021</v>
+      </c>
+      <c r="F1711" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1711" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1711">
+        <v>3</v>
+      </c>
+      <c r="I1711">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J1711">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:10">
+      <c r="A1712" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1712" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1712">
+        <v>2021</v>
+      </c>
+      <c r="F1712" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1712" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1712">
+        <v>3</v>
+      </c>
+      <c r="I1712">
+        <v>5.5555555999999999E-2</v>
+      </c>
+      <c r="J1712">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:10">
+      <c r="A1713" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1713" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1713">
+        <v>2021</v>
+      </c>
+      <c r="F1713" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1713" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1713">
+        <v>3</v>
+      </c>
+      <c r="I1713">
+        <v>9.0909090999999997E-2</v>
+      </c>
+      <c r="J1713">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:10">
+      <c r="A1714" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1714" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1714">
+        <v>2021</v>
+      </c>
+      <c r="F1714" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1714" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1714">
+        <v>3</v>
+      </c>
+      <c r="I1714">
+        <v>8.8235294000000006E-2</v>
+      </c>
+      <c r="J1714">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:10">
+      <c r="A1715" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1715" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1715">
+        <v>2021</v>
+      </c>
+      <c r="F1715" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1715" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1715">
+        <v>3</v>
+      </c>
+      <c r="I1715">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="J1715">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:10">
+      <c r="A1716" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1716" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1716">
+        <v>2021</v>
+      </c>
+      <c r="F1716" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1716" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1716">
+        <v>3</v>
+      </c>
+      <c r="I1716">
+        <v>0.171428571</v>
+      </c>
+      <c r="J1716">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:10">
+      <c r="A1717" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1717" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1717">
+        <v>2021</v>
+      </c>
+      <c r="F1717" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1717" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1717">
+        <v>3</v>
+      </c>
+      <c r="I1717">
+        <v>0.10714285699999999</v>
+      </c>
+      <c r="J1717">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:10">
+      <c r="A1718" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1718" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1718">
+        <v>2021</v>
+      </c>
+      <c r="F1718" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1718" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1718">
+        <v>3</v>
+      </c>
+      <c r="I1718">
+        <v>3.0303030000000002E-2</v>
+      </c>
+      <c r="J1718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:10">
+      <c r="A1719" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1719" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1719">
+        <v>2021</v>
+      </c>
+      <c r="F1719" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1719" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1719">
+        <v>3</v>
+      </c>
+      <c r="I1719">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="J1719">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:10">
+      <c r="A1720" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1720" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1720">
+        <v>2021</v>
+      </c>
+      <c r="F1720" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1720" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1720">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:10">
+      <c r="A1721" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1721" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1721">
+        <v>2021</v>
+      </c>
+      <c r="F1721" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1721" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1721">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:10">
+      <c r="A1722" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1722" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1722">
+        <v>2021</v>
+      </c>
+      <c r="F1722" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1722" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1722">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:10">
+      <c r="A1723" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1723" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1723">
+        <v>2021</v>
+      </c>
+      <c r="F1723" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1723" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1723">
+        <v>2</v>
+      </c>
+      <c r="I1723">
+        <v>3.0303030000000002E-2</v>
+      </c>
+      <c r="J1723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:10">
+      <c r="A1724" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1724" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1724">
+        <v>2021</v>
+      </c>
+      <c r="F1724" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1724" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1724">
+        <v>2</v>
+      </c>
+      <c r="I1724">
+        <v>2.9411764999999999E-2</v>
+      </c>
+      <c r="J1724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:10">
+      <c r="A1725" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1725" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1725">
+        <v>2021</v>
+      </c>
+      <c r="F1725" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1725" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1725">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:10">
+      <c r="A1726" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1726" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1726">
+        <v>2021</v>
+      </c>
+      <c r="F1726" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1726" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1726">
+        <v>2</v>
+      </c>
+      <c r="I1726">
+        <v>2.8571428999999999E-2</v>
+      </c>
+      <c r="J1726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:10">
+      <c r="A1727" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1727" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1727">
+        <v>2021</v>
+      </c>
+      <c r="F1727" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1727" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1727">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:10">
+      <c r="A1728" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1728" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1728">
+        <v>2021</v>
+      </c>
+      <c r="F1728" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1728" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1728">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:10">
+      <c r="A1729" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1729" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1729">
+        <v>2021</v>
+      </c>
+      <c r="F1729" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1729" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1729">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:10">
+      <c r="A1730" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1730" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1730">
+        <v>2021</v>
+      </c>
+      <c r="F1730" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1730" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:10">
+      <c r="A1731" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1731" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1731">
+        <v>2021</v>
+      </c>
+      <c r="F1731" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1731" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:10">
+      <c r="A1732" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1732" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1732">
+        <v>2021</v>
+      </c>
+      <c r="F1732" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1732" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1732">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:10">
+      <c r="A1733" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1733" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1733">
+        <v>2021</v>
+      </c>
+      <c r="F1733" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1733" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:10">
+      <c r="A1734" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1734" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1734">
+        <v>2021</v>
+      </c>
+      <c r="F1734" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1734" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:10">
+      <c r="A1735" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1735" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1735">
+        <v>2021</v>
+      </c>
+      <c r="F1735" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1735" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:10">
+      <c r="A1736" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1736" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1736">
+        <v>2021</v>
+      </c>
+      <c r="F1736" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1736" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:10">
+      <c r="A1737" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1737" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1737">
+        <v>2021</v>
+      </c>
+      <c r="F1737" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1737" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1737">
+        <v>1</v>
+      </c>
+      <c r="I1737">
+        <v>7.1428570999999996E-2</v>
+      </c>
+      <c r="J1737">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:10">
+      <c r="A1738" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1738" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1738">
+        <v>2021</v>
+      </c>
+      <c r="F1738" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1738" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:10">
+      <c r="A1739" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1739" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1739">
+        <v>2021</v>
+      </c>
+      <c r="F1739" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1739" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1739">
+        <v>1</v>
+      </c>
+      <c r="I1739">
+        <v>2.7777777999999999E-2</v>
+      </c>
+      <c r="J1739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:10">
+      <c r="A1740" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1740" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1740">
+        <v>2021</v>
+      </c>
+      <c r="F1740" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1740" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1740">
+        <v>6</v>
+      </c>
+      <c r="I1740">
+        <v>0.38709677399999998</v>
+      </c>
+      <c r="J1740">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:10">
+      <c r="A1741" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1741" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1741">
+        <v>2021</v>
+      </c>
+      <c r="F1741" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1741" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1741">
+        <v>6</v>
+      </c>
+      <c r="I1741">
+        <v>0.41935483899999998</v>
+      </c>
+      <c r="J1741">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:10">
+      <c r="A1742" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1742" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1742">
+        <v>2021</v>
+      </c>
+      <c r="F1742" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1742" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1742">
+        <v>6</v>
+      </c>
+      <c r="I1742">
+        <v>0.38709677399999998</v>
+      </c>
+      <c r="J1742">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:10">
+      <c r="A1743" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1743" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1743">
+        <v>2021</v>
+      </c>
+      <c r="F1743" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1743" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1743">
+        <v>6</v>
+      </c>
+      <c r="I1743">
+        <v>0.29032258100000002</v>
+      </c>
+      <c r="J1743">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:10">
+      <c r="A1744" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1744" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1744">
+        <v>2021</v>
+      </c>
+      <c r="F1744" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1744" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1744">
+        <v>6</v>
+      </c>
+      <c r="I1744">
+        <v>0.322580645</v>
+      </c>
+      <c r="J1744">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:10">
+      <c r="A1745" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1745" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1745">
+        <v>2021</v>
+      </c>
+      <c r="F1745" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1745" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1745">
+        <v>6</v>
+      </c>
+      <c r="I1745">
+        <v>0.35483871</v>
+      </c>
+      <c r="J1745">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:10">
+      <c r="A1746" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1746" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1746">
+        <v>2021</v>
+      </c>
+      <c r="F1746" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1746" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1746">
+        <v>5</v>
+      </c>
+      <c r="I1746">
+        <v>0.41935483899999998</v>
+      </c>
+      <c r="J1746">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:10">
+      <c r="A1747" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1747" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1747">
+        <v>2021</v>
+      </c>
+      <c r="F1747" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1747" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1747">
+        <v>5</v>
+      </c>
+      <c r="I1747">
+        <v>0.38709677399999998</v>
+      </c>
+      <c r="J1747">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:10">
+      <c r="A1748" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1748" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1748">
+        <v>2021</v>
+      </c>
+      <c r="F1748" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1748" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1748">
+        <v>5</v>
+      </c>
+      <c r="I1748">
+        <v>0.41935483899999998</v>
+      </c>
+      <c r="J1748">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:10">
+      <c r="A1749" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1749" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1749">
+        <v>2021</v>
+      </c>
+      <c r="F1749" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1749" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1749">
+        <v>5</v>
+      </c>
+      <c r="I1749">
+        <v>0.45161290300000001</v>
+      </c>
+      <c r="J1749">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:10">
+      <c r="A1750" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1750" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1750">
+        <v>2021</v>
+      </c>
+      <c r="F1750" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1750" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1750">
+        <v>5</v>
+      </c>
+      <c r="I1750">
+        <v>0.41935483899999998</v>
+      </c>
+      <c r="J1750">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:10">
+      <c r="A1751" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1751" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1751">
+        <v>2021</v>
+      </c>
+      <c r="F1751" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1751" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1751">
+        <v>5</v>
+      </c>
+      <c r="I1751">
+        <v>0.38709677399999998</v>
+      </c>
+      <c r="J1751">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:10">
+      <c r="A1752" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1752" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1752">
+        <v>2021</v>
+      </c>
+      <c r="F1752" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1752" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1752">
+        <v>4</v>
+      </c>
+      <c r="I1752">
+        <v>0.19354838699999999</v>
+      </c>
+      <c r="J1752">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:10">
+      <c r="A1753" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1753" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1753">
+        <v>2021</v>
+      </c>
+      <c r="F1753" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1753" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1753">
+        <v>4</v>
+      </c>
+      <c r="I1753">
+        <v>0.19354838699999999</v>
+      </c>
+      <c r="J1753">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:10">
+      <c r="A1754" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1754" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1754">
+        <v>2021</v>
+      </c>
+      <c r="F1754" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1754" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1754">
+        <v>4</v>
+      </c>
+      <c r="I1754">
+        <v>0.19354838699999999</v>
+      </c>
+      <c r="J1754">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:10">
+      <c r="A1755" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1755" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1755">
+        <v>2021</v>
+      </c>
+      <c r="F1755" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1755" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1755">
+        <v>4</v>
+      </c>
+      <c r="I1755">
+        <v>0.25806451600000002</v>
+      </c>
+      <c r="J1755">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:10">
+      <c r="A1756" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1756" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1756">
+        <v>2021</v>
+      </c>
+      <c r="F1756" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1756" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1756">
+        <v>4</v>
+      </c>
+      <c r="I1756">
+        <v>0.19354838699999999</v>
+      </c>
+      <c r="J1756">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:10">
+      <c r="A1757" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1757" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1757">
+        <v>2021</v>
+      </c>
+      <c r="F1757" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1757" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1757">
+        <v>4</v>
+      </c>
+      <c r="I1757">
+        <v>0.25806451600000002</v>
+      </c>
+      <c r="J1757">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:10">
+      <c r="A1758" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1758" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1758">
+        <v>2021</v>
+      </c>
+      <c r="F1758" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1758" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1758">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:10">
+      <c r="A1759" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1759" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1759">
+        <v>2021</v>
+      </c>
+      <c r="F1759" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1759" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1759">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:10">
+      <c r="A1760" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1760" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1760">
+        <v>2021</v>
+      </c>
+      <c r="F1760" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1760" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1760">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:10">
+      <c r="A1761" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1761" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1761">
+        <v>2021</v>
+      </c>
+      <c r="F1761" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1761" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1761">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:10">
+      <c r="A1762" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1762" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1762">
+        <v>2021</v>
+      </c>
+      <c r="F1762" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1762" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1762">
+        <v>3</v>
+      </c>
+      <c r="I1762">
+        <v>3.2258065000000002E-2</v>
+      </c>
+      <c r="J1762">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:10">
+      <c r="A1763" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1763" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1763">
+        <v>2021</v>
+      </c>
+      <c r="F1763" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1763" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1763">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:10">
+      <c r="A1764" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1764" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1764">
+        <v>2021</v>
+      </c>
+      <c r="F1764" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1764" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1764">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:10">
+      <c r="A1765" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1765" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1765">
+        <v>2021</v>
+      </c>
+      <c r="F1765" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1765" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1765">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:10">
+      <c r="A1766" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1766" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1766">
+        <v>2021</v>
+      </c>
+      <c r="F1766" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1766" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1766">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:10">
+      <c r="A1767" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1767" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1767">
+        <v>2021</v>
+      </c>
+      <c r="F1767" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1767" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1767">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:10">
+      <c r="A1768" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1768" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1768">
+        <v>2021</v>
+      </c>
+      <c r="F1768" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1768" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1768">
+        <v>2</v>
+      </c>
+      <c r="I1768">
+        <v>3.2258065000000002E-2</v>
+      </c>
+      <c r="J1768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:10">
+      <c r="A1769" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1769" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1769">
+        <v>2021</v>
+      </c>
+      <c r="F1769" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1769" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1769">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:10">
+      <c r="A1770" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1770" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1770">
+        <v>2021</v>
+      </c>
+      <c r="F1770" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1770" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1770">
+        <v>1</v>
+      </c>
+      <c r="I1770">
+        <v>3.2258065000000002E-2</v>
+      </c>
+      <c r="J1770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:10">
+      <c r="A1771" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1771" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1771">
+        <v>2021</v>
+      </c>
+      <c r="F1771" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1771" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1771">
+        <v>6</v>
+      </c>
+      <c r="I1771">
+        <v>0.41666666699999999</v>
+      </c>
+      <c r="J1771">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:10">
+      <c r="A1772" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1772" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1772">
+        <v>2021</v>
+      </c>
+      <c r="F1772" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1772" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1772">
+        <v>6</v>
+      </c>
+      <c r="I1772">
+        <v>0.36363636399999999</v>
+      </c>
+      <c r="J1772">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:10">
+      <c r="A1773" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1773" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1773">
+        <v>2021</v>
+      </c>
+      <c r="F1773" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1773" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1773">
+        <v>6</v>
+      </c>
+      <c r="I1773">
+        <v>0.36363636399999999</v>
+      </c>
+      <c r="J1773">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:10">
+      <c r="A1774" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1774" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1774">
+        <v>2021</v>
+      </c>
+      <c r="F1774" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1774" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1774">
+        <v>5</v>
+      </c>
+      <c r="I1774">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="J1774">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:10">
+      <c r="A1775" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1775" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1775">
+        <v>2021</v>
+      </c>
+      <c r="F1775" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1775" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1775">
+        <v>5</v>
+      </c>
+      <c r="I1775">
+        <v>0.303030303</v>
+      </c>
+      <c r="J1775">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:10">
+      <c r="A1776" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1776" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1776">
+        <v>2021</v>
+      </c>
+      <c r="F1776" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1776" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1776">
+        <v>5</v>
+      </c>
+      <c r="I1776">
+        <v>0.36363636399999999</v>
+      </c>
+      <c r="J1776">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:10">
+      <c r="A1777" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1777" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1777">
+        <v>2021</v>
+      </c>
+      <c r="F1777" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1777" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1777">
+        <v>4</v>
+      </c>
+      <c r="I1777">
+        <v>0.25</v>
+      </c>
+      <c r="J1777">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:10">
+      <c r="A1778" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1778" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1778">
+        <v>2021</v>
+      </c>
+      <c r="F1778" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1778" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1778">
+        <v>4</v>
+      </c>
+      <c r="I1778">
+        <v>0.18181818199999999</v>
+      </c>
+      <c r="J1778">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:10">
+      <c r="A1779" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1779" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1779">
+        <v>2021</v>
+      </c>
+      <c r="F1779" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1779" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1779">
+        <v>4</v>
+      </c>
+      <c r="I1779">
+        <v>0.18181818199999999</v>
+      </c>
+      <c r="J1779">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:10">
+      <c r="A1780" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1780" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1780">
+        <v>2021</v>
+      </c>
+      <c r="F1780" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1780" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1780">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:10">
+      <c r="A1781" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1781" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1781">
+        <v>2021</v>
+      </c>
+      <c r="F1781" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1781" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1781">
+        <v>3</v>
+      </c>
+      <c r="I1781">
+        <v>0.12121212100000001</v>
+      </c>
+      <c r="J1781">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:10">
+      <c r="A1782" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1782" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1782">
+        <v>2021</v>
+      </c>
+      <c r="F1782" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1782" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1782">
+        <v>2</v>
+      </c>
+      <c r="I1782">
+        <v>9.0909090999999997E-2</v>
+      </c>
+      <c r="J1782">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:10">
+      <c r="A1783" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1783" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1783">
+        <v>2021</v>
+      </c>
+      <c r="F1783" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1783" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1783">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:10">
+      <c r="A1784" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1784" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1784">
+        <v>2021</v>
+      </c>
+      <c r="F1784" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1784" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1784">
+        <v>1</v>
+      </c>
+      <c r="I1784">
+        <v>3.0303030000000002E-2</v>
+      </c>
+      <c r="J1784">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
